--- a/EconomicProject/Examples/Report_E3.xlsx
+++ b/EconomicProject/Examples/Report_E3.xlsx
@@ -450,31 +450,31 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>1266:1339</t>
+    <t>1251:1323</t>
   </si>
   <si>
-    <t>1339:1412</t>
+    <t>1323:1395</t>
   </si>
   <si>
-    <t>1412:1484</t>
+    <t>1395:1467</t>
   </si>
   <si>
-    <t>1484:1557</t>
+    <t>1467:1539</t>
   </si>
   <si>
-    <t>1557:1630</t>
+    <t>1539:1611</t>
   </si>
   <si>
-    <t>1630:1702</t>
+    <t>1611:1683</t>
   </si>
   <si>
-    <t>1702:1775</t>
+    <t>1683:1755</t>
   </si>
   <si>
-    <t>1775:1847</t>
+    <t>1755:1827</t>
   </si>
   <si>
-    <t>1847:1920</t>
+    <t>1827:1899</t>
   </si>
 </sst>
 </file>
@@ -3506,31 +3506,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1266:1339</c:v>
+                  <c:v>1251:1323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1339:1412</c:v>
+                  <c:v>1323:1395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1412:1484</c:v>
+                  <c:v>1395:1467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1484:1557</c:v>
+                  <c:v>1467:1539</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1557:1630</c:v>
+                  <c:v>1539:1611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1630:1702</c:v>
+                  <c:v>1611:1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1702:1775</c:v>
+                  <c:v>1683:1755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1775:1847</c:v>
+                  <c:v>1755:1827</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1847:1920</c:v>
+                  <c:v>1827:1899</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3542,31 +3542,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>122</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>131</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1379.8573487016</v>
+        <v>1629.212828085149</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="5">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -24152,13 +24152,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>1700.634094118973</v>
+        <v>1603.12837492376</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E3" s="5">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24166,13 +24166,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>1678.156945695052</v>
+        <v>1525.943330250497</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E4" s="5">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -24180,13 +24180,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>1318.725490764969</v>
+        <v>1377.154672572911</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="5">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -24194,13 +24194,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>1440.437347689021</v>
+        <v>1403.706286198523</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="5">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -24208,13 +24208,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>1349.163907621222</v>
+        <v>1432.793908001115</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E7" s="5">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24222,13 +24222,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>1416.451194125207</v>
+        <v>1500.102430843306</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="5">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -24236,13 +24236,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>1777.894912603772</v>
+        <v>1459.561407806294</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="5">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24250,13 +24250,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>1417.129570793033</v>
+        <v>1395.176798102027</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="5">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -24264,7 +24264,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>1793.056058327471</v>
+        <v>1766.150940973518</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24272,7 +24272,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>1814.442814755553</v>
+        <v>1452.1474716073</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24280,7 +24280,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>1757.699456720262</v>
+        <v>1437.501683827052</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24288,7 +24288,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>1790.766878968115</v>
+        <v>1541.832572317601</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -24296,7 +24296,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>1305.715540337255</v>
+        <v>1424.524347063736</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -24304,7 +24304,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>1534.407579703451</v>
+        <v>1395.385663617551</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -24312,7 +24312,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>1567.377535204372</v>
+        <v>1592.383824724408</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24320,7 +24320,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>1792.931329289172</v>
+        <v>1466.861695319077</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24328,7 +24328,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>1438.906136694958</v>
+        <v>1605.930160468392</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -24336,7 +24336,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>1737.313286768952</v>
+        <v>1457.07736652467</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -24344,7 +24344,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>1369.852132013878</v>
+        <v>1372.65588579803</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -24352,7 +24352,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>1575.954312628418</v>
+        <v>1634.957784813179</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -24360,7 +24360,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>1675.420894980524</v>
+        <v>1335.401633213059</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -24368,7 +24368,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>1467.432767831286</v>
+        <v>1560.325019565333</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -24376,7 +24376,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>1397.538986811909</v>
+        <v>1373.934630985183</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -24384,7 +24384,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>1331.80112758026</v>
+        <v>1450.910174634806</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -24392,7 +24392,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>1803.037036388729</v>
+        <v>1422.570384737716</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -24400,7 +24400,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>1805.746014878702</v>
+        <v>1313.427247098892</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -24408,7 +24408,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>1439.49383690257</v>
+        <v>1655.2652061499</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -24416,7 +24416,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>1532.68145005726</v>
+        <v>1624.580357424756</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -24424,7 +24424,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>1596.138862603555</v>
+        <v>1729.616218752923</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -24432,7 +24432,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>1569.123358433415</v>
+        <v>1845.837779446136</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -24440,7 +24440,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>1462.013469882857</v>
+        <v>1552.379036074972</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -24448,7 +24448,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>1492.535414083968</v>
+        <v>1672.327441919595</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -24456,7 +24456,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>1470.993465107162</v>
+        <v>1526.654167189802</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24464,7 +24464,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>1768.356602515488</v>
+        <v>1735.577695557325</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -24472,7 +24472,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>1805.885801320708</v>
+        <v>1351.553329754581</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -24480,7 +24480,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>1634.931536200735</v>
+        <v>1874.073946026715</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -24488,7 +24488,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>1427.025198784422</v>
+        <v>1751.29758629415</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -24496,7 +24496,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>1662.036177922266</v>
+        <v>1397.242680023229</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24504,7 +24504,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>1765.345290201461</v>
+        <v>1806.075283608757</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -24512,7 +24512,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>1336.585241552652</v>
+        <v>1646.261724327002</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24520,7 +24520,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>1802.70169897093</v>
+        <v>1421.803282485848</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -24528,7 +24528,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>1792.097153776994</v>
+        <v>1743.70130901775</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -24536,7 +24536,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>1569.93139079853</v>
+        <v>1761.731577889693</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -24544,7 +24544,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>1740.24813824331</v>
+        <v>1423.115199706327</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -24552,7 +24552,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>1424.80898103283</v>
+        <v>1632.108488001504</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -24560,7 +24560,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>1674.602546482638</v>
+        <v>1649.218054934661</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -24568,7 +24568,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>1414.421016835247</v>
+        <v>1694.188392663028</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -24576,7 +24576,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>1415.652551001993</v>
+        <v>1358.615582342976</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -24584,7 +24584,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>1429.45925343278</v>
+        <v>1422.324142672862</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -24592,7 +24592,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>1632.365739765574</v>
+        <v>1531.528186830627</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -24600,7 +24600,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>1374.324020657077</v>
+        <v>1690.643223297202</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -24608,7 +24608,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>1392.845375758364</v>
+        <v>1505.343779995236</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -24616,7 +24616,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>1431.13484604206</v>
+        <v>1353.70791627012</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -24624,7 +24624,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>1733.542949757425</v>
+        <v>1619.120154304121</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -24632,7 +24632,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>1752.686430464872</v>
+        <v>1547.406940860741</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -24640,7 +24640,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>1402.005123838468</v>
+        <v>1536.805199174845</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -24648,7 +24648,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>1870.38969703766</v>
+        <v>1802.952576630439</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -24656,7 +24656,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>1734.533920039135</v>
+        <v>1463.596970723864</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -24664,7 +24664,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>1869.441832087317</v>
+        <v>1805.37041697418</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -24672,7 +24672,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>1286.429940014985</v>
+        <v>1781.746132175592</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -24680,7 +24680,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>1759.678869876151</v>
+        <v>1326.837178918085</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -24688,7 +24688,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>1551.121128457056</v>
+        <v>1516.409954816273</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -24696,7 +24696,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>1665.37325058899</v>
+        <v>1634.511959911238</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -24704,7 +24704,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>1474.499715295146</v>
+        <v>1676.87278605132</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -24712,7 +24712,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>1324.914525030984</v>
+        <v>1656.166461007033</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -24720,7 +24720,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>1554.678055751628</v>
+        <v>1636.362982027707</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -24728,7 +24728,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>1771.767201717052</v>
+        <v>1613.435028972817</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -24736,7 +24736,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>1404.571349551315</v>
+        <v>1798.971356073509</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -24744,7 +24744,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>1595.15789576995</v>
+        <v>1635.53423103119</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -24752,7 +24752,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>1550.046159512499</v>
+        <v>1716.74047393297</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -24760,7 +24760,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>1447.397004217582</v>
+        <v>1558.847042927388</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -24768,7 +24768,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>1823.168348738312</v>
+        <v>1702.952135210989</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -24776,7 +24776,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>1756.972529844031</v>
+        <v>1707.091582362894</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -24784,7 +24784,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>1476.337840000921</v>
+        <v>1707.125017570025</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -24792,7 +24792,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>1795.953973310091</v>
+        <v>1482.622614041386</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -24800,7 +24800,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>1434.447026060707</v>
+        <v>1380.099064954741</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -24808,7 +24808,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>1758.70766556359</v>
+        <v>1737.73751736303</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -24816,7 +24816,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>1357.186104772025</v>
+        <v>1407.093603869331</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -24824,7 +24824,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>1730.887206593316</v>
+        <v>1431.294909089061</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -24832,7 +24832,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>1608.374381320451</v>
+        <v>1509.438830840536</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -24840,7 +24840,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>1835.907452625664</v>
+        <v>1414.832077480073</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -24848,7 +24848,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>1734.002132560659</v>
+        <v>1391.684695268852</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -24856,7 +24856,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>1524.633722310263</v>
+        <v>1593.141268360614</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -24864,7 +24864,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>1374.394533254962</v>
+        <v>1792.802443449526</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -24872,7 +24872,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>1718.611804688318</v>
+        <v>1442.864649969116</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -24880,7 +24880,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>1687.65468439907</v>
+        <v>1735.903021772947</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -24888,7 +24888,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>1502.773905222992</v>
+        <v>1882.383984338008</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -24896,7 +24896,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>1814.241675262528</v>
+        <v>1366.5789238729</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -24904,7 +24904,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>1815.269263988379</v>
+        <v>1832.094686499729</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -24912,7 +24912,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>1417.24918964699</v>
+        <v>1730.994088035238</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -24920,7 +24920,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>1613.204794872097</v>
+        <v>1340.545933178528</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -24928,7 +24928,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>1586.157951846224</v>
+        <v>1314.601026463264</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -24936,7 +24936,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>1723.458630424436</v>
+        <v>1852.27114459842</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -24944,7 +24944,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>1766.530364521532</v>
+        <v>1802.240249531555</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24952,7 +24952,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>1362.300315577585</v>
+        <v>1599.996911407406</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -24960,7 +24960,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>1460.443404271579</v>
+        <v>1534.184524982156</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24968,7 +24968,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>1415.888417570182</v>
+        <v>1793.936368004168</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -24976,7 +24976,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>1656.723200056091</v>
+        <v>1355.172370147113</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -24984,7 +24984,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>1586.880234646866</v>
+        <v>1370.834003677264</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -24992,7 +24992,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>1715.303834498741</v>
+        <v>1817.385488098469</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -25000,7 +25000,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>1524.865780768552</v>
+        <v>1404.674424572236</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -25008,7 +25008,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="5">
-        <v>1318.554831727393</v>
+        <v>1620.138617667447</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -25016,7 +25016,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>1700.542050698373</v>
+        <v>1452.812766885361</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -25024,7 +25024,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="5">
-        <v>1583.202077562247</v>
+        <v>1678.404414756896</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -25032,7 +25032,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>1566.097906460933</v>
+        <v>1724.305222960226</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -25040,7 +25040,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="5">
-        <v>1616.793896390077</v>
+        <v>1487.305860214247</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -25048,7 +25048,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>1491.742523356085</v>
+        <v>1810.870317429469</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -25056,7 +25056,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="5">
-        <v>1443.688503973877</v>
+        <v>1718.732051694673</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -25064,7 +25064,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>1637.39958284762</v>
+        <v>1383.373986485409</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -25072,7 +25072,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="5">
-        <v>1573.001355220544</v>
+        <v>1696.857267689416</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -25080,7 +25080,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>1416.60208768456</v>
+        <v>1840.574932195751</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -25088,7 +25088,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="5">
-        <v>1844.425987872481</v>
+        <v>1629.070507130444</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -25096,7 +25096,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>1574.89705679078</v>
+        <v>1646.294814222628</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -25104,7 +25104,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="5">
-        <v>1695.872594487051</v>
+        <v>1690.506489914333</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -25112,7 +25112,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>1670.069259077949</v>
+        <v>1585.684363559224</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -25120,7 +25120,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="5">
-        <v>1790.152902617458</v>
+        <v>1363.714654184566</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -25128,7 +25128,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>1285.391871350237</v>
+        <v>1827.522176849676</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -25136,7 +25136,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="5">
-        <v>1503.902341117151</v>
+        <v>1353.797301100319</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -25144,7 +25144,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>1606.696966667505</v>
+        <v>1437.484961122412</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -25152,7 +25152,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="5">
-        <v>1449.781556340455</v>
+        <v>1731.666546144019</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -25160,7 +25160,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>1471.537877479656</v>
+        <v>1696.664659581532</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -25168,7 +25168,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="5">
-        <v>1671.433425274311</v>
+        <v>1478.521560001558</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -25176,7 +25176,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>1866.783897342891</v>
+        <v>1660.133899265845</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -25184,7 +25184,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="5">
-        <v>1477.9657815469</v>
+        <v>1582.006060374208</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -25192,7 +25192,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>1398.673337080007</v>
+        <v>1356.263614468626</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -25200,7 +25200,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="5">
-        <v>1709.178240035959</v>
+        <v>1773.033633046347</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -25208,7 +25208,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>1481.369813329101</v>
+        <v>1761.627300040207</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -25216,7 +25216,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="5">
-        <v>1588.700055854972</v>
+        <v>1450.460261409745</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -25224,7 +25224,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>1758.432277549363</v>
+        <v>1844.482480089196</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -25232,7 +25232,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="5">
-        <v>1849.199494307805</v>
+        <v>1481.803363816359</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -25240,7 +25240,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>1425.478252550452</v>
+        <v>1812.490866592472</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -25248,7 +25248,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="5">
-        <v>1428.495026328704</v>
+        <v>1789.579073578949</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -25256,7 +25256,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>1473.811389817894</v>
+        <v>1668.061652874592</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -25264,7 +25264,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="5">
-        <v>1342.956452227535</v>
+        <v>1652.78722693809</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -25272,7 +25272,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>1563.563545369812</v>
+        <v>1639.704984820362</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -25280,7 +25280,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="5">
-        <v>1761.604386744049</v>
+        <v>1812.285673393416</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -25288,7 +25288,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>1867.871031598987</v>
+        <v>1633.192080060882</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -25296,7 +25296,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="5">
-        <v>1481.9320969855</v>
+        <v>1631.235351870126</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -25304,7 +25304,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>1872.705522692383</v>
+        <v>1724.973018432385</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -25312,7 +25312,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="5">
-        <v>1663.484950639085</v>
+        <v>1659.766529971081</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -25320,7 +25320,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>1843.396058883764</v>
+        <v>1412.476327646833</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -25328,7 +25328,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="5">
-        <v>1781.659299236509</v>
+        <v>1593.638035051499</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -25336,7 +25336,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>1717.568402084298</v>
+        <v>1831.862921592161</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -25344,7 +25344,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="5">
-        <v>1570.038748999887</v>
+        <v>1752.894257138739</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -25352,7 +25352,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>1545.628023557402</v>
+        <v>1437.147667043699</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -25360,7 +25360,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="5">
-        <v>1774.249189150377</v>
+        <v>1654.063836435999</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -25368,7 +25368,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>1877.844704545589</v>
+        <v>1474.970588242094</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -25376,7 +25376,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="5">
-        <v>1636.918661143427</v>
+        <v>1435.756352238246</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -25384,7 +25384,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>1623.576351961104</v>
+        <v>1841.210113609041</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -25392,7 +25392,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="5">
-        <v>1352.598606859191</v>
+        <v>1753.613800252047</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -25400,7 +25400,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>1721.366514783179</v>
+        <v>1572.955700323566</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -25408,7 +25408,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="5">
-        <v>1505.561907704247</v>
+        <v>1390.641862217085</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -25416,7 +25416,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>1805.050095026593</v>
+        <v>1649.772960606307</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -25424,7 +25424,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="5">
-        <v>1745.882590495475</v>
+        <v>1704.29476380066</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -25432,7 +25432,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>1433.000194982658</v>
+        <v>1574.187124618066</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -25440,7 +25440,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="5">
-        <v>1527.786299962531</v>
+        <v>1395.016542933264</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -25448,7 +25448,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>1655.775569916132</v>
+        <v>1718.569971876766</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -25456,7 +25456,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="5">
-        <v>1440.068229943144</v>
+        <v>1759.774961438195</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -25464,7 +25464,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>1429.309247179582</v>
+        <v>1817.318198776649</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -25472,7 +25472,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="5">
-        <v>1503.503815748691</v>
+        <v>1427.556358147834</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -25480,7 +25480,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>1802.098754164612</v>
+        <v>1473.192012105713</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -25488,7 +25488,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="5">
-        <v>1715.692986987714</v>
+        <v>1373.614952629249</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -25496,7 +25496,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>1691.987672351852</v>
+        <v>1526.141303086782</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -25504,7 +25504,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="5">
-        <v>1458.179352441949</v>
+        <v>1541.299211318335</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -25512,7 +25512,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>1284.511326430556</v>
+        <v>1296.069584955119</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -25520,7 +25520,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="5">
-        <v>1888.521602374198</v>
+        <v>1784.392751481576</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -25528,7 +25528,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>1699.622938029793</v>
+        <v>1338.632421235291</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -25536,7 +25536,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="5">
-        <v>1683.819058958329</v>
+        <v>1769.244711026309</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -25544,7 +25544,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>1575.185565015788</v>
+        <v>1415.293507064681</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -25552,7 +25552,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="5">
-        <v>1684.707071435075</v>
+        <v>1370.55441021527</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -25560,7 +25560,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>1875.723952705236</v>
+        <v>1305.447273722302</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -25568,7 +25568,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="5">
-        <v>1447.859858921335</v>
+        <v>1344.868525624743</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -25576,7 +25576,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>1488.087283756639</v>
+        <v>1434.27942286609</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -25584,7 +25584,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="5">
-        <v>1455.324781447798</v>
+        <v>1659.0928256523</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -25592,7 +25592,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>1420.300686167189</v>
+        <v>1401.875417942473</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -25600,7 +25600,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="5">
-        <v>1451.459674281208</v>
+        <v>1738.137953743309</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -25608,7 +25608,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>1404.64565664591</v>
+        <v>1663.606236409291</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -25616,7 +25616,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="5">
-        <v>1655.286959299948</v>
+        <v>1280.133012124803</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -25624,7 +25624,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>1680.911478273804</v>
+        <v>1377.252463192028</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -25632,7 +25632,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="5">
-        <v>1880.780061231395</v>
+        <v>1652.450947320606</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -25640,7 +25640,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>1467.846167155239</v>
+        <v>1532.1522535368</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -25648,7 +25648,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="5">
-        <v>1705.188240617794</v>
+        <v>1734.239285414405</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -25656,7 +25656,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>1365.707657712934</v>
+        <v>1713.340828313486</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -25664,7 +25664,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="5">
-        <v>1454.831391535002</v>
+        <v>1529.819453639986</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -25672,7 +25672,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>1491.512761627978</v>
+        <v>1471.134835036455</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -25680,7 +25680,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="5">
-        <v>1438.386243228978</v>
+        <v>1631.052215295462</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -25688,7 +25688,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>1659.932159868087</v>
+        <v>1591.995840036796</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -25696,7 +25696,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="5">
-        <v>1415.444369538905</v>
+        <v>1627.000563800243</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -25704,7 +25704,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>1787.228919525209</v>
+        <v>1336.939669920812</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -25712,7 +25712,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="5">
-        <v>1633.178299639243</v>
+        <v>1805.407097624473</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -25720,7 +25720,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>1819.725615572544</v>
+        <v>1695.657061657835</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -25728,7 +25728,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="5">
-        <v>1644.646834642953</v>
+        <v>1594.329013165397</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -25736,7 +25736,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>1852.068648609529</v>
+        <v>1807.218174190035</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -25744,7 +25744,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="5">
-        <v>1783.674872181759</v>
+        <v>1768.579391158339</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -25752,7 +25752,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>1682.738668374588</v>
+        <v>1444.065866610292</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -25760,7 +25760,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="5">
-        <v>1609.062956297004</v>
+        <v>1531.730890837231</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -25768,7 +25768,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>1796.051529658241</v>
+        <v>1544.166577462406</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -25776,7 +25776,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="5">
-        <v>1546.436253195962</v>
+        <v>1289.197113127542</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -25784,7 +25784,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>1500.145751881869</v>
+        <v>1550.117055909138</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -25792,7 +25792,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="5">
-        <v>1604.688437430655</v>
+        <v>1254.570421069461</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -25800,7 +25800,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="5">
-        <v>1462.961961186277</v>
+        <v>1740.724737861151</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -25808,7 +25808,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="5">
-        <v>1304.036318214134</v>
+        <v>1649.936073767334</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -25816,7 +25816,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="5">
-        <v>1745.622176686039</v>
+        <v>1818.132494919965</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -25824,7 +25824,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="5">
-        <v>1402.290662699397</v>
+        <v>1800.088181121618</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -25832,7 +25832,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="5">
-        <v>1813.311181232069</v>
+        <v>1592.806977267549</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -25840,7 +25840,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="5">
-        <v>1884.111386096279</v>
+        <v>1601.172379117622</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -25848,7 +25848,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="5">
-        <v>1439.864045117261</v>
+        <v>1623.155628359517</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -25856,7 +25856,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="5">
-        <v>1598.361064830083</v>
+        <v>1566.802280996371</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -25864,7 +25864,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="5">
-        <v>1793.630021996766</v>
+        <v>1478.139695503982</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -25872,7 +25872,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="5">
-        <v>1599.815359232882</v>
+        <v>1410.674324027482</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -25880,7 +25880,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="5">
-        <v>1345.660776058957</v>
+        <v>1811.470724321199</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -25888,7 +25888,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="5">
-        <v>1593.524512785486</v>
+        <v>1694.154267107593</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -25896,7 +25896,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="5">
-        <v>1322.76564333594</v>
+        <v>1578.371547621246</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -25904,7 +25904,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="5">
-        <v>1307.61146125859</v>
+        <v>1770.464724390442</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -25912,7 +25912,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="5">
-        <v>1553.287642451104</v>
+        <v>1511.637650131767</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -25920,7 +25920,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="5">
-        <v>1405.094706407688</v>
+        <v>1458.475648069908</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -25928,7 +25928,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="5">
-        <v>1836.504064544576</v>
+        <v>1731.881044976846</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -25936,7 +25936,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="5">
-        <v>1521.591136151089</v>
+        <v>1339.585618832821</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -25944,7 +25944,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="5">
-        <v>1459.486960721641</v>
+        <v>1737.937696962014</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -25952,7 +25952,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="5">
-        <v>1589.722594519467</v>
+        <v>1711.106809564741</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -25960,7 +25960,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="5">
-        <v>1640.837731638487</v>
+        <v>1526.0865864892</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -25968,7 +25968,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="5">
-        <v>1658.987316465448</v>
+        <v>1644.506231933468</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -25976,7 +25976,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="5">
-        <v>1439.255955395735</v>
+        <v>1565.033989650012</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -25984,7 +25984,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="5">
-        <v>1649.163073714618</v>
+        <v>1764.291429370092</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -25992,7 +25992,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="5">
-        <v>1770.572206196358</v>
+        <v>1587.558813676771</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -26000,7 +26000,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="5">
-        <v>1781.293741427986</v>
+        <v>1654.627076454326</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -26008,7 +26008,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="5">
-        <v>1443.574657964141</v>
+        <v>1790.791288608165</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -26016,7 +26016,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="5">
-        <v>1539.428560244353</v>
+        <v>1300.543922531965</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -26024,7 +26024,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="5">
-        <v>1452.917773466718</v>
+        <v>1534.432620801743</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -26032,7 +26032,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="5">
-        <v>1612.053008805141</v>
+        <v>1762.170691582705</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -26040,7 +26040,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="5">
-        <v>1692.337087787389</v>
+        <v>1292.186337856527</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -26048,7 +26048,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="5">
-        <v>1605.132608453102</v>
+        <v>1676.285937910003</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -26056,7 +26056,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="5">
-        <v>1656.354897773096</v>
+        <v>1798.476458198016</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -26064,7 +26064,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="5">
-        <v>1635.331482875393</v>
+        <v>1609.48471407148</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -26072,7 +26072,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="5">
-        <v>1505.067418842061</v>
+        <v>1642.224911950227</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -26080,7 +26080,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="5">
-        <v>1712.998176696527</v>
+        <v>1513.470963986584</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -26088,7 +26088,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="5">
-        <v>1498.088077054196</v>
+        <v>1486.390833159669</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -26096,7 +26096,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="5">
-        <v>1724.803679526818</v>
+        <v>1516.766242700254</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -26104,7 +26104,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="5">
-        <v>1857.444467042435</v>
+        <v>1271.700248517816</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -26112,7 +26112,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="5">
-        <v>1353.329515954486</v>
+        <v>1683.487253286011</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -26120,7 +26120,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="5">
-        <v>1591.863175127196</v>
+        <v>1528.471242349599</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -26128,7 +26128,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="5">
-        <v>1622.843436765074</v>
+        <v>1795.714169893776</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -26136,7 +26136,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="5">
-        <v>1579.446328760095</v>
+        <v>1793.96297975911</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -26144,7 +26144,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="5">
-        <v>1380.427392707894</v>
+        <v>1473.00331336825</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -26152,7 +26152,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="5">
-        <v>1311.357217820908</v>
+        <v>1438.490038928228</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -26160,7 +26160,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="5">
-        <v>1448.515099460296</v>
+        <v>1636.782887035555</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -26168,7 +26168,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="5">
-        <v>1687.698173400791</v>
+        <v>1640.115732801868</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -26176,7 +26176,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="5">
-        <v>1447.06292363085</v>
+        <v>1457.460724639302</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -26184,7 +26184,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="5">
-        <v>1643.217139607064</v>
+        <v>1610.409763124951</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -26192,7 +26192,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="5">
-        <v>1784.687804873449</v>
+        <v>1674.489064012845</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -26200,7 +26200,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="5">
-        <v>1837.365640397237</v>
+        <v>1364.164534730535</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -26208,7 +26208,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="5">
-        <v>1372.810962970095</v>
+        <v>1803.112472587766</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -26216,7 +26216,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="5">
-        <v>1315.894988783375</v>
+        <v>1577.645458917129</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -26224,7 +26224,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="5">
-        <v>1342.986667762661</v>
+        <v>1328.423131197623</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -26232,7 +26232,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="5">
-        <v>1511.795380445707</v>
+        <v>1730.025961833417</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -26240,7 +26240,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="5">
-        <v>1594.212947605495</v>
+        <v>1410.852489874897</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -26248,7 +26248,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="5">
-        <v>1648.698751114689</v>
+        <v>1362.632101764512</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -26256,7 +26256,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="5">
-        <v>1436.519436867505</v>
+        <v>1560.889326021752</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -26264,7 +26264,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="5">
-        <v>1461.467058572269</v>
+        <v>1389.976290698536</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -26272,7 +26272,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="5">
-        <v>1807.134598118257</v>
+        <v>1542.635141257913</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -26280,7 +26280,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="5">
-        <v>1523.980453258941</v>
+        <v>1699.049323855497</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -26288,7 +26288,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="5">
-        <v>1826.670977932788</v>
+        <v>1649.398604503444</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -26296,7 +26296,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="5">
-        <v>1428.494864008102</v>
+        <v>1674.982651379017</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -26304,7 +26304,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="5">
-        <v>1551.228333375775</v>
+        <v>1488.516624458753</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -26312,7 +26312,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="5">
-        <v>1561.17825779955</v>
+        <v>1692.868856004965</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -26320,7 +26320,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="5">
-        <v>1676.19773955965</v>
+        <v>1754.097191738978</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -26328,7 +26328,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="5">
-        <v>1830.471651938878</v>
+        <v>1440.847975623324</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -26336,7 +26336,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="5">
-        <v>1389.079471579182</v>
+        <v>1442.207566331152</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -26344,7 +26344,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="5">
-        <v>1497.694003547242</v>
+        <v>1463.945565288958</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -26352,7 +26352,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="5">
-        <v>1445.237123049625</v>
+        <v>1814.519627987735</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -26360,7 +26360,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="5">
-        <v>1705.845928516081</v>
+        <v>1640.035693622944</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -26368,7 +26368,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="5">
-        <v>1811.529460575453</v>
+        <v>1831.615744487258</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -26376,7 +26376,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="5">
-        <v>1406.6366666003</v>
+        <v>1798.14425993643</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -26384,7 +26384,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="5">
-        <v>1397.75723134713</v>
+        <v>1441.856467653229</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -26392,7 +26392,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="5">
-        <v>1842.180426252251</v>
+        <v>1445.801139838992</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -26400,7 +26400,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="5">
-        <v>1617.96090755674</v>
+        <v>1720.043784793878</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -26408,7 +26408,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="5">
-        <v>1798.426361212972</v>
+        <v>1734.394967389459</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -26416,7 +26416,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="5">
-        <v>1669.834308006037</v>
+        <v>1770.447713038694</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -26424,7 +26424,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="5">
-        <v>1851.070114171345</v>
+        <v>1743.428870643615</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -26432,7 +26432,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="5">
-        <v>1648.758438600952</v>
+        <v>1607.190650046359</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -26440,7 +26440,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="5">
-        <v>1560.496479334807</v>
+        <v>1331.55851509185</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -26448,7 +26448,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="5">
-        <v>1434.342944994532</v>
+        <v>1634.395369548056</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -26456,7 +26456,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="5">
-        <v>1416.732796225844</v>
+        <v>1291.839525190093</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -26464,7 +26464,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="5">
-        <v>1399.748591206084</v>
+        <v>1472.589269658788</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -26472,7 +26472,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="5">
-        <v>1719.777957888393</v>
+        <v>1417.694520315135</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -26480,7 +26480,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="5">
-        <v>1346.639467780797</v>
+        <v>1630.202276013492</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -26488,7 +26488,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="5">
-        <v>1426.275966459452</v>
+        <v>1686.068321253479</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -26496,7 +26496,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="5">
-        <v>1862.892467525234</v>
+        <v>1354.929572348719</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -26504,7 +26504,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="5">
-        <v>1601.899364899887</v>
+        <v>1578.403554895244</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -26512,7 +26512,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="5">
-        <v>1708.993471696817</v>
+        <v>1449.476445555627</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -26520,7 +26520,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="5">
-        <v>1622.66178813025</v>
+        <v>1416.742127177368</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -26528,7 +26528,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="5">
-        <v>1482.206194011277</v>
+        <v>1579.163106469576</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -26536,7 +26536,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="5">
-        <v>1561.629003692836</v>
+        <v>1810.636770329939</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -26544,7 +26544,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="5">
-        <v>1795.335393558821</v>
+        <v>1394.117195685106</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -26552,7 +26552,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="5">
-        <v>1719.828510142863</v>
+        <v>1424.97344774152</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -26560,7 +26560,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="5">
-        <v>1449.365640819115</v>
+        <v>1580.493016272495</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -26568,7 +26568,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="5">
-        <v>1754.528627938144</v>
+        <v>1315.823880291962</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -26576,7 +26576,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="5">
-        <v>1434.614833407059</v>
+        <v>1732.745089696303</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -26584,7 +26584,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="5">
-        <v>1787.465068611213</v>
+        <v>1510.89168758665</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -26592,7 +26592,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="5">
-        <v>1349.442326246658</v>
+        <v>1733.315043684449</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -26600,7 +26600,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="5">
-        <v>1799.051274421274</v>
+        <v>1448.030873599049</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -26608,7 +26608,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="5">
-        <v>1598.302351260323</v>
+        <v>1328.188649524816</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -26616,7 +26616,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="5">
-        <v>1312.73337008483</v>
+        <v>1318.265510914579</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -26624,7 +26624,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="5">
-        <v>1709.088742735966</v>
+        <v>1429.563242743698</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -26632,7 +26632,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="5">
-        <v>1417.510864047731</v>
+        <v>1467.663948596345</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -26640,7 +26640,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="5">
-        <v>1764.897526885418</v>
+        <v>1721.759327255858</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -26648,7 +26648,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="5">
-        <v>1664.485299219201</v>
+        <v>1561.404782489623</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -26656,7 +26656,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="5">
-        <v>1443.969845914465</v>
+        <v>1694.830110023427</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -26664,7 +26664,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="5">
-        <v>1350.727581623192</v>
+        <v>1841.899633093505</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -26672,7 +26672,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="5">
-        <v>1618.128508016642</v>
+        <v>1596.761434028727</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -26680,7 +26680,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="5">
-        <v>1833.988688256158</v>
+        <v>1625.269681879802</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -26688,7 +26688,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="5">
-        <v>1656.208913360485</v>
+        <v>1574.713720683727</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -26696,7 +26696,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="5">
-        <v>1376.971167885782</v>
+        <v>1404.205105339324</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -26704,7 +26704,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="5">
-        <v>1810.356111289184</v>
+        <v>1555.057809886749</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -26712,7 +26712,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="5">
-        <v>1652.25167234346</v>
+        <v>1655.849964564464</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -26720,7 +26720,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="5">
-        <v>1344.421717513165</v>
+        <v>1524.46859558159</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -26728,7 +26728,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="5">
-        <v>1698.662772003562</v>
+        <v>1731.496613420145</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -26736,7 +26736,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="5">
-        <v>1764.79092576126</v>
+        <v>1663.173045349288</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -26744,7 +26744,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="5">
-        <v>1548.302614331928</v>
+        <v>1692.263275546538</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -26752,7 +26752,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="5">
-        <v>1627.461206587959</v>
+        <v>1837.003169122097</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -26760,7 +26760,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="5">
-        <v>1436.523579161955</v>
+        <v>1476.302392201767</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -26768,7 +26768,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="5">
-        <v>1483.041015395847</v>
+        <v>1827.682122283115</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -26776,7 +26776,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="5">
-        <v>1719.717973297864</v>
+        <v>1779.414819078724</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -26784,7 +26784,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="5">
-        <v>1483.869170440365</v>
+        <v>1752.49557280083</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -26792,7 +26792,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="5">
-        <v>1443.038423525725</v>
+        <v>1519.952453916998</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -26800,7 +26800,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="5">
-        <v>1802.105058293619</v>
+        <v>1544.83829233756</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -26808,7 +26808,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="5">
-        <v>1303.474281085703</v>
+        <v>1756.949037580218</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -26816,7 +26816,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="5">
-        <v>1380.460636094967</v>
+        <v>1463.296594835816</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -26824,7 +26824,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="5">
-        <v>1864.363930329807</v>
+        <v>1286.052939901863</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -26832,7 +26832,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="5">
-        <v>1594.394535231794</v>
+        <v>1651.483633140679</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -26840,7 +26840,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="5">
-        <v>1741.19037238669</v>
+        <v>1549.388512037271</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -26848,7 +26848,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="5">
-        <v>1437.120660263086</v>
+        <v>1434.241712634963</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -26856,7 +26856,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="5">
-        <v>1575.248325388879</v>
+        <v>1555.361999838915</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -26864,7 +26864,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="5">
-        <v>1521.456573027386</v>
+        <v>1692.843571191228</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -26872,7 +26872,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="5">
-        <v>1564.820502610398</v>
+        <v>1738.472619263855</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -26880,7 +26880,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="5">
-        <v>1552.214725454537</v>
+        <v>1408.834549915115</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -26888,7 +26888,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="5">
-        <v>1459.595482787451</v>
+        <v>1730.205072353734</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -26896,7 +26896,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="5">
-        <v>1609.10868636363</v>
+        <v>1293.460698857338</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -26904,7 +26904,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="5">
-        <v>1377.02999534962</v>
+        <v>1692.479975355358</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -26912,7 +26912,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="5">
-        <v>1738.369823842499</v>
+        <v>1362.882384988216</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -26920,7 +26920,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="5">
-        <v>1446.444387632666</v>
+        <v>1474.74272609076</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -26928,7 +26928,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="5">
-        <v>1367.253009368217</v>
+        <v>1658.053593907443</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -26936,7 +26936,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="5">
-        <v>1689.752539839089</v>
+        <v>1859.605717190168</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -26944,7 +26944,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="5">
-        <v>1533.377396621603</v>
+        <v>1637.059835573005</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -26952,7 +26952,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="5">
-        <v>1732.986919570088</v>
+        <v>1393.323917618143</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -26960,7 +26960,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="5">
-        <v>1747.876561335001</v>
+        <v>1492.893725614027</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -26968,7 +26968,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="5">
-        <v>1618.229887675995</v>
+        <v>1755.333627527819</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -26976,7 +26976,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="5">
-        <v>1514.026716272599</v>
+        <v>1847.25944049519</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -26984,7 +26984,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="5">
-        <v>1563.49892831646</v>
+        <v>1653.107168904136</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -26992,7 +26992,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="5">
-        <v>1376.748734060013</v>
+        <v>1355.930924912387</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -27000,7 +27000,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="5">
-        <v>1847.840535271454</v>
+        <v>1728.09823516866</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -27008,7 +27008,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="5">
-        <v>1464.169900676656</v>
+        <v>1441.387628304177</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -27016,7 +27016,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="5">
-        <v>1733.153615087784</v>
+        <v>1822.025113161388</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -27024,7 +27024,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="5">
-        <v>1601.153035283107</v>
+        <v>1502.102809103905</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -27032,7 +27032,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="5">
-        <v>1327.222325505167</v>
+        <v>1376.17008854825</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -27040,7 +27040,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="5">
-        <v>1266.36611035075</v>
+        <v>1405.103238318907</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -27048,7 +27048,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="5">
-        <v>1816.774406355169</v>
+        <v>1525.715191309963</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -27056,7 +27056,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="5">
-        <v>1692.57143662622</v>
+        <v>1765.548601489817</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -27064,7 +27064,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="5">
-        <v>1621.385798559402</v>
+        <v>1781.154509168149</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -27072,7 +27072,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="5">
-        <v>1574.334861100692</v>
+        <v>1662.734311431377</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -27080,7 +27080,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="5">
-        <v>1529.650184330497</v>
+        <v>1652.455656369138</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -27088,7 +27088,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="5">
-        <v>1770.484948766379</v>
+        <v>1801.432048519716</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -27096,7 +27096,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="5">
-        <v>1520.368675104478</v>
+        <v>1279.274829674832</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -27104,7 +27104,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="5">
-        <v>1754.531151510127</v>
+        <v>1340.849571067207</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -27112,7 +27112,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="5">
-        <v>1473.422928038832</v>
+        <v>1646.914817763928</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -27120,7 +27120,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="5">
-        <v>1780.026160600588</v>
+        <v>1604.150846485317</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -27128,7 +27128,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="5">
-        <v>1541.81852507352</v>
+        <v>1325.148574128074</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -27136,7 +27136,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="5">
-        <v>1599.567791806155</v>
+        <v>1374.301844958534</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -27144,7 +27144,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="5">
-        <v>1764.034167940477</v>
+        <v>1884.886132728297</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -27152,7 +27152,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="5">
-        <v>1564.430030050973</v>
+        <v>1863.280179822065</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -27160,7 +27160,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="5">
-        <v>1526.759954509278</v>
+        <v>1384.539982791788</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -27168,7 +27168,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="5">
-        <v>1680.714674422458</v>
+        <v>1414.987569667249</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -27176,7 +27176,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="5">
-        <v>1335.814138670602</v>
+        <v>1762.683976811134</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -27184,7 +27184,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="5">
-        <v>1615.034494538335</v>
+        <v>1479.908380456989</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -27192,7 +27192,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="5">
-        <v>1406.78459386826</v>
+        <v>1497.328680096877</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -27200,7 +27200,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="5">
-        <v>1347.00523638525</v>
+        <v>1771.583836168994</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -27208,7 +27208,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="5">
-        <v>1791.509893673326</v>
+        <v>1417.342948663996</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -27216,7 +27216,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="5">
-        <v>1575.399597224322</v>
+        <v>1644.200067260771</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -27224,7 +27224,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="5">
-        <v>1733.105535560958</v>
+        <v>1883.839534931685</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -27232,7 +27232,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="5">
-        <v>1607.14949441865</v>
+        <v>1531.964772993014</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -27240,7 +27240,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="5">
-        <v>1600.831248206139</v>
+        <v>1370.467858283905</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -27248,7 +27248,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="5">
-        <v>1845.536458070068</v>
+        <v>1734.939561191272</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -27256,7 +27256,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="5">
-        <v>1781.463316286211</v>
+        <v>1338.405594571289</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -27264,7 +27264,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="5">
-        <v>1684.080535513708</v>
+        <v>1468.204530730254</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -27272,7 +27272,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="5">
-        <v>1574.886067299164</v>
+        <v>1696.804724306185</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -27280,7 +27280,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="5">
-        <v>1738.680799971248</v>
+        <v>1482.512177865924</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -27288,7 +27288,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="5">
-        <v>1512.810347814813</v>
+        <v>1458.360628099998</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -27296,7 +27296,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="5">
-        <v>1751.429716537381</v>
+        <v>1523.426214431877</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -27304,7 +27304,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="5">
-        <v>1802.055622109356</v>
+        <v>1802.80129027216</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -27312,7 +27312,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="5">
-        <v>1614.614517421459</v>
+        <v>1266.34294391132</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -27320,7 +27320,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="5">
-        <v>1456.39051000128</v>
+        <v>1449.913394375293</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -27328,7 +27328,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="5">
-        <v>1372.395217938826</v>
+        <v>1477.795724875314</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -27336,7 +27336,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="5">
-        <v>1459.942606304566</v>
+        <v>1400.934451889709</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -27344,7 +27344,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="5">
-        <v>1691.382716519986</v>
+        <v>1638.294759080024</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -27352,7 +27352,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="5">
-        <v>1650.348676646594</v>
+        <v>1705.615006102277</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -27360,7 +27360,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="5">
-        <v>1386.52077964926</v>
+        <v>1726.743851121084</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -27368,7 +27368,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="5">
-        <v>1877.130314167417</v>
+        <v>1810.059769869454</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -27376,7 +27376,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="5">
-        <v>1371.666381349467</v>
+        <v>1413.173068911178</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -27384,7 +27384,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="5">
-        <v>1800.761099516443</v>
+        <v>1682.872578314135</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -27392,7 +27392,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="5">
-        <v>1375.955445360056</v>
+        <v>1614.951018571297</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -27400,7 +27400,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="5">
-        <v>1698.863732658551</v>
+        <v>1583.457951099487</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -27408,7 +27408,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="5">
-        <v>1849.607730464227</v>
+        <v>1530.931349241874</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -27416,7 +27416,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="5">
-        <v>1732.488849528913</v>
+        <v>1407.119140311517</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -27424,7 +27424,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="5">
-        <v>1679.975793635187</v>
+        <v>1451.67234174782</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -27432,7 +27432,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="5">
-        <v>1613.411566648976</v>
+        <v>1783.200456449433</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -27440,7 +27440,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="5">
-        <v>1605.912932583117</v>
+        <v>1546.503715740766</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -27448,7 +27448,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="5">
-        <v>1665.077640095096</v>
+        <v>1648.190413910272</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -27456,7 +27456,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="5">
-        <v>1501.317446185459</v>
+        <v>1445.527489204001</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -27464,7 +27464,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="5">
-        <v>1517.671603880928</v>
+        <v>1736.987938809714</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -27472,7 +27472,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="5">
-        <v>1697.725683086401</v>
+        <v>1443.947684530113</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -27480,7 +27480,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="5">
-        <v>1585.467618807805</v>
+        <v>1658.172842183608</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -27488,7 +27488,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="5">
-        <v>1606.531600818972</v>
+        <v>1619.984616911676</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -27496,7 +27496,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="5">
-        <v>1775.230177513307</v>
+        <v>1523.746501970181</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -27504,7 +27504,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="5">
-        <v>1351.340772880879</v>
+        <v>1433.071068836527</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -27512,7 +27512,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="5">
-        <v>1872.578565991559</v>
+        <v>1464.51186012587</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -27520,7 +27520,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="5">
-        <v>1401.264645899548</v>
+        <v>1333.440109094392</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -27528,7 +27528,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="5">
-        <v>1794.824275989875</v>
+        <v>1426.385273377926</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -27536,7 +27536,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="5">
-        <v>1602.706834818858</v>
+        <v>1409.961427795327</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -27544,7 +27544,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="5">
-        <v>1328.428972285722</v>
+        <v>1504.391297169644</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -27552,7 +27552,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="5">
-        <v>1729.127394188355</v>
+        <v>1376.018499017171</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -27560,7 +27560,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="5">
-        <v>1326.175339080663</v>
+        <v>1443.865861231031</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -27568,7 +27568,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="5">
-        <v>1424.206322207668</v>
+        <v>1573.486384343016</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -27576,7 +27576,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="5">
-        <v>1617.651435461998</v>
+        <v>1630.98512189584</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -27584,7 +27584,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="5">
-        <v>1368.944681875983</v>
+        <v>1603.842644963085</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -27592,7 +27592,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="5">
-        <v>1713.551648700565</v>
+        <v>1740.080887407622</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -27600,7 +27600,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="5">
-        <v>1623.352769906566</v>
+        <v>1472.34710799587</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -27608,7 +27608,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="5">
-        <v>1429.460943097608</v>
+        <v>1735.634807569759</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -27616,7 +27616,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="5">
-        <v>1485.254649992577</v>
+        <v>1663.070571220977</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -27624,7 +27624,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="5">
-        <v>1404.313007506612</v>
+        <v>1464.844230165304</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -27632,7 +27632,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="5">
-        <v>1477.323589669733</v>
+        <v>1699.020766874025</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -27640,7 +27640,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="5">
-        <v>1893.948883133654</v>
+        <v>1328.518890213113</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -27648,7 +27648,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="5">
-        <v>1718.70758250676</v>
+        <v>1649.886473520683</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -27656,7 +27656,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="5">
-        <v>1558.157749658325</v>
+        <v>1511.138166303608</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -27664,7 +27664,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="5">
-        <v>1417.991070352025</v>
+        <v>1376.888599372116</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -27672,7 +27672,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="5">
-        <v>1738.120438758189</v>
+        <v>1430.723509581539</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -27680,7 +27680,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="5">
-        <v>1396.058263333151</v>
+        <v>1763.943556288546</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -27688,7 +27688,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="5">
-        <v>1525.507702779357</v>
+        <v>1760.746873138769</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -27696,7 +27696,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="5">
-        <v>1689.290318781463</v>
+        <v>1422.263252710715</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -27704,7 +27704,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="5">
-        <v>1580.396505430008</v>
+        <v>1735.491242551874</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -27712,7 +27712,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="5">
-        <v>1728.154147324908</v>
+        <v>1398.926541714124</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -27720,7 +27720,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="5">
-        <v>1848.099677598139</v>
+        <v>1825.750646060818</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -27728,7 +27728,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="5">
-        <v>1836.72719280563</v>
+        <v>1782.439670777273</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -27736,7 +27736,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="5">
-        <v>1425.773441976175</v>
+        <v>1318.990391568337</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -27744,7 +27744,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="5">
-        <v>1628.866300491966</v>
+        <v>1696.132726788846</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -27752,7 +27752,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="5">
-        <v>1634.861452649011</v>
+        <v>1726.050235605289</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -27760,7 +27760,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="5">
-        <v>1505.632091538617</v>
+        <v>1682.043325700633</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -27768,7 +27768,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="5">
-        <v>1762.938411771401</v>
+        <v>1720.543701687664</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -27776,7 +27776,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="5">
-        <v>1792.135481063035</v>
+        <v>1849.540801816961</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -27784,7 +27784,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="5">
-        <v>1585.855430488075</v>
+        <v>1784.293225128069</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -27792,7 +27792,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="5">
-        <v>1778.985921830434</v>
+        <v>1683.737354814089</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -27800,7 +27800,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="5">
-        <v>1741.266748659049</v>
+        <v>1666.719731004269</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -27808,7 +27808,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="5">
-        <v>1552.9389530122</v>
+        <v>1788.492006844649</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -27816,7 +27816,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="5">
-        <v>1824.862427303347</v>
+        <v>1424.120995059837</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -27824,7 +27824,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="5">
-        <v>1685.477514313252</v>
+        <v>1454.658026998865</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -27832,7 +27832,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="5">
-        <v>1662.842643960853</v>
+        <v>1761.369047196381</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -27840,7 +27840,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="5">
-        <v>1831.74267022392</v>
+        <v>1396.724034017649</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -27848,7 +27848,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="5">
-        <v>1365.604238983561</v>
+        <v>1797.598123374308</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -27856,7 +27856,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="5">
-        <v>1618.435000016824</v>
+        <v>1652.429606983475</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -27864,7 +27864,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="5">
-        <v>1729.605477352341</v>
+        <v>1780.736279057144</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -27872,7 +27872,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="5">
-        <v>1412.405032172192</v>
+        <v>1428.902236199632</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -27880,7 +27880,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="5">
-        <v>1507.718421317927</v>
+        <v>1418.660802373787</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -27888,7 +27888,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="5">
-        <v>1480.741958213327</v>
+        <v>1799.62838212827</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -27896,7 +27896,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="5">
-        <v>1636.691858295738</v>
+        <v>1624.51295723484</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -27904,7 +27904,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="5">
-        <v>1536.216693793704</v>
+        <v>1664.025531515402</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -27912,7 +27912,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="5">
-        <v>1402.434618157115</v>
+        <v>1709.643651069446</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -27920,7 +27920,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="5">
-        <v>1402.138144148352</v>
+        <v>1678.118226164055</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -27928,7 +27928,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="5">
-        <v>1436.866118433741</v>
+        <v>1555.470477473119</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -27936,7 +27936,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="5">
-        <v>1473.232388407304</v>
+        <v>1449.96312057846</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -27944,7 +27944,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="5">
-        <v>1393.449871648743</v>
+        <v>1823.730756616408</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -27952,7 +27952,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="5">
-        <v>1865.798254384068</v>
+        <v>1377.341874633379</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -27960,7 +27960,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="5">
-        <v>1761.286797887985</v>
+        <v>1581.755252012306</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -27968,7 +27968,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="5">
-        <v>1313.585033021948</v>
+        <v>1638.303532422695</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -27976,7 +27976,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="5">
-        <v>1683.76422830474</v>
+        <v>1454.410673092441</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -27984,7 +27984,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="5">
-        <v>1455.079895224904</v>
+        <v>1770.697200637552</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -27992,7 +27992,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="5">
-        <v>1777.69217710841</v>
+        <v>1633.240020287844</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -28000,7 +28000,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="5">
-        <v>1507.256963268556</v>
+        <v>1557.076111500125</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -28008,7 +28008,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="5">
-        <v>1516.13576084183</v>
+        <v>1826.538016164745</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -28016,7 +28016,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="5">
-        <v>1623.335472295044</v>
+        <v>1829.77242752391</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -28024,7 +28024,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="5">
-        <v>1683.301970779301</v>
+        <v>1729.861917796648</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -28032,7 +28032,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="5">
-        <v>1578.25129686324</v>
+        <v>1843.635340601826</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -28040,7 +28040,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="5">
-        <v>1427.242036614725</v>
+        <v>1416.999539873562</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -28048,7 +28048,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="5">
-        <v>1689.283821634065</v>
+        <v>1799.20667099999</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -28056,7 +28056,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="5">
-        <v>1341.275997565496</v>
+        <v>1600.536572053606</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -28064,7 +28064,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="5">
-        <v>1368.1051144364</v>
+        <v>1448.298015086171</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -28072,7 +28072,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="5">
-        <v>1404.308072429532</v>
+        <v>1760.165534278203</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -28080,7 +28080,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="5">
-        <v>1509.407572008236</v>
+        <v>1429.594776964152</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -28088,7 +28088,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="5">
-        <v>1383.49084198137</v>
+        <v>1456.476819753685</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -28096,7 +28096,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="5">
-        <v>1749.229667253244</v>
+        <v>1557.631815018085</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -28104,7 +28104,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="5">
-        <v>1418.749910669279</v>
+        <v>1497.615555523944</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -28112,7 +28112,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="5">
-        <v>1707.977058970866</v>
+        <v>1362.217016654924</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -28120,7 +28120,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="5">
-        <v>1297.086632905247</v>
+        <v>1764.855026589405</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -28128,7 +28128,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="5">
-        <v>1538.333832258293</v>
+        <v>1822.113967711394</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -28136,7 +28136,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="5">
-        <v>1814.807494881137</v>
+        <v>1527.48612766286</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -28144,7 +28144,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="5">
-        <v>1689.672317037664</v>
+        <v>1502.492357588927</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -28152,7 +28152,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="5">
-        <v>1417.845089554923</v>
+        <v>1282.59122723552</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -28160,7 +28160,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="5">
-        <v>1625.755305237923</v>
+        <v>1513.743706659628</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -28168,7 +28168,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="5">
-        <v>1621.743805204084</v>
+        <v>1426.879405637607</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -28176,7 +28176,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="5">
-        <v>1412.227840866289</v>
+        <v>1403.728319761869</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -28184,7 +28184,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="5">
-        <v>1620.338752604578</v>
+        <v>1424.42282034207</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -28192,7 +28192,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="5">
-        <v>1720.098287559327</v>
+        <v>1726.672597910871</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -28200,7 +28200,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="5">
-        <v>1785.018404220227</v>
+        <v>1305.016844254931</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -28208,7 +28208,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="5">
-        <v>1488.733287496347</v>
+        <v>1711.103517368231</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -28216,7 +28216,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="5">
-        <v>1613.873512704984</v>
+        <v>1547.802999031323</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -28224,7 +28224,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="5">
-        <v>1864.882141243964</v>
+        <v>1365.093121510927</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -28232,7 +28232,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="5">
-        <v>1567.692778811503</v>
+        <v>1629.17978037199</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -28240,7 +28240,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="5">
-        <v>1741.350737449342</v>
+        <v>1342.967079868026</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -28248,7 +28248,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="5">
-        <v>1843.327653350013</v>
+        <v>1767.846792508893</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -28256,7 +28256,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="5">
-        <v>1717.021283046841</v>
+        <v>1730.155179394367</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -28264,7 +28264,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="5">
-        <v>1715.099366884272</v>
+        <v>1747.58348259442</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -28272,7 +28272,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="5">
-        <v>1293.429160025177</v>
+        <v>1502.740680175279</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -28280,7 +28280,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="5">
-        <v>1537.924111067252</v>
+        <v>1775.795567863089</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -28288,7 +28288,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="5">
-        <v>1536.512505089479</v>
+        <v>1744.223633231173</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -28296,7 +28296,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="5">
-        <v>1804.506188553719</v>
+        <v>1610.233372745666</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -28304,7 +28304,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="5">
-        <v>1743.996182953337</v>
+        <v>1474.61514073061</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -28312,7 +28312,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="5">
-        <v>1616.244152472183</v>
+        <v>1377.477902933739</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -28320,7 +28320,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="5">
-        <v>1304.134470820795</v>
+        <v>1759.02963333089</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -28328,7 +28328,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="5">
-        <v>1459.654512298516</v>
+        <v>1670.117768899208</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -28336,7 +28336,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="5">
-        <v>1733.719627464117</v>
+        <v>1663.530101743399</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -28344,7 +28344,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="5">
-        <v>1502.775868980996</v>
+        <v>1796.083334798252</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -28352,7 +28352,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="5">
-        <v>1536.85327147566</v>
+        <v>1293.686068934793</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -28360,7 +28360,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="5">
-        <v>1370.671521440506</v>
+        <v>1538.697403526236</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -28368,7 +28368,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="5">
-        <v>1341.522178693576</v>
+        <v>1754.850585272048</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -28376,7 +28376,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="5">
-        <v>1629.959287755265</v>
+        <v>1667.291717527878</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -28384,7 +28384,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="5">
-        <v>1687.883436442799</v>
+        <v>1812.047916094482</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -28392,7 +28392,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="5">
-        <v>1466.387910587123</v>
+        <v>1783.896096511832</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -28400,7 +28400,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="5">
-        <v>1529.224710093804</v>
+        <v>1676.903987105029</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -28408,7 +28408,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="5">
-        <v>1704.167886187047</v>
+        <v>1683.422270326339</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -28416,7 +28416,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="5">
-        <v>1647.292823560378</v>
+        <v>1818.882148429453</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -28424,7 +28424,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="5">
-        <v>1434.772827367489</v>
+        <v>1338.942549491614</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -28432,7 +28432,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="5">
-        <v>1440.911058805311</v>
+        <v>1667.458007039686</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -28440,7 +28440,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="5">
-        <v>1500.442462819263</v>
+        <v>1779.41987898916</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -28448,7 +28448,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="5">
-        <v>1542.114447176231</v>
+        <v>1589.891808072118</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -28456,7 +28456,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="5">
-        <v>1738.476183198425</v>
+        <v>1295.572059225248</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -28464,7 +28464,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="5">
-        <v>1678.060457537178</v>
+        <v>1450.603432280709</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -28472,7 +28472,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="5">
-        <v>1344.152043726177</v>
+        <v>1587.59762414665</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -28480,7 +28480,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="5">
-        <v>1521.783046272865</v>
+        <v>1532.662320697211</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -28488,7 +28488,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="5">
-        <v>1532.888426385602</v>
+        <v>1546.543067264402</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -28496,7 +28496,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="5">
-        <v>1583.011784127977</v>
+        <v>1629.821071341114</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -28504,7 +28504,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="5">
-        <v>1326.653114977806</v>
+        <v>1416.833435461675</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -28512,7 +28512,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="5">
-        <v>1798.655557173494</v>
+        <v>1485.406424769226</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -28520,7 +28520,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="5">
-        <v>1654.773826826126</v>
+        <v>1461.532045143183</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -28528,7 +28528,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="5">
-        <v>1480.887565995505</v>
+        <v>1540.541096476294</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -28536,7 +28536,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="5">
-        <v>1372.408618952348</v>
+        <v>1805.06688480228</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -28544,7 +28544,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="5">
-        <v>1406.618406103837</v>
+        <v>1682.280270769622</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -28552,7 +28552,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="5">
-        <v>1800.77666752704</v>
+        <v>1433.404136095784</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -28560,7 +28560,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="5">
-        <v>1770.15020575318</v>
+        <v>1375.005226592308</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -28568,7 +28568,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="5">
-        <v>1772.956749571739</v>
+        <v>1828.456983097238</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -28576,7 +28576,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="5">
-        <v>1711.147522497822</v>
+        <v>1763.351094174976</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -28584,7 +28584,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="5">
-        <v>1474.357136861514</v>
+        <v>1655.987417206816</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -28592,7 +28592,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="5">
-        <v>1705.153157882199</v>
+        <v>1461.386970307811</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -28600,7 +28600,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="5">
-        <v>1398.70604608331</v>
+        <v>1309.867658160546</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -28608,7 +28608,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="5">
-        <v>1611.685035974043</v>
+        <v>1418.059383063436</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -28616,7 +28616,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="5">
-        <v>1630.383353862914</v>
+        <v>1402.5832807629</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -28624,7 +28624,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="5">
-        <v>1373.51465496317</v>
+        <v>1438.863299808099</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -28632,7 +28632,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="5">
-        <v>1799.216275002745</v>
+        <v>1719.020713490113</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -28640,7 +28640,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="5">
-        <v>1396.38456063586</v>
+        <v>1512.188461122342</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -28648,7 +28648,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="5">
-        <v>1376.587629059311</v>
+        <v>1540.109100599581</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -28656,7 +28656,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="5">
-        <v>1762.947418433439</v>
+        <v>1474.899150447852</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -28664,7 +28664,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="5">
-        <v>1802.117502366274</v>
+        <v>1645.945793538643</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -28672,7 +28672,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="5">
-        <v>1627.483574983478</v>
+        <v>1787.051254946527</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -28680,7 +28680,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="5">
-        <v>1399.397468773913</v>
+        <v>1389.683041983182</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -28688,7 +28688,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="5">
-        <v>1429.203822119443</v>
+        <v>1431.40553931207</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -28696,7 +28696,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="5">
-        <v>1746.333997465041</v>
+        <v>1439.365205170143</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -28704,7 +28704,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="5">
-        <v>1423.34535725306</v>
+        <v>1620.661712471218</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -28712,7 +28712,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="5">
-        <v>1480.97071731003</v>
+        <v>1581.527280203635</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -28720,7 +28720,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="5">
-        <v>1759.375339845417</v>
+        <v>1612.296925259148</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -28728,7 +28728,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="5">
-        <v>1487.565933582636</v>
+        <v>1785.799695579899</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -28736,7 +28736,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="5">
-        <v>1815.443810936262</v>
+        <v>1502.042569104251</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -28744,7 +28744,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="5">
-        <v>1819.086167353856</v>
+        <v>1693.989594202768</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -28752,7 +28752,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="5">
-        <v>1767.889567751131</v>
+        <v>1796.586383476818</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -28760,7 +28760,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="5">
-        <v>1388.04279318707</v>
+        <v>1478.678698270918</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -28768,7 +28768,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="5">
-        <v>1464.585485244773</v>
+        <v>1376.404404567007</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -28776,7 +28776,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="5">
-        <v>1446.648726857075</v>
+        <v>1744.129119601274</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -28784,7 +28784,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="5">
-        <v>1665.297904248765</v>
+        <v>1682.754651377868</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -28792,7 +28792,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="5">
-        <v>1847.793821302001</v>
+        <v>1366.71776738473</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -28800,7 +28800,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="5">
-        <v>1508.907235880154</v>
+        <v>1609.318295349223</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -28808,7 +28808,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="5">
-        <v>1459.498554138434</v>
+        <v>1338.99289775272</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -28816,7 +28816,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="5">
-        <v>1445.256376947937</v>
+        <v>1757.213589931643</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -28824,7 +28824,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="5">
-        <v>1337.519521576774</v>
+        <v>1548.032030514061</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -28832,7 +28832,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="5">
-        <v>1497.0312955057</v>
+        <v>1731.5609667363</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -28840,7 +28840,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="5">
-        <v>1425.807714996377</v>
+        <v>1727.676565060652</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -28848,7 +28848,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="5">
-        <v>1730.150908114827</v>
+        <v>1751.104436694121</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -28856,7 +28856,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="5">
-        <v>1680.91076490156</v>
+        <v>1589.805148547333</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -28864,7 +28864,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="5">
-        <v>1512.621294064714</v>
+        <v>1802.416947376215</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -28872,7 +28872,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="5">
-        <v>1633.97651724846</v>
+        <v>1585.179587846854</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -28880,7 +28880,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="5">
-        <v>1417.070739786756</v>
+        <v>1458.360994198046</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -28888,7 +28888,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="5">
-        <v>1858.452290927368</v>
+        <v>1594.655349928807</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -28896,7 +28896,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="5">
-        <v>1531.592142069772</v>
+        <v>1444.491304869011</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -28904,7 +28904,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="5">
-        <v>1483.635821948303</v>
+        <v>1683.429177540289</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -28912,7 +28912,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="5">
-        <v>1493.579646586832</v>
+        <v>1427.12697337597</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -28920,7 +28920,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="5">
-        <v>1387.532872185484</v>
+        <v>1836.499600864502</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -28928,7 +28928,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="5">
-        <v>1662.035036201564</v>
+        <v>1485.118388379929</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -28936,7 +28936,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="5">
-        <v>1766.838344099669</v>
+        <v>1878.403894371026</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -28944,7 +28944,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="5">
-        <v>1548.145142763529</v>
+        <v>1600.729229865049</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -28952,7 +28952,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="5">
-        <v>1311.543866267092</v>
+        <v>1620.304896858011</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -28960,7 +28960,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="5">
-        <v>1813.094839008764</v>
+        <v>1778.879079270475</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -28968,7 +28968,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="5">
-        <v>1366.432979042859</v>
+        <v>1641.372013659031</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -28976,7 +28976,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="5">
-        <v>1617.932642524055</v>
+        <v>1681.668414663292</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -28984,7 +28984,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="5">
-        <v>1684.940755653948</v>
+        <v>1331.057953056568</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -28992,7 +28992,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="5">
-        <v>1549.821735720752</v>
+        <v>1741.4302882031</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -29000,7 +29000,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="5">
-        <v>1616.996949164282</v>
+        <v>1794.799087416392</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -29008,7 +29008,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="5">
-        <v>1865.771374645586</v>
+        <v>1798.306383714218</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -29016,7 +29016,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="5">
-        <v>1578.856396849443</v>
+        <v>1324.306214130464</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -29024,7 +29024,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="5">
-        <v>1421.639772449454</v>
+        <v>1826.445551706279</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -29032,7 +29032,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="5">
-        <v>1643.951923751731</v>
+        <v>1405.409539565335</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -29040,7 +29040,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="5">
-        <v>1478.03811663509</v>
+        <v>1666.219046273919</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -29048,7 +29048,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="5">
-        <v>1487.121868277913</v>
+        <v>1486.078950205416</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -29056,7 +29056,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="5">
-        <v>1506.310216188276</v>
+        <v>1816.779265524952</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -29064,7 +29064,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="5">
-        <v>1466.629729702463</v>
+        <v>1517.235546973324</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -29072,7 +29072,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="5">
-        <v>1794.094874813965</v>
+        <v>1414.113980613802</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -29080,7 +29080,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="5">
-        <v>1425.514758864299</v>
+        <v>1321.24648013341</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -29088,7 +29088,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="5">
-        <v>1318.699990834495</v>
+        <v>1635.167900964867</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -29096,7 +29096,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="5">
-        <v>1420.583034562878</v>
+        <v>1481.063967333633</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -29104,7 +29104,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="5">
-        <v>1848.70844173915</v>
+        <v>1377.909631068241</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -29112,7 +29112,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="5">
-        <v>1304.346447788276</v>
+        <v>1382.935754556014</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -29120,7 +29120,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="5">
-        <v>1378.904591421733</v>
+        <v>1346.01981933895</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -29128,7 +29128,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="5">
-        <v>1562.03305548777</v>
+        <v>1702.980064030315</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -29136,7 +29136,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="5">
-        <v>1389.792179320304</v>
+        <v>1444.812662054855</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -29144,7 +29144,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="5">
-        <v>1801.284511310937</v>
+        <v>1614.959730645075</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -29152,7 +29152,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="5">
-        <v>1725.113481708378</v>
+        <v>1383.321277684193</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -29160,7 +29160,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="5">
-        <v>1752.28925062182</v>
+        <v>1784.798750261094</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -29168,7 +29168,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="5">
-        <v>1448.084352820824</v>
+        <v>1657.896592088019</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -29176,7 +29176,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="5">
-        <v>1659.469055893077</v>
+        <v>1364.704356374256</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -29184,7 +29184,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="5">
-        <v>1383.258432308486</v>
+        <v>1782.344703409795</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -29192,7 +29192,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="5">
-        <v>1783.932308369553</v>
+        <v>1807.245179279215</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -29200,7 +29200,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="5">
-        <v>1491.617743173848</v>
+        <v>1754.469416134894</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -29208,7 +29208,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="5">
-        <v>1437.517999956063</v>
+        <v>1489.853988046363</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -29216,7 +29216,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="5">
-        <v>1830.143235177587</v>
+        <v>1634.132497772231</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -29224,7 +29224,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="5">
-        <v>1894.091216823293</v>
+        <v>1626.828548877832</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -29232,7 +29232,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="5">
-        <v>1494.868119253148</v>
+        <v>1595.266900051268</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -29240,7 +29240,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="5">
-        <v>1503.543573163149</v>
+        <v>1412.303061096545</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -29248,7 +29248,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="5">
-        <v>1360.969616741006</v>
+        <v>1642.109672711948</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -29256,7 +29256,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="5">
-        <v>1436.184955955951</v>
+        <v>1417.084174621681</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -29264,7 +29264,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="5">
-        <v>1656.042495294364</v>
+        <v>1832.969605007994</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -29272,7 +29272,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="5">
-        <v>1393.266641517647</v>
+        <v>1318.838346208508</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -29280,7 +29280,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="5">
-        <v>1440.845029293483</v>
+        <v>1558.001518523787</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -29288,7 +29288,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="5">
-        <v>1688.312231394632</v>
+        <v>1593.616176710485</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -29296,7 +29296,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="5">
-        <v>1451.457608682543</v>
+        <v>1707.922263848641</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -29304,7 +29304,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="5">
-        <v>1350.335833985947</v>
+        <v>1595.98340115574</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -29312,7 +29312,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="5">
-        <v>1424.246360730396</v>
+        <v>1610.055597237346</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -29320,7 +29320,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="5">
-        <v>1370.559041659593</v>
+        <v>1783.65531200272</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -29328,7 +29328,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="5">
-        <v>1749.725728409708</v>
+        <v>1842.436840701879</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -29336,7 +29336,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="5">
-        <v>1780.432636289797</v>
+        <v>1836.914929538927</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -29344,7 +29344,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="5">
-        <v>1842.986101880592</v>
+        <v>1506.818788843814</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -29352,7 +29352,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="5">
-        <v>1370.559643693004</v>
+        <v>1682.396438036187</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -29360,7 +29360,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="5">
-        <v>1631.117750589149</v>
+        <v>1559.754739919742</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -29368,7 +29368,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="5">
-        <v>1373.040656768795</v>
+        <v>1703.130429539887</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -29376,7 +29376,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="5">
-        <v>1418.767990817363</v>
+        <v>1830.720367205138</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -29384,7 +29384,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="5">
-        <v>1288.469460283976</v>
+        <v>1563.382197203005</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -29392,7 +29392,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="5">
-        <v>1430.209165518748</v>
+        <v>1829.252740986846</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -29400,7 +29400,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="5">
-        <v>1610.061537298103</v>
+        <v>1774.069101663226</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -29408,7 +29408,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="5">
-        <v>1576.429571323939</v>
+        <v>1374.836062057739</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -29416,7 +29416,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="5">
-        <v>1400.056500644012</v>
+        <v>1745.83373222265</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -29424,7 +29424,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="5">
-        <v>1714.866320227586</v>
+        <v>1635.134077677183</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -29432,7 +29432,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="5">
-        <v>1527.926980712037</v>
+        <v>1792.680372141191</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -29440,7 +29440,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="5">
-        <v>1448.093183284068</v>
+        <v>1407.692798576006</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -29448,7 +29448,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="5">
-        <v>1841.051227357018</v>
+        <v>1517.331170598791</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -29456,7 +29456,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="5">
-        <v>1791.737373485408</v>
+        <v>1661.92092244215</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -29464,7 +29464,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="5">
-        <v>1793.03414728268</v>
+        <v>1506.041149708092</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -29472,7 +29472,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="5">
-        <v>1389.037559461138</v>
+        <v>1614.719143580772</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -29480,7 +29480,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="5">
-        <v>1363.998574218786</v>
+        <v>1853.347447906941</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -29488,7 +29488,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="5">
-        <v>1593.152686273216</v>
+        <v>1325.529364108758</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -29496,7 +29496,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="5">
-        <v>1565.900359640794</v>
+        <v>1344.713290682007</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -29504,7 +29504,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="5">
-        <v>1669.310747131548</v>
+        <v>1610.319495757878</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -29512,7 +29512,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="5">
-        <v>1600.348190936902</v>
+        <v>1822.752966878461</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -29520,7 +29520,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="5">
-        <v>1723.164560452002</v>
+        <v>1497.358568358718</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -29528,7 +29528,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="5">
-        <v>1368.870285359139</v>
+        <v>1610.470232806739</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -29536,7 +29536,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="5">
-        <v>1332.846326516519</v>
+        <v>1348.68225668217</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -29544,7 +29544,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="5">
-        <v>1399.963669668452</v>
+        <v>1604.593946704802</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -29552,7 +29552,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="5">
-        <v>1807.293439781014</v>
+        <v>1339.708071429069</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -29560,7 +29560,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="5">
-        <v>1484.758026487783</v>
+        <v>1785.223313926165</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -29568,7 +29568,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="5">
-        <v>1536.709201245259</v>
+        <v>1606.896970426025</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -29576,7 +29576,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="5">
-        <v>1705.27956240946</v>
+        <v>1325.697261987169</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -29584,7 +29584,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="5">
-        <v>1507.303221262168</v>
+        <v>1503.323621900453</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -29592,7 +29592,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="5">
-        <v>1461.899979858181</v>
+        <v>1385.430898711388</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -29600,7 +29600,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="5">
-        <v>1738.297725916506</v>
+        <v>1706.128547956811</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -29608,7 +29608,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="5">
-        <v>1535.131325707366</v>
+        <v>1481.811903817864</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -29616,7 +29616,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="5">
-        <v>1444.54552485092</v>
+        <v>1801.716933004538</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -29624,7 +29624,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="5">
-        <v>1516.550099935699</v>
+        <v>1548.184418459934</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -29632,7 +29632,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="5">
-        <v>1593.684104074765</v>
+        <v>1650.168713210767</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -29640,7 +29640,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="5">
-        <v>1385.785218915901</v>
+        <v>1476.87386206606</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -29648,7 +29648,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="5">
-        <v>1534.891762766458</v>
+        <v>1728.351552473082</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -29656,7 +29656,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="5">
-        <v>1543.335577362921</v>
+        <v>1480.211430317528</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -29664,7 +29664,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="5">
-        <v>1485.530938748552</v>
+        <v>1619.142046129483</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -29672,7 +29672,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="5">
-        <v>1635.80414548347</v>
+        <v>1847.633638462301</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -29680,7 +29680,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="5">
-        <v>1352.579804858667</v>
+        <v>1468.355397523322</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -29688,7 +29688,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="5">
-        <v>1680.068834891745</v>
+        <v>1404.573626047896</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -29696,7 +29696,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="5">
-        <v>1760.613532784717</v>
+        <v>1447.9563982048</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -29704,7 +29704,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="5">
-        <v>1387.018091403329</v>
+        <v>1390.704418831693</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -29712,7 +29712,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="5">
-        <v>1796.316195457458</v>
+        <v>1649.402301820978</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -29720,7 +29720,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="5">
-        <v>1673.590029266679</v>
+        <v>1486.144092028947</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -29728,7 +29728,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="5">
-        <v>1380.116675283509</v>
+        <v>1698.053634816639</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -29736,7 +29736,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="5">
-        <v>1814.119097580977</v>
+        <v>1560.253295489751</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -29744,7 +29744,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="5">
-        <v>1580.351380279215</v>
+        <v>1607.561948883774</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -29752,7 +29752,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="5">
-        <v>1407.857681636036</v>
+        <v>1654.92924310063</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -29760,7 +29760,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="5">
-        <v>1883.377971738114</v>
+        <v>1438.636890540377</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -29768,7 +29768,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="5">
-        <v>1532.058652629795</v>
+        <v>1303.578818357014</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -29776,7 +29776,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="5">
-        <v>1864.105939760486</v>
+        <v>1250.656990075503</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -29784,7 +29784,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="5">
-        <v>1654.529263801712</v>
+        <v>1559.131348575839</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -29792,7 +29792,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="5">
-        <v>1368.684652472619</v>
+        <v>1369.940851166234</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -29800,7 +29800,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="5">
-        <v>1813.2281620079</v>
+        <v>1735.557132799862</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -29808,7 +29808,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="5">
-        <v>1337.994762503104</v>
+        <v>1467.098355384359</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -29816,7 +29816,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="5">
-        <v>1689.055386189817</v>
+        <v>1817.089670701533</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -29824,7 +29824,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="5">
-        <v>1700.898703079945</v>
+        <v>1801.313584216652</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -29832,7 +29832,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="5">
-        <v>1453.710962017068</v>
+        <v>1651.539886480374</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -29840,7 +29840,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="5">
-        <v>1795.009054152666</v>
+        <v>1819.49131932671</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -29848,7 +29848,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="5">
-        <v>1597.284860132759</v>
+        <v>1760.00532689923</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -29856,7 +29856,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="5">
-        <v>1424.984792347651</v>
+        <v>1551.796461522864</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -29864,7 +29864,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="5">
-        <v>1854.386581567204</v>
+        <v>1601.873057571406</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -29872,7 +29872,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="5">
-        <v>1784.547826394101</v>
+        <v>1621.455342168596</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -29880,7 +29880,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="5">
-        <v>1661.58813498133</v>
+        <v>1364.664490008013</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -29888,7 +29888,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="5">
-        <v>1641.70115983314</v>
+        <v>1584.091382658495</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -29896,7 +29896,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="5">
-        <v>1349.128530755025</v>
+        <v>1507.252366844356</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -29904,7 +29904,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="5">
-        <v>1510.400730380979</v>
+        <v>1465.526904525773</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -29912,7 +29912,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="5">
-        <v>1472.562764313101</v>
+        <v>1644.755790333148</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -29920,7 +29920,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="5">
-        <v>1578.650936427239</v>
+        <v>1829.027014606019</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -29928,7 +29928,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="5">
-        <v>1827.704908624913</v>
+        <v>1540.60632569042</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -29936,7 +29936,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="5">
-        <v>1781.92945834389</v>
+        <v>1341.04719741801</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -29944,7 +29944,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="5">
-        <v>1750.591571228289</v>
+        <v>1645.955303919742</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -29952,7 +29952,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="5">
-        <v>1757.011571608327</v>
+        <v>1628.132584983917</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -29960,7 +29960,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="5">
-        <v>1403.236170742179</v>
+        <v>1398.101006687354</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -29968,7 +29968,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="5">
-        <v>1489.646808582301</v>
+        <v>1483.645708403904</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -29976,7 +29976,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="5">
-        <v>1334.756374677053</v>
+        <v>1599.311867842186</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -29984,7 +29984,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="5">
-        <v>1687.908251869829</v>
+        <v>1720.292650120345</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -29992,7 +29992,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="5">
-        <v>1829.97996559341</v>
+        <v>1366.142394304723</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -30000,7 +30000,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="5">
-        <v>1400.781794987338</v>
+        <v>1765.582693607795</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -30008,7 +30008,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="5">
-        <v>1387.050214383579</v>
+        <v>1318.077913179548</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -30016,7 +30016,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="5">
-        <v>1828.934294099354</v>
+        <v>1505.308623380033</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -30024,7 +30024,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="5">
-        <v>1530.395392371423</v>
+        <v>1541.282260857414</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -30032,7 +30032,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="5">
-        <v>1668.545261660918</v>
+        <v>1834.287732298871</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -30040,7 +30040,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="5">
-        <v>1444.222886059882</v>
+        <v>1596.67357928431</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -30048,7 +30048,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="5">
-        <v>1534.665558985495</v>
+        <v>1520.316810504814</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -30056,7 +30056,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="5">
-        <v>1762.103223987792</v>
+        <v>1855.540233164329</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -30064,7 +30064,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="5">
-        <v>1520.614835285614</v>
+        <v>1562.876128350757</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -30072,7 +30072,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="5">
-        <v>1612.691093933692</v>
+        <v>1694.113019728924</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -30080,7 +30080,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="5">
-        <v>1681.440026305628</v>
+        <v>1417.883176222449</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -30088,7 +30088,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="5">
-        <v>1735.47860314833</v>
+        <v>1617.286963713514</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -30096,7 +30096,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="5">
-        <v>1576.681661514435</v>
+        <v>1428.106192727102</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -30104,7 +30104,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="5">
-        <v>1487.312720024255</v>
+        <v>1681.422290826944</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -30112,7 +30112,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="5">
-        <v>1654.611183870622</v>
+        <v>1448.419401879277</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -30120,7 +30120,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="5">
-        <v>1755.938218634651</v>
+        <v>1689.266375277262</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -30128,7 +30128,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="5">
-        <v>1692.374641236481</v>
+        <v>1361.528853669382</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -30136,7 +30136,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="5">
-        <v>1363.897255689949</v>
+        <v>1533.624825920495</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -30144,7 +30144,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="5">
-        <v>1613.301796709829</v>
+        <v>1838.457832819445</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -30152,7 +30152,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="5">
-        <v>1450.66915140119</v>
+        <v>1493.406078614898</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -30160,7 +30160,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="5">
-        <v>1665.396329125242</v>
+        <v>1440.272665279011</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -30168,7 +30168,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="5">
-        <v>1635.591748434775</v>
+        <v>1635.102749988501</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -30176,7 +30176,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="5">
-        <v>1425.180102688118</v>
+        <v>1514.382793227671</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -30184,7 +30184,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="5">
-        <v>1671.159659093574</v>
+        <v>1865.235568232182</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -30192,7 +30192,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="5">
-        <v>1511.483777235944</v>
+        <v>1624.370829120084</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -30200,7 +30200,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="5">
-        <v>1411.707077459835</v>
+        <v>1669.221842828451</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -30208,7 +30208,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="5">
-        <v>1752.473622120524</v>
+        <v>1693.456148016594</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -30216,7 +30216,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="5">
-        <v>1326.236696756463</v>
+        <v>1493.740153644809</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -30224,7 +30224,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="5">
-        <v>1414.858267835053</v>
+        <v>1428.856692951501</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -30232,7 +30232,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="5">
-        <v>1401.872381188602</v>
+        <v>1785.522049259489</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -30240,7 +30240,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="5">
-        <v>1600.763577072113</v>
+        <v>1828.343653926036</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -30248,7 +30248,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="5">
-        <v>1437.94424073732</v>
+        <v>1541.830994947129</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -30256,7 +30256,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="5">
-        <v>1556.990841968325</v>
+        <v>1711.172114335322</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -30264,7 +30264,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="5">
-        <v>1811.320411949199</v>
+        <v>1830.817200254266</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -30272,7 +30272,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="5">
-        <v>1479.025925491623</v>
+        <v>1530.82367921227</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -30280,7 +30280,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="5">
-        <v>1369.585112218658</v>
+        <v>1446.654716516236</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -30288,7 +30288,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="5">
-        <v>1417.236267009446</v>
+        <v>1548.525786837469</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -30296,7 +30296,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="5">
-        <v>1752.347631308243</v>
+        <v>1819.039905781462</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -30304,7 +30304,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="5">
-        <v>1365.021279359893</v>
+        <v>1602.054542335057</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -30312,7 +30312,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="5">
-        <v>1798.022403156479</v>
+        <v>1611.13370597029</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -30320,7 +30320,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="5">
-        <v>1533.13765215584</v>
+        <v>1772.397818897175</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -30328,7 +30328,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="5">
-        <v>1663.029261084954</v>
+        <v>1664.373795209083</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -30336,7 +30336,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="5">
-        <v>1697.336366049524</v>
+        <v>1775.915079389547</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -30344,7 +30344,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="5">
-        <v>1432.811065705627</v>
+        <v>1330.870654046145</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -30352,7 +30352,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="5">
-        <v>1297.293153019146</v>
+        <v>1348.642287195939</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -30360,7 +30360,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="5">
-        <v>1470.175346583645</v>
+        <v>1690.041367283365</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -30368,7 +30368,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="5">
-        <v>1760.403999333271</v>
+        <v>1536.948792358186</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -30376,7 +30376,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="5">
-        <v>1844.518939124148</v>
+        <v>1699.10818138996</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -30384,7 +30384,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="5">
-        <v>1461.403164463456</v>
+        <v>1648.140736280906</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -30392,7 +30392,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="5">
-        <v>1583.579899466738</v>
+        <v>1796.120688675453</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -30400,7 +30400,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="5">
-        <v>1287.740596692205</v>
+        <v>1386.099697012554</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -30408,7 +30408,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="5">
-        <v>1584.190819404758</v>
+        <v>1417.900806064719</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -30416,7 +30416,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="5">
-        <v>1444.617990454581</v>
+        <v>1537.423299572166</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -30424,7 +30424,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="5">
-        <v>1346.562663203791</v>
+        <v>1784.499776578375</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -30432,7 +30432,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="5">
-        <v>1610.223816866029</v>
+        <v>1466.259408319303</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -30440,7 +30440,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="5">
-        <v>1518.05782118472</v>
+        <v>1550.146847436146</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -30448,7 +30448,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="5">
-        <v>1842.881561775169</v>
+        <v>1352.378877062886</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -30456,7 +30456,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="5">
-        <v>1467.229475051867</v>
+        <v>1488.208020311005</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -30464,7 +30464,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="5">
-        <v>1563.319719860281</v>
+        <v>1713.147630956211</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -30472,7 +30472,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="5">
-        <v>1735.651069932539</v>
+        <v>1542.966646438121</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -30480,7 +30480,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="5">
-        <v>1542.870589439737</v>
+        <v>1546.204865233871</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -30488,7 +30488,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="5">
-        <v>1713.667030771212</v>
+        <v>1829.146886069629</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -30496,7 +30496,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="5">
-        <v>1801.059646917766</v>
+        <v>1425.504468836629</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -30504,7 +30504,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="5">
-        <v>1536.953648846724</v>
+        <v>1502.184733478431</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -30512,7 +30512,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="5">
-        <v>1835.739856946518</v>
+        <v>1513.312344387539</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -30520,7 +30520,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="5">
-        <v>1715.021863938585</v>
+        <v>1736.294424729048</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -30528,7 +30528,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="5">
-        <v>1572.884597872096</v>
+        <v>1745.250091889216</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -30536,7 +30536,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="5">
-        <v>1789.79442226036</v>
+        <v>1447.865634448924</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -30544,7 +30544,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="5">
-        <v>1766.702104661869</v>
+        <v>1324.820007302461</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -30552,7 +30552,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="5">
-        <v>1600.20683249825</v>
+        <v>1449.843737747335</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -30560,7 +30560,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="5">
-        <v>1532.965792144157</v>
+        <v>1545.285744347345</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -30568,7 +30568,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="5">
-        <v>1729.230960957269</v>
+        <v>1335.31920023803</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -30576,7 +30576,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="5">
-        <v>1353.689064768814</v>
+        <v>1667.390829262624</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -30584,7 +30584,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="5">
-        <v>1469.922445830258</v>
+        <v>1698.104356666068</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -30592,7 +30592,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="5">
-        <v>1460.047435942397</v>
+        <v>1692.638267383113</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -30600,7 +30600,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="5">
-        <v>1500.787529318486</v>
+        <v>1622.429849601603</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -30608,7 +30608,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="5">
-        <v>1616.735840589649</v>
+        <v>1663.394053578779</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -30616,7 +30616,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="5">
-        <v>1764.677070585153</v>
+        <v>1452.396646537266</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -30624,7 +30624,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="5">
-        <v>1583.034690284371</v>
+        <v>1729.064142618269</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -30632,7 +30632,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="5">
-        <v>1272.061896826429</v>
+        <v>1544.288610438353</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -30640,7 +30640,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="5">
-        <v>1614.665437852317</v>
+        <v>1505.500657821819</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -30648,7 +30648,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="5">
-        <v>1613.005676579298</v>
+        <v>1495.880752217082</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -30656,7 +30656,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="5">
-        <v>1730.340879072789</v>
+        <v>1498.54428105869</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -30664,7 +30664,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="5">
-        <v>1410.389278899275</v>
+        <v>1696.174251968353</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -30672,7 +30672,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="5">
-        <v>1530.634128229277</v>
+        <v>1539.215872225072</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -30680,7 +30680,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="5">
-        <v>1496.796820458104</v>
+        <v>1465.070222545161</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -30688,7 +30688,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="5">
-        <v>1302.216993425721</v>
+        <v>1822.384919446992</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -30696,7 +30696,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="5">
-        <v>1449.831134709342</v>
+        <v>1618.245167829258</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -30704,7 +30704,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="5">
-        <v>1363.934452303751</v>
+        <v>1436.34584748062</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -30712,7 +30712,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="5">
-        <v>1357.273980336661</v>
+        <v>1789.984471171939</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -30720,7 +30720,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="5">
-        <v>1778.77869614029</v>
+        <v>1659.916942713617</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -30728,7 +30728,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="5">
-        <v>1277.041022867433</v>
+        <v>1474.089054102343</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -30736,7 +30736,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="5">
-        <v>1644.322111291695</v>
+        <v>1567.039925766639</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -30744,7 +30744,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="5">
-        <v>1514.736770033104</v>
+        <v>1514.721260228024</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -30752,7 +30752,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="5">
-        <v>1411.280164738468</v>
+        <v>1694.351300046668</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -30760,7 +30760,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="5">
-        <v>1428.708653305551</v>
+        <v>1764.813439149256</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -30768,7 +30768,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="5">
-        <v>1745.802387622783</v>
+        <v>1503.172595337623</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -30776,7 +30776,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="5">
-        <v>1676.422072649145</v>
+        <v>1455.616960711311</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -30784,7 +30784,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="5">
-        <v>1388.96947803612</v>
+        <v>1834.878514345552</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -30792,7 +30792,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="5">
-        <v>1473.62881751561</v>
+        <v>1579.499382948227</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -30800,7 +30800,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="5">
-        <v>1568.553998760379</v>
+        <v>1528.031345511997</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -30808,7 +30808,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="5">
-        <v>1403.481062247503</v>
+        <v>1362.853909222912</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -30816,7 +30816,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="5">
-        <v>1408.835248296469</v>
+        <v>1523.141056905899</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -30824,7 +30824,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="5">
-        <v>1464.129678332546</v>
+        <v>1296.402742010439</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -30832,7 +30832,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="5">
-        <v>1915.146841114703</v>
+        <v>1460.145637518559</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -30840,7 +30840,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="5">
-        <v>1671.562247849291</v>
+        <v>1818.391753560761</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -30848,7 +30848,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="5">
-        <v>1586.476847294417</v>
+        <v>1812.586376246327</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -30856,7 +30856,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="5">
-        <v>1519.953444821813</v>
+        <v>1676.013500530416</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -30864,7 +30864,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="5">
-        <v>1683.562531847275</v>
+        <v>1715.977383826279</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -30872,7 +30872,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="5">
-        <v>1690.91575671063</v>
+        <v>1590.413947014097</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -30880,7 +30880,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="5">
-        <v>1808.701947437504</v>
+        <v>1384.964251894258</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -30888,7 +30888,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="5">
-        <v>1833.373855884911</v>
+        <v>1547.857100480782</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -30896,7 +30896,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="5">
-        <v>1485.89036492436</v>
+        <v>1391.572643865659</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -30904,7 +30904,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="5">
-        <v>1481.053043566839</v>
+        <v>1527.889969947909</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -30912,7 +30912,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="5">
-        <v>1860.06693621144</v>
+        <v>1805.841710943999</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -30920,7 +30920,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="5">
-        <v>1748.934491039008</v>
+        <v>1424.57892227645</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -30928,7 +30928,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="5">
-        <v>1455.799390969468</v>
+        <v>1824.507449834268</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -30936,7 +30936,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="5">
-        <v>1679.909850657863</v>
+        <v>1354.836915729831</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -30944,7 +30944,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="5">
-        <v>1723.827708745222</v>
+        <v>1666.277193640862</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -30952,7 +30952,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="5">
-        <v>1721.913608132924</v>
+        <v>1814.623934016377</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -30960,7 +30960,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="5">
-        <v>1625.52631509918</v>
+        <v>1293.709038313728</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -30968,7 +30968,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="5">
-        <v>1568.118205071723</v>
+        <v>1684.24866659667</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -30976,7 +30976,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="5">
-        <v>1534.678204506778</v>
+        <v>1733.553982949821</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -30984,7 +30984,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="5">
-        <v>1773.805008107735</v>
+        <v>1686.307669788373</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -30992,7 +30992,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="5">
-        <v>1564.522995673405</v>
+        <v>1369.564007389556</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -31000,7 +31000,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="5">
-        <v>1848.091821705884</v>
+        <v>1640.996670736744</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -31008,7 +31008,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="5">
-        <v>1340.658876931934</v>
+        <v>1575.002422875177</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -31016,7 +31016,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="5">
-        <v>1878.374141472438</v>
+        <v>1703.406205906173</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -31024,7 +31024,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="5">
-        <v>1598.521640056896</v>
+        <v>1535.559808287553</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -31032,7 +31032,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="5">
-        <v>1681.900231593271</v>
+        <v>1445.274065746884</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -31040,7 +31040,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="5">
-        <v>1698.4452726974</v>
+        <v>1578.316377602447</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -31048,7 +31048,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="5">
-        <v>1871.621578536477</v>
+        <v>1439.510911104368</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -31056,7 +31056,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="5">
-        <v>1815.46752943741</v>
+        <v>1318.185093582528</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -31064,7 +31064,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="5">
-        <v>1668.16710818307</v>
+        <v>1659.575067347536</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -31072,7 +31072,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="5">
-        <v>1711.913622907656</v>
+        <v>1499.937940172869</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -31080,7 +31080,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="5">
-        <v>1684.238922915069</v>
+        <v>1726.700613094653</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -31088,7 +31088,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="5">
-        <v>1729.313169253192</v>
+        <v>1320.482831664205</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -31096,7 +31096,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="5">
-        <v>1472.394954658684</v>
+        <v>1522.959080431015</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -31104,7 +31104,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="5">
-        <v>1652.304495121697</v>
+        <v>1591.96826167903</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -31112,7 +31112,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="5">
-        <v>1772.358292856038</v>
+        <v>1497.915960500048</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -31120,7 +31120,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="5">
-        <v>1696.129425792654</v>
+        <v>1613.496682102668</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -31128,7 +31128,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="5">
-        <v>1617.750006836203</v>
+        <v>1457.142205261857</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -31136,7 +31136,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="5">
-        <v>1366.719019335749</v>
+        <v>1525.871185862459</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -31144,7 +31144,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="5">
-        <v>1722.513052557722</v>
+        <v>1612.612001508787</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -31152,7 +31152,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="5">
-        <v>1464.041238805903</v>
+        <v>1571.306631494441</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -31160,7 +31160,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="5">
-        <v>1800.747578294784</v>
+        <v>1397.270037670465</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -31168,7 +31168,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="5">
-        <v>1643.903833631524</v>
+        <v>1450.966337091966</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -31176,7 +31176,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="5">
-        <v>1589.815377743939</v>
+        <v>1566.940610248106</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -31184,7 +31184,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="5">
-        <v>1707.42017551775</v>
+        <v>1472.91591811846</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -31192,7 +31192,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="5">
-        <v>1873.613339460492</v>
+        <v>1655.418670572622</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -31200,7 +31200,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="5">
-        <v>1340.126038239039</v>
+        <v>1632.702098827267</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -31208,7 +31208,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="5">
-        <v>1364.637416721376</v>
+        <v>1529.927118993244</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -31216,7 +31216,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="5">
-        <v>1465.458967634824</v>
+        <v>1457.93169261157</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -31224,7 +31224,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="5">
-        <v>1671.251308766262</v>
+        <v>1800.655905600119</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -31232,7 +31232,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="5">
-        <v>1470.068862984195</v>
+        <v>1644.117130651991</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -31240,7 +31240,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="5">
-        <v>1556.106684960144</v>
+        <v>1401.021840802076</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -31248,7 +31248,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="5">
-        <v>1782.476871110847</v>
+        <v>1474.233270504525</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -31256,7 +31256,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="5">
-        <v>1887.116581393345</v>
+        <v>1836.084709334691</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -31264,7 +31264,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="5">
-        <v>1579.558741446591</v>
+        <v>1374.53054560006</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -31272,7 +31272,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="5">
-        <v>1520.077292833108</v>
+        <v>1521.912370034725</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -31280,7 +31280,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="5">
-        <v>1678.508169146184</v>
+        <v>1454.698881709324</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -31288,7 +31288,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="5">
-        <v>1870.434156464867</v>
+        <v>1715.864352556297</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -31296,7 +31296,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="5">
-        <v>1446.604516760083</v>
+        <v>1551.198914781997</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -31304,7 +31304,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="5">
-        <v>1390.821705751574</v>
+        <v>1443.462169459072</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -31312,7 +31312,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="5">
-        <v>1650.381328475339</v>
+        <v>1752.091449842406</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -31320,7 +31320,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="5">
-        <v>1673.352288026071</v>
+        <v>1593.996901884982</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -31328,7 +31328,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="5">
-        <v>1645.3638980161</v>
+        <v>1399.196645873876</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -31336,7 +31336,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="5">
-        <v>1667.111035341079</v>
+        <v>1843.223559688607</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -31344,7 +31344,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="5">
-        <v>1672.349722276029</v>
+        <v>1316.309223421653</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -31352,7 +31352,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="5">
-        <v>1920.01931797713</v>
+        <v>1753.065616762317</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -31360,7 +31360,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="5">
-        <v>1474.200496592787</v>
+        <v>1587.00964989313</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -31368,7 +31368,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="5">
-        <v>1353.888401834708</v>
+        <v>1807.552838648003</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -31376,7 +31376,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="5">
-        <v>1795.918126725589</v>
+        <v>1678.211560491098</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -31384,7 +31384,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="5">
-        <v>1481.093942416935</v>
+        <v>1398.027341238799</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -31392,7 +31392,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="5">
-        <v>1334.622048185753</v>
+        <v>1503.66892301843</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -31400,7 +31400,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="5">
-        <v>1780.913457362649</v>
+        <v>1772.154109755329</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -31408,7 +31408,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="5">
-        <v>1765.262356663085</v>
+        <v>1645.750072473551</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -31416,7 +31416,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="5">
-        <v>1544.940657740845</v>
+        <v>1470.368436982665</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -31424,7 +31424,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="5">
-        <v>1409.211977500578</v>
+        <v>1409.321225555992</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -31432,7 +31432,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="5">
-        <v>1378.805421397242</v>
+        <v>1678.413479329686</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -31440,7 +31440,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="5">
-        <v>1875.648045054268</v>
+        <v>1683.390047997952</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -31448,7 +31448,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="5">
-        <v>1521.747714859024</v>
+        <v>1412.402302003316</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -31456,7 +31456,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="5">
-        <v>1484.43595488011</v>
+        <v>1709.94744930566</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -31464,7 +31464,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="5">
-        <v>1438.176839899369</v>
+        <v>1615.034814332482</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -31472,7 +31472,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="5">
-        <v>1634.882019855451</v>
+        <v>1749.793958922495</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -31480,7 +31480,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="5">
-        <v>1851.812842654022</v>
+        <v>1526.33223814875</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -31488,7 +31488,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="5">
-        <v>1640.843663431821</v>
+        <v>1419.215926752623</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -31496,7 +31496,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="5">
-        <v>1534.276228232524</v>
+        <v>1500.82507419458</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -31504,7 +31504,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="5">
-        <v>1803.491420533004</v>
+        <v>1842.934648623426</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -31512,7 +31512,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="5">
-        <v>1826.588581605035</v>
+        <v>1555.114340701419</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -31520,7 +31520,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="5">
-        <v>1754.075187034123</v>
+        <v>1483.121389959753</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -31528,7 +31528,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="5">
-        <v>1668.426661823876</v>
+        <v>1845.930270172283</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -31536,7 +31536,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="5">
-        <v>1683.129088850215</v>
+        <v>1633.629202213445</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -31544,7 +31544,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="5">
-        <v>1446.777805279962</v>
+        <v>1365.178933656635</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -31552,7 +31552,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="5">
-        <v>1576.599714489499</v>
+        <v>1819.574937619192</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -31560,7 +31560,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="5">
-        <v>1536.644416389627</v>
+        <v>1721.057462151114</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -31568,7 +31568,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="5">
-        <v>1553.66779004484</v>
+        <v>1372.397293522542</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -31576,7 +31576,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="5">
-        <v>1811.941176470739</v>
+        <v>1531.734839482887</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -31584,7 +31584,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="5">
-        <v>1466.64449505777</v>
+        <v>1808.39017255022</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -31592,7 +31592,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="5">
-        <v>1685.959919724823</v>
+        <v>1587.808768978101</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -31600,7 +31600,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="5">
-        <v>1510.326638403431</v>
+        <v>1487.188499091189</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -31608,7 +31608,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="5">
-        <v>1540.088431118505</v>
+        <v>1645.643885439728</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -31616,7 +31616,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="5">
-        <v>1373.748032797983</v>
+        <v>1725.864170163416</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -31624,7 +31624,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="5">
-        <v>1546.916322205167</v>
+        <v>1518.246872413045</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -31632,7 +31632,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="5">
-        <v>1576.072312897003</v>
+        <v>1450.124575993925</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -31640,7 +31640,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="5">
-        <v>1731.102735946641</v>
+        <v>1876.408355215178</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -31648,7 +31648,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="5">
-        <v>1516.058925979123</v>
+        <v>1478.607275855949</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -31656,7 +31656,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="5">
-        <v>1501.250611772874</v>
+        <v>1333.606460136038</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -31664,7 +31664,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="5">
-        <v>1715.888293540643</v>
+        <v>1477.236698655332</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -31672,7 +31672,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="5">
-        <v>1526.552263391522</v>
+        <v>1581.978078967252</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -31680,7 +31680,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="5">
-        <v>1677.240373482187</v>
+        <v>1674.425489709315</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -31688,7 +31688,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="5">
-        <v>1478.358752225864</v>
+        <v>1479.790923896579</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -31696,7 +31696,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="5">
-        <v>1596.491615715621</v>
+        <v>1579.681187358953</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -31704,7 +31704,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="5">
-        <v>1384.929106171542</v>
+        <v>1385.809310931385</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -31712,7 +31712,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="5">
-        <v>1664.287607497119</v>
+        <v>1691.755344157357</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -31720,7 +31720,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="5">
-        <v>1756.369264874397</v>
+        <v>1826.320733438381</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -31728,7 +31728,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="5">
-        <v>1460.366281034938</v>
+        <v>1601.876676568545</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -31736,7 +31736,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="5">
-        <v>1656.079068985804</v>
+        <v>1439.184190741121</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -31744,7 +31744,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="5">
-        <v>1656.050996347905</v>
+        <v>1490.783244955627</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -31752,7 +31752,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="5">
-        <v>1328.858860194004</v>
+        <v>1500.781289099347</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -31760,7 +31760,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="5">
-        <v>1623.213524661398</v>
+        <v>1776.84806071794</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -31768,7 +31768,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="5">
-        <v>1356.037061725135</v>
+        <v>1738.993046696427</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -31776,7 +31776,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="5">
-        <v>1621.660886198497</v>
+        <v>1671.131467303976</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -31784,7 +31784,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="5">
-        <v>1500.253582558878</v>
+        <v>1604.32868262754</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -31792,7 +31792,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="5">
-        <v>1541.217503332444</v>
+        <v>1564.639421552143</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -31800,7 +31800,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="5">
-        <v>1272.470854607294</v>
+        <v>1691.808335819387</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -31808,7 +31808,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="5">
-        <v>1801.694513253053</v>
+        <v>1721.803194050972</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -31816,7 +31816,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="5">
-        <v>1819.642395338205</v>
+        <v>1898.516454003952</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -31824,7 +31824,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="5">
-        <v>1511.370756607112</v>
+        <v>1428.471314809854</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -31832,7 +31832,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="5">
-        <v>1291.498362160293</v>
+        <v>1810.643990912338</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -31840,7 +31840,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="5">
-        <v>1739.759943550736</v>
+        <v>1472.675916518674</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -31848,7 +31848,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="5">
-        <v>1474.683923235819</v>
+        <v>1677.575663994951</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -31856,7 +31856,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="5">
-        <v>1865.54219344391</v>
+        <v>1416.944289853418</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -31864,7 +31864,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="5">
-        <v>1655.282887344582</v>
+        <v>1347.738028478238</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -31872,7 +31872,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="5">
-        <v>1561.82522999662</v>
+        <v>1805.324869616879</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -31880,7 +31880,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="5">
-        <v>1607.16232975546</v>
+        <v>1698.785523397386</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -31888,7 +31888,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="5">
-        <v>1648.662773926293</v>
+        <v>1450.341468148706</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -31896,7 +31896,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="5">
-        <v>1600.579582603282</v>
+        <v>1526.381053914001</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -31904,7 +31904,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="5">
-        <v>1481.617678824415</v>
+        <v>1388.892800264445</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -31912,7 +31912,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="5">
-        <v>1353.875000453316</v>
+        <v>1321.879073504263</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -31920,7 +31920,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="5">
-        <v>1508.497147928869</v>
+        <v>1812.725731746053</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -31928,7 +31928,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="5">
-        <v>1474.720688668012</v>
+        <v>1652.628167375575</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -31936,7 +31936,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="5">
-        <v>1836.699086491447</v>
+        <v>1758.200955121975</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -31944,7 +31944,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="5">
-        <v>1330.718030233868</v>
+        <v>1366.220385256758</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -31952,7 +31952,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="5">
-        <v>1592.559701359235</v>
+        <v>1551.664740876962</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -31960,7 +31960,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="5">
-        <v>1445.096261170496</v>
+        <v>1441.927861888827</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -31968,7 +31968,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="5">
-        <v>1802.452269156136</v>
+        <v>1784.732949228682</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -31976,7 +31976,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="5">
-        <v>1623.828865209745</v>
+        <v>1321.529378330521</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -31984,7 +31984,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="5">
-        <v>1558.020462821435</v>
+        <v>1494.168517410516</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -31992,7 +31992,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="5">
-        <v>1530.610608747682</v>
+        <v>1608.485969987646</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -32000,7 +32000,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="5">
-        <v>1386.982429588644</v>
+        <v>1492.045625638726</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -32008,7 +32008,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="5">
-        <v>1782.421965804129</v>
+        <v>1746.765981235613</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -32016,7 +32016,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="5">
-        <v>1690.242368610375</v>
+        <v>1828.554224120887</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -32024,7 +32024,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="5">
-        <v>1394.279137365111</v>
+        <v>1411.49172766502</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -32032,7 +32032,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="5">
-        <v>1528.14915951049</v>
+        <v>1305.811302257938</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -32040,7 +32040,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="5">
-        <v>1374.754619010942</v>
+        <v>1430.180441294438</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -32048,7 +32048,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="5">
-        <v>1738.114160341227</v>
+        <v>1555.329015506027</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -32056,7 +32056,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="5">
-        <v>1812.096087798534</v>
+        <v>1494.963046263551</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -32064,7 +32064,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="5">
-        <v>1420.601428398535</v>
+        <v>1537.569750757173</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -32072,7 +32072,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="5">
-        <v>1697.351613643296</v>
+        <v>1675.788811828237</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -32080,7 +32080,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="5">
-        <v>1337.152554174474</v>
+        <v>1678.501642772183</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -32088,7 +32088,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="5">
-        <v>1603.708032140355</v>
+        <v>1699.5196432326</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -32096,7 +32096,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="5">
-        <v>1282.691845876602</v>
+        <v>1325.021331335526</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -32104,7 +32104,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="5">
-        <v>1438.125463874339</v>
+        <v>1892.830689594408</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -32112,7 +32112,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="5">
-        <v>1814.72091328663</v>
+        <v>1369.149832085753</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -32120,7 +32120,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="5">
-        <v>1723.728570690292</v>
+        <v>1789.203048211572</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -32128,7 +32128,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="5">
-        <v>1392.606615265146</v>
+        <v>1363.939460698177</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -32136,7 +32136,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="5">
-        <v>1433.074676327244</v>
+        <v>1765.995598888503</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -32144,7 +32144,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="5">
-        <v>1490.457754660736</v>
+        <v>1511.275033255945</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -32152,7 +32152,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="5">
-        <v>1795.944444477594</v>
+        <v>1561.272132143263</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -32160,7 +32160,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="5">
-        <v>1592.473387106847</v>
+        <v>1451.171272791105</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -32168,7 +32168,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="5">
-        <v>1368.044780194704</v>
+        <v>1572.976948937996</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -32176,7 +32176,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="5">
-        <v>1517.554466511221</v>
+        <v>1462.171439143799</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -32184,7 +32184,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="5">
-        <v>1817.901325341147</v>
+        <v>1838.226851808201</v>
       </c>
     </row>
   </sheetData>

--- a/EconomicProject/Examples/Report_E3.xlsx
+++ b/EconomicProject/Examples/Report_E3.xlsx
@@ -450,31 +450,31 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>1251:1323</t>
+    <t>1272:1343</t>
   </si>
   <si>
-    <t>1323:1395</t>
+    <t>1343:1413</t>
   </si>
   <si>
-    <t>1395:1467</t>
+    <t>1413:1484</t>
   </si>
   <si>
-    <t>1467:1539</t>
+    <t>1484:1554</t>
   </si>
   <si>
-    <t>1539:1611</t>
+    <t>1554:1625</t>
   </si>
   <si>
-    <t>1611:1683</t>
+    <t>1625:1695</t>
   </si>
   <si>
-    <t>1683:1755</t>
+    <t>1695:1766</t>
   </si>
   <si>
-    <t>1755:1827</t>
+    <t>1766:1837</t>
   </si>
   <si>
-    <t>1827:1899</t>
+    <t>1837:1907</t>
   </si>
 </sst>
 </file>
@@ -3506,31 +3506,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1251:1323</c:v>
+                  <c:v>1272:1343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1323:1395</c:v>
+                  <c:v>1343:1413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1395:1467</c:v>
+                  <c:v>1413:1484</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1467:1539</c:v>
+                  <c:v>1484:1554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1539:1611</c:v>
+                  <c:v>1554:1625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1611:1683</c:v>
+                  <c:v>1625:1695</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1683:1755</c:v>
+                  <c:v>1695:1766</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1755:1827</c:v>
+                  <c:v>1766:1837</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1827:1899</c:v>
+                  <c:v>1837:1907</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3542,31 +3542,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>143</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1629.212828085149</v>
+        <v>1389.574246077822</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="5">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -24152,13 +24152,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>1603.12837492376</v>
+        <v>1686.121630045561</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E3" s="5">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24166,13 +24166,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>1525.943330250497</v>
+        <v>1562.279754571282</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E4" s="5">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -24180,13 +24180,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>1377.154672572911</v>
+        <v>1395.19781296483</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="5">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -24194,13 +24194,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>1403.706286198523</v>
+        <v>1737.993923233608</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="5">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -24208,13 +24208,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>1432.793908001115</v>
+        <v>1364.537463237068</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E7" s="5">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24222,13 +24222,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>1500.102430843306</v>
+        <v>1678.010235837004</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="5">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -24236,13 +24236,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>1459.561407806294</v>
+        <v>1779.922234074478</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="5">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24250,13 +24250,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>1395.176798102027</v>
+        <v>1649.316728751329</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="5">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -24264,7 +24264,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>1766.150940973518</v>
+        <v>1818.163953988813</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24272,7 +24272,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>1452.1474716073</v>
+        <v>1764.772154357399</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24280,7 +24280,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>1437.501683827052</v>
+        <v>1786.204899307774</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24288,7 +24288,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>1541.832572317601</v>
+        <v>1666.797186775896</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -24296,7 +24296,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>1424.524347063736</v>
+        <v>1581.336294520967</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -24304,7 +24304,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>1395.385663617551</v>
+        <v>1422.391040674325</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -24312,7 +24312,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>1592.383824724408</v>
+        <v>1672.995723790586</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24320,7 +24320,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>1466.861695319077</v>
+        <v>1527.863955077242</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24328,7 +24328,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>1605.930160468392</v>
+        <v>1463.821022249332</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -24336,7 +24336,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>1457.07736652467</v>
+        <v>1854.25686414544</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -24344,7 +24344,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>1372.65588579803</v>
+        <v>1798.085765676799</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -24352,7 +24352,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>1634.957784813179</v>
+        <v>1329.921419201096</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -24360,7 +24360,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>1335.401633213059</v>
+        <v>1885.049043197983</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -24368,7 +24368,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>1560.325019565333</v>
+        <v>1774.468919352511</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -24376,7 +24376,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>1373.934630985183</v>
+        <v>1653.929788615455</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -24384,7 +24384,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>1450.910174634806</v>
+        <v>1612.048417885408</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -24392,7 +24392,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>1422.570384737716</v>
+        <v>1314.774414573893</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -24400,7 +24400,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>1313.427247098892</v>
+        <v>1652.058983729801</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -24408,7 +24408,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>1655.2652061499</v>
+        <v>1682.653910726018</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -24416,7 +24416,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>1624.580357424756</v>
+        <v>1774.598505005038</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -24424,7 +24424,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>1729.616218752923</v>
+        <v>1357.420924629223</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -24432,7 +24432,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>1845.837779446136</v>
+        <v>1605.488045606116</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -24440,7 +24440,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>1552.379036074972</v>
+        <v>1775.159422701901</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -24448,7 +24448,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>1672.327441919595</v>
+        <v>1436.741911913566</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -24456,7 +24456,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>1526.654167189802</v>
+        <v>1662.675836443681</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24464,7 +24464,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>1735.577695557325</v>
+        <v>1474.882724648385</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -24472,7 +24472,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>1351.553329754581</v>
+        <v>1306.28592513404</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -24480,7 +24480,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>1874.073946026715</v>
+        <v>1801.560832728569</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -24488,7 +24488,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>1751.29758629415</v>
+        <v>1760.309241866845</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -24496,7 +24496,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>1397.242680023229</v>
+        <v>1673.341607725719</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24504,7 +24504,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>1806.075283608757</v>
+        <v>1793.873000442696</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -24512,7 +24512,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>1646.261724327002</v>
+        <v>1792.006979418711</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24520,7 +24520,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>1421.803282485848</v>
+        <v>1490.691008704785</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -24528,7 +24528,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>1743.70130901775</v>
+        <v>1305.699475852715</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -24536,7 +24536,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>1761.731577889693</v>
+        <v>1613.80195735509</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -24544,7 +24544,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>1423.115199706327</v>
+        <v>1855.768233515651</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -24552,7 +24552,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>1632.108488001504</v>
+        <v>1626.010507366841</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -24560,7 +24560,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>1649.218054934661</v>
+        <v>1513.993629566946</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -24568,7 +24568,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>1694.188392663028</v>
+        <v>1616.56717855305</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -24576,7 +24576,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>1358.615582342976</v>
+        <v>1691.303653726368</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -24584,7 +24584,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>1422.324142672862</v>
+        <v>1526.74892388051</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -24592,7 +24592,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>1531.528186830627</v>
+        <v>1630.469822983404</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -24600,7 +24600,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>1690.643223297202</v>
+        <v>1548.206426708544</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -24608,7 +24608,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>1505.343779995236</v>
+        <v>1765.765288801907</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -24616,7 +24616,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>1353.70791627012</v>
+        <v>1351.909110480927</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -24624,7 +24624,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>1619.120154304121</v>
+        <v>1875.918132780708</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -24632,7 +24632,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>1547.406940860741</v>
+        <v>1798.938257860825</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -24640,7 +24640,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>1536.805199174845</v>
+        <v>1588.909259709194</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -24648,7 +24648,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>1802.952576630439</v>
+        <v>1538.429781743813</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -24656,7 +24656,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>1463.596970723864</v>
+        <v>1533.531122643853</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -24664,7 +24664,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>1805.37041697418</v>
+        <v>1467.288240024008</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -24672,7 +24672,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>1781.746132175592</v>
+        <v>1734.335651704602</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -24680,7 +24680,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>1326.837178918085</v>
+        <v>1451.996061939766</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -24688,7 +24688,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>1516.409954816273</v>
+        <v>1356.914312664639</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -24696,7 +24696,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>1634.511959911238</v>
+        <v>1526.783816139228</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -24704,7 +24704,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>1676.87278605132</v>
+        <v>1524.206744689812</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -24712,7 +24712,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>1656.166461007033</v>
+        <v>1488.25564999512</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -24720,7 +24720,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>1636.362982027707</v>
+        <v>1387.109815000093</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -24728,7 +24728,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>1613.435028972817</v>
+        <v>1446.75022733216</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -24736,7 +24736,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>1798.971356073509</v>
+        <v>1348.938021488454</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -24744,7 +24744,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>1635.53423103119</v>
+        <v>1642.905584961995</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -24752,7 +24752,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>1716.74047393297</v>
+        <v>1611.116956564277</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -24760,7 +24760,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>1558.847042927388</v>
+        <v>1850.7663066722</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -24768,7 +24768,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>1702.952135210989</v>
+        <v>1509.650579739738</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -24776,7 +24776,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>1707.091582362894</v>
+        <v>1678.673508084377</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -24784,7 +24784,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>1707.125017570025</v>
+        <v>1407.559477662207</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -24792,7 +24792,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>1482.622614041386</v>
+        <v>1578.220079447245</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -24800,7 +24800,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>1380.099064954741</v>
+        <v>1314.762017691083</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -24808,7 +24808,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>1737.73751736303</v>
+        <v>1869.125856518329</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -24816,7 +24816,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>1407.093603869331</v>
+        <v>1720.140261806847</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -24824,7 +24824,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>1431.294909089061</v>
+        <v>1650.537708780304</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -24832,7 +24832,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>1509.438830840536</v>
+        <v>1775.320846187925</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -24840,7 +24840,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>1414.832077480073</v>
+        <v>1516.281762573671</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -24848,7 +24848,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>1391.684695268852</v>
+        <v>1646.057021523237</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -24856,7 +24856,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>1593.141268360614</v>
+        <v>1560.607317743761</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -24864,7 +24864,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>1792.802443449526</v>
+        <v>1606.031673908872</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -24872,7 +24872,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>1442.864649969116</v>
+        <v>1715.455460872359</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -24880,7 +24880,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>1735.903021772947</v>
+        <v>1564.545394976072</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -24888,7 +24888,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>1882.383984338008</v>
+        <v>1506.533264289771</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -24896,7 +24896,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>1366.5789238729</v>
+        <v>1408.097022524541</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -24904,7 +24904,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>1832.094686499729</v>
+        <v>1705.942004669376</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -24912,7 +24912,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>1730.994088035238</v>
+        <v>1649.356904235035</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -24920,7 +24920,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>1340.545933178528</v>
+        <v>1610.825981005204</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -24928,7 +24928,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>1314.601026463264</v>
+        <v>1763.692160236106</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -24936,7 +24936,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>1852.27114459842</v>
+        <v>1701.869238945221</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -24944,7 +24944,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>1802.240249531555</v>
+        <v>1875.578750983223</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24952,7 +24952,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>1599.996911407406</v>
+        <v>1420.480380879544</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -24960,7 +24960,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>1534.184524982156</v>
+        <v>1518.450813570417</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24968,7 +24968,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>1793.936368004168</v>
+        <v>1703.412510904977</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -24976,7 +24976,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>1355.172370147113</v>
+        <v>1797.026270442959</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -24984,7 +24984,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>1370.834003677264</v>
+        <v>1420.461534455337</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -24992,7 +24992,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>1817.385488098469</v>
+        <v>1375.240946917537</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -25000,7 +25000,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>1404.674424572236</v>
+        <v>1589.370150977154</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -25008,7 +25008,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="5">
-        <v>1620.138617667447</v>
+        <v>1743.309882929687</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -25016,7 +25016,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>1452.812766885361</v>
+        <v>1612.02077295608</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -25024,7 +25024,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="5">
-        <v>1678.404414756896</v>
+        <v>1786.518838177777</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -25032,7 +25032,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>1724.305222960226</v>
+        <v>1744.03403727</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -25040,7 +25040,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="5">
-        <v>1487.305860214247</v>
+        <v>1601.251875896269</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -25048,7 +25048,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>1810.870317429469</v>
+        <v>1716.880354349055</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -25056,7 +25056,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="5">
-        <v>1718.732051694673</v>
+        <v>1784.551673085721</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -25064,7 +25064,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>1383.373986485409</v>
+        <v>1496.848101174406</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -25072,7 +25072,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="5">
-        <v>1696.857267689416</v>
+        <v>1553.925906478886</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -25080,7 +25080,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>1840.574932195751</v>
+        <v>1752.589562873902</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -25088,7 +25088,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="5">
-        <v>1629.070507130444</v>
+        <v>1824.199657191403</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -25096,7 +25096,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>1646.294814222628</v>
+        <v>1731.950701116577</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -25104,7 +25104,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="5">
-        <v>1690.506489914333</v>
+        <v>1753.411956695016</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -25112,7 +25112,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>1585.684363559224</v>
+        <v>1611.747846477925</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -25120,7 +25120,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="5">
-        <v>1363.714654184566</v>
+        <v>1651.015109765952</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -25128,7 +25128,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>1827.522176849676</v>
+        <v>1836.646931662617</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -25136,7 +25136,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="5">
-        <v>1353.797301100319</v>
+        <v>1780.633022254917</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -25144,7 +25144,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>1437.484961122412</v>
+        <v>1426.497989259264</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -25152,7 +25152,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="5">
-        <v>1731.666546144019</v>
+        <v>1660.276144195604</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -25160,7 +25160,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>1696.664659581532</v>
+        <v>1816.573195862851</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -25168,7 +25168,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="5">
-        <v>1478.521560001558</v>
+        <v>1781.11760188087</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -25176,7 +25176,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>1660.133899265845</v>
+        <v>1358.577602126574</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -25184,7 +25184,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="5">
-        <v>1582.006060374208</v>
+        <v>1692.985029993712</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -25192,7 +25192,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>1356.263614468626</v>
+        <v>1535.990288941869</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -25200,7 +25200,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="5">
-        <v>1773.033633046347</v>
+        <v>1801.523895975455</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -25208,7 +25208,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>1761.627300040207</v>
+        <v>1781.026076468981</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -25216,7 +25216,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="5">
-        <v>1450.460261409745</v>
+        <v>1445.861541784203</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -25224,7 +25224,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>1844.482480089196</v>
+        <v>1454.289645960984</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -25232,7 +25232,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="5">
-        <v>1481.803363816359</v>
+        <v>1658.494613713894</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -25240,7 +25240,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>1812.490866592472</v>
+        <v>1754.928381249603</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -25248,7 +25248,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="5">
-        <v>1789.579073578949</v>
+        <v>1616.070910029563</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -25256,7 +25256,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>1668.061652874592</v>
+        <v>1475.916663952961</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -25264,7 +25264,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="5">
-        <v>1652.78722693809</v>
+        <v>1685.241614005864</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -25272,7 +25272,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>1639.704984820362</v>
+        <v>1480.842377621311</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -25280,7 +25280,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="5">
-        <v>1812.285673393416</v>
+        <v>1678.124184705187</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -25288,7 +25288,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>1633.192080060882</v>
+        <v>1633.341856175191</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -25296,7 +25296,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="5">
-        <v>1631.235351870126</v>
+        <v>1639.985400201836</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -25304,7 +25304,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>1724.973018432385</v>
+        <v>1422.289749516501</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -25312,7 +25312,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="5">
-        <v>1659.766529971081</v>
+        <v>1596.455419413252</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -25320,7 +25320,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>1412.476327646833</v>
+        <v>1843.37693414215</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -25328,7 +25328,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="5">
-        <v>1593.638035051499</v>
+        <v>1604.513029562028</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -25336,7 +25336,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>1831.862921592161</v>
+        <v>1564.128513734306</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -25344,7 +25344,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="5">
-        <v>1752.894257138739</v>
+        <v>1425.593871339844</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -25352,7 +25352,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>1437.147667043699</v>
+        <v>1811.05822897125</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -25360,7 +25360,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="5">
-        <v>1654.063836435999</v>
+        <v>1385.357382434253</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -25368,7 +25368,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>1474.970588242094</v>
+        <v>1590.214804212246</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -25376,7 +25376,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="5">
-        <v>1435.756352238246</v>
+        <v>1623.139068635112</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -25384,7 +25384,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>1841.210113609041</v>
+        <v>1551.165141215497</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -25392,7 +25392,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="5">
-        <v>1753.613800252047</v>
+        <v>1666.730926138291</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -25400,7 +25400,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>1572.955700323566</v>
+        <v>1572.82702049092</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -25408,7 +25408,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="5">
-        <v>1390.641862217085</v>
+        <v>1389.950133873588</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -25416,7 +25416,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>1649.772960606307</v>
+        <v>1405.825408087643</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -25424,7 +25424,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="5">
-        <v>1704.29476380066</v>
+        <v>1334.074531065439</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -25432,7 +25432,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>1574.187124618066</v>
+        <v>1695.205357736468</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -25440,7 +25440,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="5">
-        <v>1395.016542933264</v>
+        <v>1361.77902113932</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -25448,7 +25448,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>1718.569971876766</v>
+        <v>1819.543565760825</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -25456,7 +25456,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="5">
-        <v>1759.774961438195</v>
+        <v>1500.025228656956</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -25464,7 +25464,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>1817.318198776649</v>
+        <v>1492.124190687339</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -25472,7 +25472,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="5">
-        <v>1427.556358147834</v>
+        <v>1680.188466208584</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -25480,7 +25480,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>1473.192012105713</v>
+        <v>1513.020126934417</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -25488,7 +25488,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="5">
-        <v>1373.614952629249</v>
+        <v>1417.644399334889</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -25496,7 +25496,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>1526.141303086782</v>
+        <v>1485.338758255155</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -25504,7 +25504,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="5">
-        <v>1541.299211318335</v>
+        <v>1780.848899569062</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -25512,7 +25512,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>1296.069584955119</v>
+        <v>1704.630381537264</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -25520,7 +25520,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="5">
-        <v>1784.392751481576</v>
+        <v>1810.433359130906</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -25528,7 +25528,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>1338.632421235291</v>
+        <v>1857.003609340441</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -25536,7 +25536,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="5">
-        <v>1769.244711026309</v>
+        <v>1694.966476189049</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -25544,7 +25544,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>1415.293507064681</v>
+        <v>1657.771478353405</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -25552,7 +25552,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="5">
-        <v>1370.55441021527</v>
+        <v>1591.406802804049</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -25560,7 +25560,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>1305.447273722302</v>
+        <v>1820.717852870515</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -25568,7 +25568,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="5">
-        <v>1344.868525624743</v>
+        <v>1408.21205104675</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -25576,7 +25576,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>1434.27942286609</v>
+        <v>1878.762727920506</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -25584,7 +25584,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="5">
-        <v>1659.0928256523</v>
+        <v>1536.87022476071</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -25592,7 +25592,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>1401.875417942473</v>
+        <v>1329.513226470323</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -25600,7 +25600,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="5">
-        <v>1738.137953743309</v>
+        <v>1555.690963812656</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -25608,7 +25608,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>1663.606236409291</v>
+        <v>1440.075158355891</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -25616,7 +25616,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="5">
-        <v>1280.133012124803</v>
+        <v>1803.042082375656</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -25624,7 +25624,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>1377.252463192028</v>
+        <v>1527.396624098124</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -25632,7 +25632,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="5">
-        <v>1652.450947320606</v>
+        <v>1515.267382499233</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -25640,7 +25640,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>1532.1522535368</v>
+        <v>1455.584272004144</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -25648,7 +25648,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="5">
-        <v>1734.239285414405</v>
+        <v>1599.379672646097</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -25656,7 +25656,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>1713.340828313486</v>
+        <v>1604.771133857222</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -25664,7 +25664,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="5">
-        <v>1529.819453639986</v>
+        <v>1665.741022483003</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -25672,7 +25672,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>1471.134835036455</v>
+        <v>1340.362694384558</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -25680,7 +25680,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="5">
-        <v>1631.052215295462</v>
+        <v>1458.173016641935</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -25688,7 +25688,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>1591.995840036796</v>
+        <v>1613.111881446689</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -25696,7 +25696,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="5">
-        <v>1627.000563800243</v>
+        <v>1732.044726664952</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -25704,7 +25704,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>1336.939669920812</v>
+        <v>1567.602936582356</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -25712,7 +25712,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="5">
-        <v>1805.407097624473</v>
+        <v>1449.810306274474</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -25720,7 +25720,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>1695.657061657835</v>
+        <v>1830.701404662426</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -25728,7 +25728,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="5">
-        <v>1594.329013165397</v>
+        <v>1604.555497066117</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -25736,7 +25736,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>1807.218174190035</v>
+        <v>1747.346815737354</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -25744,7 +25744,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="5">
-        <v>1768.579391158339</v>
+        <v>1573.733510408808</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -25752,7 +25752,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>1444.065866610292</v>
+        <v>1636.623171481217</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -25760,7 +25760,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="5">
-        <v>1531.730890837231</v>
+        <v>1622.955316304837</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -25768,7 +25768,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>1544.166577462406</v>
+        <v>1808.226629083754</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -25776,7 +25776,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="5">
-        <v>1289.197113127542</v>
+        <v>1829.695726026771</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -25784,7 +25784,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>1550.117055909138</v>
+        <v>1491.150152385841</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -25792,7 +25792,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="5">
-        <v>1254.570421069461</v>
+        <v>1443.511592681115</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -25800,7 +25800,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="5">
-        <v>1740.724737861151</v>
+        <v>1608.515099630688</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -25808,7 +25808,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="5">
-        <v>1649.936073767334</v>
+        <v>1518.025986606148</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -25816,7 +25816,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="5">
-        <v>1818.132494919965</v>
+        <v>1412.304783964246</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -25824,7 +25824,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="5">
-        <v>1800.088181121618</v>
+        <v>1398.90553306216</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -25832,7 +25832,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="5">
-        <v>1592.806977267549</v>
+        <v>1633.328934490491</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -25840,7 +25840,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="5">
-        <v>1601.172379117622</v>
+        <v>1661.177878771101</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -25848,7 +25848,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="5">
-        <v>1623.155628359517</v>
+        <v>1354.972449577692</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -25856,7 +25856,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="5">
-        <v>1566.802280996371</v>
+        <v>1427.912489651978</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -25864,7 +25864,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="5">
-        <v>1478.139695503982</v>
+        <v>1576.108299099246</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -25872,7 +25872,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="5">
-        <v>1410.674324027482</v>
+        <v>1564.943762499585</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -25880,7 +25880,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="5">
-        <v>1811.470724321199</v>
+        <v>1411.206911368214</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -25888,7 +25888,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="5">
-        <v>1694.154267107593</v>
+        <v>1400.370937989439</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -25896,7 +25896,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="5">
-        <v>1578.371547621246</v>
+        <v>1804.023217091991</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -25904,7 +25904,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="5">
-        <v>1770.464724390442</v>
+        <v>1669.746848203814</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -25912,7 +25912,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="5">
-        <v>1511.637650131767</v>
+        <v>1662.966679245887</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -25920,7 +25920,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="5">
-        <v>1458.475648069908</v>
+        <v>1389.332001648578</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -25928,7 +25928,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="5">
-        <v>1731.881044976846</v>
+        <v>1690.051692654085</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -25936,7 +25936,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="5">
-        <v>1339.585618832821</v>
+        <v>1596.438481042676</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -25944,7 +25944,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="5">
-        <v>1737.937696962014</v>
+        <v>1696.309085419053</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -25952,7 +25952,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="5">
-        <v>1711.106809564741</v>
+        <v>1422.485016871658</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -25960,7 +25960,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="5">
-        <v>1526.0865864892</v>
+        <v>1777.131313414064</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -25968,7 +25968,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="5">
-        <v>1644.506231933468</v>
+        <v>1457.446668847791</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -25976,7 +25976,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="5">
-        <v>1565.033989650012</v>
+        <v>1632.677376433264</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -25984,7 +25984,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="5">
-        <v>1764.291429370092</v>
+        <v>1639.934255136722</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -25992,7 +25992,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="5">
-        <v>1587.558813676771</v>
+        <v>1725.385719283162</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -26000,7 +26000,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="5">
-        <v>1654.627076454326</v>
+        <v>1513.435096202049</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -26008,7 +26008,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="5">
-        <v>1790.791288608165</v>
+        <v>1568.261244149906</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -26016,7 +26016,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="5">
-        <v>1300.543922531965</v>
+        <v>1788.006704896288</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -26024,7 +26024,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="5">
-        <v>1534.432620801743</v>
+        <v>1506.547882743455</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -26032,7 +26032,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="5">
-        <v>1762.170691582705</v>
+        <v>1740.816163333071</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -26040,7 +26040,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="5">
-        <v>1292.186337856527</v>
+        <v>1505.723562909951</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -26048,7 +26048,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="5">
-        <v>1676.285937910003</v>
+        <v>1803.526207839949</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -26056,7 +26056,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="5">
-        <v>1798.476458198016</v>
+        <v>1831.744748997825</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -26064,7 +26064,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="5">
-        <v>1609.48471407148</v>
+        <v>1502.4585196464</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -26072,7 +26072,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="5">
-        <v>1642.224911950227</v>
+        <v>1651.486982100777</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -26080,7 +26080,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="5">
-        <v>1513.470963986584</v>
+        <v>1666.854000568507</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -26088,7 +26088,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="5">
-        <v>1486.390833159669</v>
+        <v>1720.389633033909</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -26096,7 +26096,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="5">
-        <v>1516.766242700254</v>
+        <v>1692.189073836745</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -26104,7 +26104,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="5">
-        <v>1271.700248517816</v>
+        <v>1354.762425571448</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -26112,7 +26112,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="5">
-        <v>1683.487253286011</v>
+        <v>1825.078149604985</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -26120,7 +26120,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="5">
-        <v>1528.471242349599</v>
+        <v>1580.904945367275</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -26128,7 +26128,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="5">
-        <v>1795.714169893776</v>
+        <v>1754.369907272842</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -26136,7 +26136,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="5">
-        <v>1793.96297975911</v>
+        <v>1784.164748103605</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -26144,7 +26144,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="5">
-        <v>1473.00331336825</v>
+        <v>1469.79287313238</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -26152,7 +26152,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="5">
-        <v>1438.490038928228</v>
+        <v>1721.680192168931</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -26160,7 +26160,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="5">
-        <v>1636.782887035555</v>
+        <v>1749.094673579589</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -26168,7 +26168,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="5">
-        <v>1640.115732801868</v>
+        <v>1457.94580260438</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -26176,7 +26176,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="5">
-        <v>1457.460724639302</v>
+        <v>1737.829258214022</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -26184,7 +26184,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="5">
-        <v>1610.409763124951</v>
+        <v>1580.847695335438</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -26192,7 +26192,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="5">
-        <v>1674.489064012845</v>
+        <v>1554.283819793504</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -26200,7 +26200,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="5">
-        <v>1364.164534730535</v>
+        <v>1483.871431538903</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -26208,7 +26208,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="5">
-        <v>1803.112472587766</v>
+        <v>1824.644756917239</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -26216,7 +26216,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="5">
-        <v>1577.645458917129</v>
+        <v>1868.276145370354</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -26224,7 +26224,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="5">
-        <v>1328.423131197623</v>
+        <v>1647.878313718823</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -26232,7 +26232,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="5">
-        <v>1730.025961833417</v>
+        <v>1609.737487254009</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -26240,7 +26240,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="5">
-        <v>1410.852489874897</v>
+        <v>1617.785305908264</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -26248,7 +26248,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="5">
-        <v>1362.632101764512</v>
+        <v>1789.300688570328</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -26256,7 +26256,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="5">
-        <v>1560.889326021752</v>
+        <v>1473.448622240559</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -26264,7 +26264,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="5">
-        <v>1389.976290698536</v>
+        <v>1464.439910300657</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -26272,7 +26272,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="5">
-        <v>1542.635141257913</v>
+        <v>1290.402168848659</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -26280,7 +26280,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="5">
-        <v>1699.049323855497</v>
+        <v>1677.116971139779</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -26288,7 +26288,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="5">
-        <v>1649.398604503444</v>
+        <v>1633.371465228278</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -26296,7 +26296,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="5">
-        <v>1674.982651379017</v>
+        <v>1375.340225642968</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -26304,7 +26304,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="5">
-        <v>1488.516624458753</v>
+        <v>1837.387160415432</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -26312,7 +26312,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="5">
-        <v>1692.868856004965</v>
+        <v>1299.044656504425</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -26320,7 +26320,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="5">
-        <v>1754.097191738978</v>
+        <v>1563.714212761265</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -26328,7 +26328,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="5">
-        <v>1440.847975623324</v>
+        <v>1637.879057516594</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -26336,7 +26336,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="5">
-        <v>1442.207566331152</v>
+        <v>1395.485235117502</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -26344,7 +26344,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="5">
-        <v>1463.945565288958</v>
+        <v>1550.060109386796</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -26352,7 +26352,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="5">
-        <v>1814.519627987735</v>
+        <v>1711.02485279643</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -26360,7 +26360,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="5">
-        <v>1640.035693622944</v>
+        <v>1515.021748010908</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -26368,7 +26368,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="5">
-        <v>1831.615744487258</v>
+        <v>1733.974098303155</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -26376,7 +26376,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="5">
-        <v>1798.14425993643</v>
+        <v>1483.113321812564</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -26384,7 +26384,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="5">
-        <v>1441.856467653229</v>
+        <v>1647.272826977578</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -26392,7 +26392,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="5">
-        <v>1445.801139838992</v>
+        <v>1708.202616282582</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -26400,7 +26400,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="5">
-        <v>1720.043784793878</v>
+        <v>1406.839876690552</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -26408,7 +26408,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="5">
-        <v>1734.394967389459</v>
+        <v>1368.035420671778</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -26416,7 +26416,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="5">
-        <v>1770.447713038694</v>
+        <v>1604.748586522801</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -26424,7 +26424,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="5">
-        <v>1743.428870643615</v>
+        <v>1540.422408170666</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -26432,7 +26432,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="5">
-        <v>1607.190650046359</v>
+        <v>1631.146512511501</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -26440,7 +26440,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="5">
-        <v>1331.55851509185</v>
+        <v>1892.549450292071</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -26448,7 +26448,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="5">
-        <v>1634.395369548056</v>
+        <v>1498.258806072109</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -26456,7 +26456,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="5">
-        <v>1291.839525190093</v>
+        <v>1321.924282050803</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -26464,7 +26464,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="5">
-        <v>1472.589269658788</v>
+        <v>1815.992664511014</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -26472,7 +26472,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="5">
-        <v>1417.694520315135</v>
+        <v>1633.844616824941</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -26480,7 +26480,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="5">
-        <v>1630.202276013492</v>
+        <v>1512.146065690639</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -26488,7 +26488,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="5">
-        <v>1686.068321253479</v>
+        <v>1509.739358906889</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -26496,7 +26496,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="5">
-        <v>1354.929572348719</v>
+        <v>1567.915711845536</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -26504,7 +26504,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="5">
-        <v>1578.403554895244</v>
+        <v>1505.443183870677</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -26512,7 +26512,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="5">
-        <v>1449.476445555627</v>
+        <v>1470.977962048098</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -26520,7 +26520,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="5">
-        <v>1416.742127177368</v>
+        <v>1861.13093087589</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -26528,7 +26528,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="5">
-        <v>1579.163106469576</v>
+        <v>1475.087565438582</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -26536,7 +26536,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="5">
-        <v>1810.636770329939</v>
+        <v>1359.266246534856</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -26544,7 +26544,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="5">
-        <v>1394.117195685106</v>
+        <v>1514.016587861883</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -26552,7 +26552,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="5">
-        <v>1424.97344774152</v>
+        <v>1635.291141406147</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -26560,7 +26560,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="5">
-        <v>1580.493016272495</v>
+        <v>1371.982226845447</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -26568,7 +26568,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="5">
-        <v>1315.823880291962</v>
+        <v>1700.770620826194</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -26576,7 +26576,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="5">
-        <v>1732.745089696303</v>
+        <v>1399.831612233889</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -26584,7 +26584,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="5">
-        <v>1510.89168758665</v>
+        <v>1555.340132916575</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -26592,7 +26592,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="5">
-        <v>1733.315043684449</v>
+        <v>1762.537563773104</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -26600,7 +26600,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="5">
-        <v>1448.030873599049</v>
+        <v>1409.615309630599</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -26608,7 +26608,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="5">
-        <v>1328.188649524816</v>
+        <v>1692.029261822009</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -26616,7 +26616,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="5">
-        <v>1318.265510914579</v>
+        <v>1389.327135136417</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -26624,7 +26624,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="5">
-        <v>1429.563242743698</v>
+        <v>1656.985199132854</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -26632,7 +26632,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="5">
-        <v>1467.663948596345</v>
+        <v>1590.714176104515</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -26640,7 +26640,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="5">
-        <v>1721.759327255858</v>
+        <v>1680.174385147653</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -26648,7 +26648,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="5">
-        <v>1561.404782489623</v>
+        <v>1675.458709139178</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -26656,7 +26656,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="5">
-        <v>1694.830110023427</v>
+        <v>1703.929827892566</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -26664,7 +26664,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="5">
-        <v>1841.899633093505</v>
+        <v>1809.005496797569</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -26672,7 +26672,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="5">
-        <v>1596.761434028727</v>
+        <v>1357.979520211751</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -26680,7 +26680,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="5">
-        <v>1625.269681879802</v>
+        <v>1411.747073948671</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -26688,7 +26688,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="5">
-        <v>1574.713720683727</v>
+        <v>1558.383158352853</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -26696,7 +26696,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="5">
-        <v>1404.205105339324</v>
+        <v>1511.275766245748</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -26704,7 +26704,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="5">
-        <v>1555.057809886749</v>
+        <v>1491.675855394943</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -26712,7 +26712,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="5">
-        <v>1655.849964564464</v>
+        <v>1597.22930499991</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -26720,7 +26720,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="5">
-        <v>1524.46859558159</v>
+        <v>1529.289420307639</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -26728,7 +26728,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="5">
-        <v>1731.496613420145</v>
+        <v>1676.109872167905</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -26736,7 +26736,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="5">
-        <v>1663.173045349288</v>
+        <v>1642.89890090216</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -26744,7 +26744,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="5">
-        <v>1692.263275546538</v>
+        <v>1338.639519901977</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -26752,7 +26752,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="5">
-        <v>1837.003169122097</v>
+        <v>1346.254936953221</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -26760,7 +26760,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="5">
-        <v>1476.302392201767</v>
+        <v>1348.363632175415</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -26768,7 +26768,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="5">
-        <v>1827.682122283115</v>
+        <v>1719.155433229809</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -26776,7 +26776,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="5">
-        <v>1779.414819078724</v>
+        <v>1608.568632084224</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -26784,7 +26784,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="5">
-        <v>1752.49557280083</v>
+        <v>1462.970547149268</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -26792,7 +26792,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="5">
-        <v>1519.952453916998</v>
+        <v>1741.830335947353</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -26800,7 +26800,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="5">
-        <v>1544.83829233756</v>
+        <v>1580.304296933278</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -26808,7 +26808,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="5">
-        <v>1756.949037580218</v>
+        <v>1771.130452378247</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -26816,7 +26816,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="5">
-        <v>1463.296594835816</v>
+        <v>1544.888836222916</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -26824,7 +26824,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="5">
-        <v>1286.052939901863</v>
+        <v>1848.665633250466</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -26832,7 +26832,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="5">
-        <v>1651.483633140679</v>
+        <v>1338.602796929118</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -26840,7 +26840,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="5">
-        <v>1549.388512037271</v>
+        <v>1768.235252928949</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -26848,7 +26848,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="5">
-        <v>1434.241712634963</v>
+        <v>1586.529494319006</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -26856,7 +26856,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="5">
-        <v>1555.361999838915</v>
+        <v>1561.666259994746</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -26864,7 +26864,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="5">
-        <v>1692.843571191228</v>
+        <v>1844.581984186391</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -26872,7 +26872,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="5">
-        <v>1738.472619263855</v>
+        <v>1467.313322929979</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -26880,7 +26880,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="5">
-        <v>1408.834549915115</v>
+        <v>1814.528241788186</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -26888,7 +26888,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="5">
-        <v>1730.205072353734</v>
+        <v>1818.614844809768</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -26896,7 +26896,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="5">
-        <v>1293.460698857338</v>
+        <v>1721.745904963329</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -26904,7 +26904,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="5">
-        <v>1692.479975355358</v>
+        <v>1411.746416208224</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -26912,7 +26912,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="5">
-        <v>1362.882384988216</v>
+        <v>1769.404549555944</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -26920,7 +26920,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="5">
-        <v>1474.74272609076</v>
+        <v>1354.425109522465</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -26928,7 +26928,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="5">
-        <v>1658.053593907443</v>
+        <v>1600.650693552688</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -26936,7 +26936,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="5">
-        <v>1859.605717190168</v>
+        <v>1429.331069437701</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -26944,7 +26944,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="5">
-        <v>1637.059835573005</v>
+        <v>1719.821231371664</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -26952,7 +26952,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="5">
-        <v>1393.323917618143</v>
+        <v>1794.868969485003</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -26960,7 +26960,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="5">
-        <v>1492.893725614027</v>
+        <v>1683.968401984005</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -26968,7 +26968,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="5">
-        <v>1755.333627527819</v>
+        <v>1789.276031946387</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -26976,7 +26976,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="5">
-        <v>1847.25944049519</v>
+        <v>1484.251498624832</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -26984,7 +26984,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="5">
-        <v>1653.107168904136</v>
+        <v>1766.221420452013</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -26992,7 +26992,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="5">
-        <v>1355.930924912387</v>
+        <v>1593.378510604206</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -27000,7 +27000,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="5">
-        <v>1728.09823516866</v>
+        <v>1626.372872553283</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -27008,7 +27008,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="5">
-        <v>1441.387628304177</v>
+        <v>1759.980519034054</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -27016,7 +27016,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="5">
-        <v>1822.025113161388</v>
+        <v>1505.805366359121</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -27024,7 +27024,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="5">
-        <v>1502.102809103905</v>
+        <v>1371.061294460775</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -27032,7 +27032,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="5">
-        <v>1376.17008854825</v>
+        <v>1703.453710298463</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -27040,7 +27040,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="5">
-        <v>1405.103238318907</v>
+        <v>1452.695858283844</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -27048,7 +27048,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="5">
-        <v>1525.715191309963</v>
+        <v>1420.505303951614</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -27056,7 +27056,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="5">
-        <v>1765.548601489817</v>
+        <v>1626.053123427447</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -27064,7 +27064,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="5">
-        <v>1781.154509168149</v>
+        <v>1716.45098224666</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -27072,7 +27072,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="5">
-        <v>1662.734311431377</v>
+        <v>1632.787940153192</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -27080,7 +27080,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="5">
-        <v>1652.455656369138</v>
+        <v>1660.016495829167</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -27088,7 +27088,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="5">
-        <v>1801.432048519716</v>
+        <v>1836.827159614657</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -27096,7 +27096,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="5">
-        <v>1279.274829674832</v>
+        <v>1528.426619371439</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -27104,7 +27104,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="5">
-        <v>1340.849571067207</v>
+        <v>1785.833876558623</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -27112,7 +27112,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="5">
-        <v>1646.914817763928</v>
+        <v>1703.1914372525</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -27120,7 +27120,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="5">
-        <v>1604.150846485317</v>
+        <v>1423.719297302144</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -27128,7 +27128,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="5">
-        <v>1325.148574128074</v>
+        <v>1674.05455345259</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -27136,7 +27136,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="5">
-        <v>1374.301844958534</v>
+        <v>1785.983820266128</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -27144,7 +27144,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="5">
-        <v>1884.886132728297</v>
+        <v>1837.500241088642</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -27152,7 +27152,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="5">
-        <v>1863.280179822065</v>
+        <v>1559.264923905357</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -27160,7 +27160,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="5">
-        <v>1384.539982791788</v>
+        <v>1309.591434605571</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -27168,7 +27168,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="5">
-        <v>1414.987569667249</v>
+        <v>1635.325294401618</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -27176,7 +27176,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="5">
-        <v>1762.683976811134</v>
+        <v>1602.498571285631</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -27184,7 +27184,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="5">
-        <v>1479.908380456989</v>
+        <v>1281.039342542366</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -27192,7 +27192,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="5">
-        <v>1497.328680096877</v>
+        <v>1686.110425347533</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -27200,7 +27200,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="5">
-        <v>1771.583836168994</v>
+        <v>1710.300611557946</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -27208,7 +27208,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="5">
-        <v>1417.342948663996</v>
+        <v>1560.094088851389</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -27216,7 +27216,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="5">
-        <v>1644.200067260771</v>
+        <v>1521.267896502383</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -27224,7 +27224,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="5">
-        <v>1883.839534931685</v>
+        <v>1584.849043386726</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -27232,7 +27232,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="5">
-        <v>1531.964772993014</v>
+        <v>1583.39672947321</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -27240,7 +27240,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="5">
-        <v>1370.467858283905</v>
+        <v>1475.32865007056</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -27248,7 +27248,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="5">
-        <v>1734.939561191272</v>
+        <v>1845.810463701324</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -27256,7 +27256,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="5">
-        <v>1338.405594571289</v>
+        <v>1852.959822201248</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -27264,7 +27264,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="5">
-        <v>1468.204530730254</v>
+        <v>1656.22624581389</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -27272,7 +27272,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="5">
-        <v>1696.804724306185</v>
+        <v>1827.612796259586</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -27280,7 +27280,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="5">
-        <v>1482.512177865924</v>
+        <v>1591.036237295654</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -27288,7 +27288,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="5">
-        <v>1458.360628099998</v>
+        <v>1341.947245609202</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -27296,7 +27296,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="5">
-        <v>1523.426214431877</v>
+        <v>1507.25865158787</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -27304,7 +27304,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="5">
-        <v>1802.80129027216</v>
+        <v>1379.414796881569</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -27312,7 +27312,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="5">
-        <v>1266.34294391132</v>
+        <v>1419.012427856594</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -27320,7 +27320,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="5">
-        <v>1449.913394375293</v>
+        <v>1315.30224651399</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -27328,7 +27328,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="5">
-        <v>1477.795724875314</v>
+        <v>1455.825054778127</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -27336,7 +27336,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="5">
-        <v>1400.934451889709</v>
+        <v>1663.255989775389</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -27344,7 +27344,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="5">
-        <v>1638.294759080024</v>
+        <v>1469.175984022968</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -27352,7 +27352,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="5">
-        <v>1705.615006102277</v>
+        <v>1575.844699078506</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -27360,7 +27360,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="5">
-        <v>1726.743851121084</v>
+        <v>1510.46971878314</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -27368,7 +27368,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="5">
-        <v>1810.059769869454</v>
+        <v>1485.051402268595</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -27376,7 +27376,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="5">
-        <v>1413.173068911178</v>
+        <v>1534.294715225439</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -27384,7 +27384,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="5">
-        <v>1682.872578314135</v>
+        <v>1856.43584439952</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -27392,7 +27392,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="5">
-        <v>1614.951018571297</v>
+        <v>1459.93372015593</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -27400,7 +27400,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="5">
-        <v>1583.457951099487</v>
+        <v>1766.66484832305</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -27408,7 +27408,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="5">
-        <v>1530.931349241874</v>
+        <v>1816.556592960732</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -27416,7 +27416,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="5">
-        <v>1407.119140311517</v>
+        <v>1414.978690804541</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -27424,7 +27424,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="5">
-        <v>1451.67234174782</v>
+        <v>1738.166832814447</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -27432,7 +27432,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="5">
-        <v>1783.200456449433</v>
+        <v>1633.802201999766</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -27440,7 +27440,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="5">
-        <v>1546.503715740766</v>
+        <v>1600.9229313244</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -27448,7 +27448,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="5">
-        <v>1648.190413910272</v>
+        <v>1350.823319812692</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -27456,7 +27456,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="5">
-        <v>1445.527489204001</v>
+        <v>1634.866417600916</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -27464,7 +27464,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="5">
-        <v>1736.987938809714</v>
+        <v>1885.362774385792</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -27472,7 +27472,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="5">
-        <v>1443.947684530113</v>
+        <v>1640.523745597531</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -27480,7 +27480,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="5">
-        <v>1658.172842183608</v>
+        <v>1593.662898882754</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -27488,7 +27488,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="5">
-        <v>1619.984616911676</v>
+        <v>1720.318411592218</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -27496,7 +27496,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="5">
-        <v>1523.746501970181</v>
+        <v>1529.804352597752</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -27504,7 +27504,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="5">
-        <v>1433.071068836527</v>
+        <v>1787.804338561579</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -27512,7 +27512,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="5">
-        <v>1464.51186012587</v>
+        <v>1642.922413852051</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -27520,7 +27520,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="5">
-        <v>1333.440109094392</v>
+        <v>1609.563584634929</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -27528,7 +27528,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="5">
-        <v>1426.385273377926</v>
+        <v>1351.208242432777</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -27536,7 +27536,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="5">
-        <v>1409.961427795327</v>
+        <v>1351.585733666784</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -27544,7 +27544,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="5">
-        <v>1504.391297169644</v>
+        <v>1606.710462720638</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -27552,7 +27552,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="5">
-        <v>1376.018499017171</v>
+        <v>1321.938258453125</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -27560,7 +27560,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="5">
-        <v>1443.865861231031</v>
+        <v>1426.86782482901</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -27568,7 +27568,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="5">
-        <v>1573.486384343016</v>
+        <v>1871.893465736249</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -27576,7 +27576,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="5">
-        <v>1630.98512189584</v>
+        <v>1753.121764202718</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -27584,7 +27584,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="5">
-        <v>1603.842644963085</v>
+        <v>1483.696247603746</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -27592,7 +27592,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="5">
-        <v>1740.080887407622</v>
+        <v>1810.933074191779</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -27600,7 +27600,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="5">
-        <v>1472.34710799587</v>
+        <v>1772.945182298454</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -27608,7 +27608,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="5">
-        <v>1735.634807569759</v>
+        <v>1363.985750383764</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -27616,7 +27616,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="5">
-        <v>1663.070571220977</v>
+        <v>1666.761278689108</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -27624,7 +27624,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="5">
-        <v>1464.844230165304</v>
+        <v>1348.562478660879</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -27632,7 +27632,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="5">
-        <v>1699.020766874025</v>
+        <v>1679.125914642731</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -27640,7 +27640,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="5">
-        <v>1328.518890213113</v>
+        <v>1802.20368161582</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -27648,7 +27648,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="5">
-        <v>1649.886473520683</v>
+        <v>1761.378821099816</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -27656,7 +27656,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="5">
-        <v>1511.138166303608</v>
+        <v>1803.199121403874</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -27664,7 +27664,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="5">
-        <v>1376.888599372116</v>
+        <v>1787.409103039885</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -27672,7 +27672,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="5">
-        <v>1430.723509581539</v>
+        <v>1695.992471451605</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -27680,7 +27680,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="5">
-        <v>1763.943556288546</v>
+        <v>1398.393029670299</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -27688,7 +27688,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="5">
-        <v>1760.746873138769</v>
+        <v>1749.057360876328</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -27696,7 +27696,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="5">
-        <v>1422.263252710715</v>
+        <v>1317.393866714458</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -27704,7 +27704,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="5">
-        <v>1735.491242551874</v>
+        <v>1625.572132304222</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -27712,7 +27712,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="5">
-        <v>1398.926541714124</v>
+        <v>1682.582488496868</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -27720,7 +27720,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="5">
-        <v>1825.750646060818</v>
+        <v>1648.894156746202</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -27728,7 +27728,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="5">
-        <v>1782.439670777273</v>
+        <v>1477.249877164366</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -27736,7 +27736,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="5">
-        <v>1318.990391568337</v>
+        <v>1552.365934916932</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -27744,7 +27744,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="5">
-        <v>1696.132726788846</v>
+        <v>1779.491228668835</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -27752,7 +27752,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="5">
-        <v>1726.050235605289</v>
+        <v>1464.714515552547</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -27760,7 +27760,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="5">
-        <v>1682.043325700633</v>
+        <v>1456.804253549758</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -27768,7 +27768,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="5">
-        <v>1720.543701687664</v>
+        <v>1718.195038792106</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -27776,7 +27776,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="5">
-        <v>1849.540801816961</v>
+        <v>1378.633116444428</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -27784,7 +27784,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="5">
-        <v>1784.293225128069</v>
+        <v>1498.517523002784</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -27792,7 +27792,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="5">
-        <v>1683.737354814089</v>
+        <v>1790.307927690327</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -27800,7 +27800,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="5">
-        <v>1666.719731004269</v>
+        <v>1328.745369574721</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -27808,7 +27808,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="5">
-        <v>1788.492006844649</v>
+        <v>1642.729241756239</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -27816,7 +27816,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="5">
-        <v>1424.120995059837</v>
+        <v>1705.354900727398</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -27824,7 +27824,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="5">
-        <v>1454.658026998865</v>
+        <v>1413.408971603357</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -27832,7 +27832,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="5">
-        <v>1761.369047196381</v>
+        <v>1478.356546573096</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -27840,7 +27840,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="5">
-        <v>1396.724034017649</v>
+        <v>1536.437283631812</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -27848,7 +27848,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="5">
-        <v>1797.598123374308</v>
+        <v>1370.148797232335</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -27856,7 +27856,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="5">
-        <v>1652.429606983475</v>
+        <v>1680.794110772677</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -27864,7 +27864,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="5">
-        <v>1780.736279057144</v>
+        <v>1792.371019352948</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -27872,7 +27872,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="5">
-        <v>1428.902236199632</v>
+        <v>1373.881140659372</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -27880,7 +27880,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="5">
-        <v>1418.660802373787</v>
+        <v>1321.611450817096</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -27888,7 +27888,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="5">
-        <v>1799.62838212827</v>
+        <v>1831.622165384071</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -27896,7 +27896,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="5">
-        <v>1624.51295723484</v>
+        <v>1560.253898496887</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -27904,7 +27904,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="5">
-        <v>1664.025531515402</v>
+        <v>1587.303686189089</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -27912,7 +27912,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="5">
-        <v>1709.643651069446</v>
+        <v>1808.650895902306</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -27920,7 +27920,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="5">
-        <v>1678.118226164055</v>
+        <v>1507.863761806797</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -27928,7 +27928,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="5">
-        <v>1555.470477473119</v>
+        <v>1562.589838939549</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -27936,7 +27936,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="5">
-        <v>1449.96312057846</v>
+        <v>1544.470042974941</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -27944,7 +27944,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="5">
-        <v>1823.730756616408</v>
+        <v>1761.910027480666</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -27952,7 +27952,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="5">
-        <v>1377.341874633379</v>
+        <v>1657.177139936171</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -27960,7 +27960,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="5">
-        <v>1581.755252012306</v>
+        <v>1849.635864180326</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -27968,7 +27968,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="5">
-        <v>1638.303532422695</v>
+        <v>1526.872201383597</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -27976,7 +27976,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="5">
-        <v>1454.410673092441</v>
+        <v>1341.046517113918</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -27984,7 +27984,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="5">
-        <v>1770.697200637552</v>
+        <v>1622.486361544436</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -27992,7 +27992,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="5">
-        <v>1633.240020287844</v>
+        <v>1705.8229620095</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -28000,7 +28000,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="5">
-        <v>1557.076111500125</v>
+        <v>1837.675067660132</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -28008,7 +28008,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="5">
-        <v>1826.538016164745</v>
+        <v>1419.92454876361</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -28016,7 +28016,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="5">
-        <v>1829.77242752391</v>
+        <v>1627.891124266565</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -28024,7 +28024,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="5">
-        <v>1729.861917796648</v>
+        <v>1612.356026004562</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -28032,7 +28032,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="5">
-        <v>1843.635340601826</v>
+        <v>1835.754254832083</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -28040,7 +28040,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="5">
-        <v>1416.999539873562</v>
+        <v>1470.144898843443</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -28048,7 +28048,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="5">
-        <v>1799.20667099999</v>
+        <v>1396.494378917449</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -28056,7 +28056,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="5">
-        <v>1600.536572053606</v>
+        <v>1338.171544190458</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -28064,7 +28064,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="5">
-        <v>1448.298015086171</v>
+        <v>1575.996310189576</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -28072,7 +28072,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="5">
-        <v>1760.165534278203</v>
+        <v>1596.797748789234</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -28080,7 +28080,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="5">
-        <v>1429.594776964152</v>
+        <v>1445.331725962013</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -28088,7 +28088,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="5">
-        <v>1456.476819753685</v>
+        <v>1785.892588506379</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -28096,7 +28096,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="5">
-        <v>1557.631815018085</v>
+        <v>1761.378789110071</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -28104,7 +28104,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="5">
-        <v>1497.615555523944</v>
+        <v>1719.326134848283</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -28112,7 +28112,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="5">
-        <v>1362.217016654924</v>
+        <v>1426.80991398043</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -28120,7 +28120,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="5">
-        <v>1764.855026589405</v>
+        <v>1272.420438797339</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -28128,7 +28128,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="5">
-        <v>1822.113967711394</v>
+        <v>1405.212317891328</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -28136,7 +28136,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="5">
-        <v>1527.48612766286</v>
+        <v>1533.281327678184</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -28144,7 +28144,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="5">
-        <v>1502.492357588927</v>
+        <v>1683.859193886484</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -28152,7 +28152,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="5">
-        <v>1282.59122723552</v>
+        <v>1823.516064588987</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -28160,7 +28160,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="5">
-        <v>1513.743706659628</v>
+        <v>1522.918690782623</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -28168,7 +28168,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="5">
-        <v>1426.879405637607</v>
+        <v>1763.129381668223</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -28176,7 +28176,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="5">
-        <v>1403.728319761869</v>
+        <v>1574.355203483547</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -28184,7 +28184,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="5">
-        <v>1424.42282034207</v>
+        <v>1528.528134084728</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -28192,7 +28192,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="5">
-        <v>1726.672597910871</v>
+        <v>1571.589317008714</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -28200,7 +28200,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="5">
-        <v>1305.016844254931</v>
+        <v>1770.809603738137</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -28208,7 +28208,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="5">
-        <v>1711.103517368231</v>
+        <v>1459.968981032319</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -28216,7 +28216,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="5">
-        <v>1547.802999031323</v>
+        <v>1311.972348368541</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -28224,7 +28224,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="5">
-        <v>1365.093121510927</v>
+        <v>1282.978014949774</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -28232,7 +28232,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="5">
-        <v>1629.17978037199</v>
+        <v>1603.068523780818</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -28240,7 +28240,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="5">
-        <v>1342.967079868026</v>
+        <v>1787.269876220591</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -28248,7 +28248,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="5">
-        <v>1767.846792508893</v>
+        <v>1560.156268885386</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -28256,7 +28256,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="5">
-        <v>1730.155179394367</v>
+        <v>1742.449708954346</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -28264,7 +28264,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="5">
-        <v>1747.58348259442</v>
+        <v>1369.820497073674</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -28272,7 +28272,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="5">
-        <v>1502.740680175279</v>
+        <v>1670.644466210341</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -28280,7 +28280,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="5">
-        <v>1775.795567863089</v>
+        <v>1653.724358002859</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -28288,7 +28288,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="5">
-        <v>1744.223633231173</v>
+        <v>1482.638570092608</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -28296,7 +28296,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="5">
-        <v>1610.233372745666</v>
+        <v>1655.075492543762</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -28304,7 +28304,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="5">
-        <v>1474.61514073061</v>
+        <v>1815.532539471948</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -28312,7 +28312,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="5">
-        <v>1377.477902933739</v>
+        <v>1361.664604717335</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -28320,7 +28320,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="5">
-        <v>1759.02963333089</v>
+        <v>1381.558815630499</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -28328,7 +28328,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="5">
-        <v>1670.117768899208</v>
+        <v>1502.576168533621</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -28336,7 +28336,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="5">
-        <v>1663.530101743399</v>
+        <v>1376.412688249322</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -28344,7 +28344,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="5">
-        <v>1796.083334798252</v>
+        <v>1637.607490087969</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -28352,7 +28352,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="5">
-        <v>1293.686068934793</v>
+        <v>1687.816345710661</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -28360,7 +28360,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="5">
-        <v>1538.697403526236</v>
+        <v>1596.361750778472</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -28368,7 +28368,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="5">
-        <v>1754.850585272048</v>
+        <v>1576.217927725248</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -28376,7 +28376,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="5">
-        <v>1667.291717527878</v>
+        <v>1679.830239579479</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -28384,7 +28384,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="5">
-        <v>1812.047916094482</v>
+        <v>1597.884216077018</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -28392,7 +28392,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="5">
-        <v>1783.896096511832</v>
+        <v>1422.014409393467</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -28400,7 +28400,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="5">
-        <v>1676.903987105029</v>
+        <v>1331.102454113333</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -28408,7 +28408,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="5">
-        <v>1683.422270326339</v>
+        <v>1740.020110862269</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -28416,7 +28416,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="5">
-        <v>1818.882148429453</v>
+        <v>1497.426625492617</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -28424,7 +28424,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="5">
-        <v>1338.942549491614</v>
+        <v>1726.871030051004</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -28432,7 +28432,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="5">
-        <v>1667.458007039686</v>
+        <v>1545.865860188789</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -28440,7 +28440,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="5">
-        <v>1779.41987898916</v>
+        <v>1525.043178312372</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -28448,7 +28448,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="5">
-        <v>1589.891808072118</v>
+        <v>1809.502050803319</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -28456,7 +28456,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="5">
-        <v>1295.572059225248</v>
+        <v>1364.212416191229</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -28464,7 +28464,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="5">
-        <v>1450.603432280709</v>
+        <v>1498.936782130528</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -28472,7 +28472,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="5">
-        <v>1587.59762414665</v>
+        <v>1413.057648218682</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -28480,7 +28480,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="5">
-        <v>1532.662320697211</v>
+        <v>1598.985835757253</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -28488,7 +28488,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="5">
-        <v>1546.543067264402</v>
+        <v>1837.61602023782</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -28496,7 +28496,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="5">
-        <v>1629.821071341114</v>
+        <v>1362.360197180743</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -28504,7 +28504,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="5">
-        <v>1416.833435461675</v>
+        <v>1628.811769106849</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -28512,7 +28512,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="5">
-        <v>1485.406424769226</v>
+        <v>1651.105932852189</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -28520,7 +28520,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="5">
-        <v>1461.532045143183</v>
+        <v>1728.547226678442</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -28528,7 +28528,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="5">
-        <v>1540.541096476294</v>
+        <v>1427.509460699873</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -28536,7 +28536,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="5">
-        <v>1805.06688480228</v>
+        <v>1688.577945045933</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -28544,7 +28544,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="5">
-        <v>1682.280270769622</v>
+        <v>1406.10029372441</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -28552,7 +28552,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="5">
-        <v>1433.404136095784</v>
+        <v>1442.279387224083</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -28560,7 +28560,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="5">
-        <v>1375.005226592308</v>
+        <v>1474.126589897947</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -28568,7 +28568,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="5">
-        <v>1828.456983097238</v>
+        <v>1401.444210983302</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -28576,7 +28576,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="5">
-        <v>1763.351094174976</v>
+        <v>1686.116876794974</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -28584,7 +28584,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="5">
-        <v>1655.987417206816</v>
+        <v>1436.92688589863</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -28592,7 +28592,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="5">
-        <v>1461.386970307811</v>
+        <v>1461.701459490722</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -28600,7 +28600,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="5">
-        <v>1309.867658160546</v>
+        <v>1671.213919190516</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -28608,7 +28608,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="5">
-        <v>1418.059383063436</v>
+        <v>1383.524158656159</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -28616,7 +28616,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="5">
-        <v>1402.5832807629</v>
+        <v>1422.464301667787</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -28624,7 +28624,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="5">
-        <v>1438.863299808099</v>
+        <v>1395.960098268487</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -28632,7 +28632,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="5">
-        <v>1719.020713490113</v>
+        <v>1692.840759482319</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -28640,7 +28640,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="5">
-        <v>1512.188461122342</v>
+        <v>1758.614317117474</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -28648,7 +28648,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="5">
-        <v>1540.109100599581</v>
+        <v>1763.368985196799</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -28656,7 +28656,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="5">
-        <v>1474.899150447852</v>
+        <v>1818.15442304456</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -28664,7 +28664,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="5">
-        <v>1645.945793538643</v>
+        <v>1694.508834556167</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -28672,7 +28672,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="5">
-        <v>1787.051254946527</v>
+        <v>1712.270324722352</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -28680,7 +28680,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="5">
-        <v>1389.683041983182</v>
+        <v>1730.396012231615</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -28688,7 +28688,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="5">
-        <v>1431.40553931207</v>
+        <v>1585.141888358349</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -28696,7 +28696,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="5">
-        <v>1439.365205170143</v>
+        <v>1502.187034828962</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -28704,7 +28704,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="5">
-        <v>1620.661712471218</v>
+        <v>1789.320402873716</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -28712,7 +28712,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="5">
-        <v>1581.527280203635</v>
+        <v>1397.962239777026</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -28720,7 +28720,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="5">
-        <v>1612.296925259148</v>
+        <v>1532.21913946982</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -28728,7 +28728,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="5">
-        <v>1785.799695579899</v>
+        <v>1689.643212189219</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -28736,7 +28736,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="5">
-        <v>1502.042569104251</v>
+        <v>1407.292573757959</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -28744,7 +28744,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="5">
-        <v>1693.989594202768</v>
+        <v>1458.448623393525</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -28752,7 +28752,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="5">
-        <v>1796.586383476818</v>
+        <v>1723.015068801979</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -28760,7 +28760,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="5">
-        <v>1478.678698270918</v>
+        <v>1441.588964513171</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -28768,7 +28768,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="5">
-        <v>1376.404404567007</v>
+        <v>1792.556803422442</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -28776,7 +28776,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="5">
-        <v>1744.129119601274</v>
+        <v>1398.819912566658</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -28784,7 +28784,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="5">
-        <v>1682.754651377868</v>
+        <v>1715.867295734573</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -28792,7 +28792,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="5">
-        <v>1366.71776738473</v>
+        <v>1327.62746896037</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -28800,7 +28800,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="5">
-        <v>1609.318295349223</v>
+        <v>1655.108319693216</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -28808,7 +28808,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="5">
-        <v>1338.99289775272</v>
+        <v>1801.321504730095</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -28816,7 +28816,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="5">
-        <v>1757.213589931643</v>
+        <v>1441.891279969801</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -28824,7 +28824,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="5">
-        <v>1548.032030514061</v>
+        <v>1592.195691320706</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -28832,7 +28832,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="5">
-        <v>1731.5609667363</v>
+        <v>1400.714975369108</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -28840,7 +28840,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="5">
-        <v>1727.676565060652</v>
+        <v>1841.563121649159</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -28848,7 +28848,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="5">
-        <v>1751.104436694121</v>
+        <v>1632.979423763656</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -28856,7 +28856,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="5">
-        <v>1589.805148547333</v>
+        <v>1851.335646540835</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -28864,7 +28864,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="5">
-        <v>1802.416947376215</v>
+        <v>1678.095310806273</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -28872,7 +28872,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="5">
-        <v>1585.179587846854</v>
+        <v>1806.25325001185</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -28880,7 +28880,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="5">
-        <v>1458.360994198046</v>
+        <v>1272.662283047955</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -28888,7 +28888,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="5">
-        <v>1594.655349928807</v>
+        <v>1549.756177429549</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -28896,7 +28896,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="5">
-        <v>1444.491304869011</v>
+        <v>1793.363687729276</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -28904,7 +28904,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="5">
-        <v>1683.429177540289</v>
+        <v>1545.437576471367</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -28912,7 +28912,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="5">
-        <v>1427.12697337597</v>
+        <v>1441.188834531936</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -28920,7 +28920,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="5">
-        <v>1836.499600864502</v>
+        <v>1431.357152986728</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -28928,7 +28928,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="5">
-        <v>1485.118388379929</v>
+        <v>1338.11520539328</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -28936,7 +28936,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="5">
-        <v>1878.403894371026</v>
+        <v>1769.581698102624</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -28944,7 +28944,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="5">
-        <v>1600.729229865049</v>
+        <v>1747.716294561089</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -28952,7 +28952,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="5">
-        <v>1620.304896858011</v>
+        <v>1474.444498898951</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -28960,7 +28960,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="5">
-        <v>1778.879079270475</v>
+        <v>1456.404113646027</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -28968,7 +28968,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="5">
-        <v>1641.372013659031</v>
+        <v>1821.326491353472</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -28976,7 +28976,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="5">
-        <v>1681.668414663292</v>
+        <v>1534.389961798016</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -28984,7 +28984,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="5">
-        <v>1331.057953056568</v>
+        <v>1521.617097978086</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -28992,7 +28992,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="5">
-        <v>1741.4302882031</v>
+        <v>1702.307291134647</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -29000,7 +29000,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="5">
-        <v>1794.799087416392</v>
+        <v>1469.448781275132</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -29008,7 +29008,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="5">
-        <v>1798.306383714218</v>
+        <v>1323.576078953301</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -29016,7 +29016,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="5">
-        <v>1324.306214130464</v>
+        <v>1633.620638915775</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -29024,7 +29024,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="5">
-        <v>1826.445551706279</v>
+        <v>1408.799114806291</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -29032,7 +29032,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="5">
-        <v>1405.409539565335</v>
+        <v>1388.670546568789</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -29040,7 +29040,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="5">
-        <v>1666.219046273919</v>
+        <v>1793.917607150704</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -29048,7 +29048,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="5">
-        <v>1486.078950205416</v>
+        <v>1851.741248637502</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -29056,7 +29056,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="5">
-        <v>1816.779265524952</v>
+        <v>1445.261462412288</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -29064,7 +29064,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="5">
-        <v>1517.235546973324</v>
+        <v>1335.447293294284</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -29072,7 +29072,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="5">
-        <v>1414.113980613802</v>
+        <v>1569.09970107732</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -29080,7 +29080,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="5">
-        <v>1321.24648013341</v>
+        <v>1731.056379620939</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -29088,7 +29088,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="5">
-        <v>1635.167900964867</v>
+        <v>1579.185741119953</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -29096,7 +29096,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="5">
-        <v>1481.063967333633</v>
+        <v>1527.326226279261</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -29104,7 +29104,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="5">
-        <v>1377.909631068241</v>
+        <v>1668.806248322504</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -29112,7 +29112,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="5">
-        <v>1382.935754556014</v>
+        <v>1374.688739052558</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -29120,7 +29120,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="5">
-        <v>1346.01981933895</v>
+        <v>1510.271082822257</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -29128,7 +29128,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="5">
-        <v>1702.980064030315</v>
+        <v>1738.9765710027</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -29136,7 +29136,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="5">
-        <v>1444.812662054855</v>
+        <v>1681.001105407778</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -29144,7 +29144,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="5">
-        <v>1614.959730645075</v>
+        <v>1611.032732781434</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -29152,7 +29152,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="5">
-        <v>1383.321277684193</v>
+        <v>1423.484791232606</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -29160,7 +29160,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="5">
-        <v>1784.798750261094</v>
+        <v>1697.12175517381</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -29168,7 +29168,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="5">
-        <v>1657.896592088019</v>
+        <v>1784.796639745876</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -29176,7 +29176,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="5">
-        <v>1364.704356374256</v>
+        <v>1508.649523449398</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -29184,7 +29184,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="5">
-        <v>1782.344703409795</v>
+        <v>1625.333564231454</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -29192,7 +29192,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="5">
-        <v>1807.245179279215</v>
+        <v>1785.201039666942</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -29200,7 +29200,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="5">
-        <v>1754.469416134894</v>
+        <v>1619.50384670326</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -29208,7 +29208,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="5">
-        <v>1489.853988046363</v>
+        <v>1664.406888158486</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -29216,7 +29216,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="5">
-        <v>1634.132497772231</v>
+        <v>1832.621755088896</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -29224,7 +29224,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="5">
-        <v>1626.828548877832</v>
+        <v>1506.114260894855</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -29232,7 +29232,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="5">
-        <v>1595.266900051268</v>
+        <v>1627.837468415684</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -29240,7 +29240,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="5">
-        <v>1412.303061096545</v>
+        <v>1753.757791619726</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -29248,7 +29248,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="5">
-        <v>1642.109672711948</v>
+        <v>1615.987301143645</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -29256,7 +29256,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="5">
-        <v>1417.084174621681</v>
+        <v>1691.051853062472</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -29264,7 +29264,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="5">
-        <v>1832.969605007994</v>
+        <v>1595.720231906474</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -29272,7 +29272,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="5">
-        <v>1318.838346208508</v>
+        <v>1445.271758939073</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -29280,7 +29280,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="5">
-        <v>1558.001518523787</v>
+        <v>1499.563632075515</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -29288,7 +29288,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="5">
-        <v>1593.616176710485</v>
+        <v>1835.397197707819</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -29296,7 +29296,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="5">
-        <v>1707.922263848641</v>
+        <v>1668.058904393296</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -29304,7 +29304,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="5">
-        <v>1595.98340115574</v>
+        <v>1451.965489531166</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -29312,7 +29312,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="5">
-        <v>1610.055597237346</v>
+        <v>1747.606596331268</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -29320,7 +29320,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="5">
-        <v>1783.65531200272</v>
+        <v>1738.439821668187</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -29328,7 +29328,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="5">
-        <v>1842.436840701879</v>
+        <v>1645.565441970798</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -29336,7 +29336,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="5">
-        <v>1836.914929538927</v>
+        <v>1756.427758045515</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -29344,7 +29344,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="5">
-        <v>1506.818788843814</v>
+        <v>1833.450320471828</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -29352,7 +29352,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="5">
-        <v>1682.396438036187</v>
+        <v>1837.181882668722</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -29360,7 +29360,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="5">
-        <v>1559.754739919742</v>
+        <v>1600.05156888029</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -29368,7 +29368,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="5">
-        <v>1703.130429539887</v>
+        <v>1575.542707685506</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -29376,7 +29376,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="5">
-        <v>1830.720367205138</v>
+        <v>1492.459191599476</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -29384,7 +29384,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="5">
-        <v>1563.382197203005</v>
+        <v>1545.570424531886</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -29392,7 +29392,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="5">
-        <v>1829.252740986846</v>
+        <v>1578.021347983362</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -29400,7 +29400,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="5">
-        <v>1774.069101663226</v>
+        <v>1760.479061746251</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -29408,7 +29408,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="5">
-        <v>1374.836062057739</v>
+        <v>1687.962242102463</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -29416,7 +29416,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="5">
-        <v>1745.83373222265</v>
+        <v>1529.791562855918</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -29424,7 +29424,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="5">
-        <v>1635.134077677183</v>
+        <v>1815.214600163383</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -29432,7 +29432,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="5">
-        <v>1792.680372141191</v>
+        <v>1670.596510738061</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -29440,7 +29440,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="5">
-        <v>1407.692798576006</v>
+        <v>1671.29500557239</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -29448,7 +29448,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="5">
-        <v>1517.331170598791</v>
+        <v>1652.048090472979</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -29456,7 +29456,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="5">
-        <v>1661.92092244215</v>
+        <v>1600.49770424886</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -29464,7 +29464,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="5">
-        <v>1506.041149708092</v>
+        <v>1705.502685296482</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -29472,7 +29472,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="5">
-        <v>1614.719143580772</v>
+        <v>1612.891176814594</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -29480,7 +29480,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="5">
-        <v>1853.347447906941</v>
+        <v>1878.44793897668</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -29488,7 +29488,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="5">
-        <v>1325.529364108758</v>
+        <v>1439.340390254132</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -29496,7 +29496,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="5">
-        <v>1344.713290682007</v>
+        <v>1831.646757397678</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -29504,7 +29504,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="5">
-        <v>1610.319495757878</v>
+        <v>1324.506851525377</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -29512,7 +29512,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="5">
-        <v>1822.752966878461</v>
+        <v>1531.418483820004</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -29520,7 +29520,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="5">
-        <v>1497.358568358718</v>
+        <v>1700.660444493594</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -29528,7 +29528,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="5">
-        <v>1610.470232806739</v>
+        <v>1360.36876581865</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -29536,7 +29536,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="5">
-        <v>1348.68225668217</v>
+        <v>1459.482125384217</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -29544,7 +29544,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="5">
-        <v>1604.593946704802</v>
+        <v>1515.812783214601</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -29552,7 +29552,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="5">
-        <v>1339.708071429069</v>
+        <v>1435.522887804642</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -29560,7 +29560,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="5">
-        <v>1785.223313926165</v>
+        <v>1792.219718284352</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -29568,7 +29568,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="5">
-        <v>1606.896970426025</v>
+        <v>1690.275127479411</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -29576,7 +29576,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="5">
-        <v>1325.697261987169</v>
+        <v>1717.529387913376</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -29584,7 +29584,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="5">
-        <v>1503.323621900453</v>
+        <v>1562.540070375221</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -29592,7 +29592,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="5">
-        <v>1385.430898711388</v>
+        <v>1391.593655958243</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -29600,7 +29600,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="5">
-        <v>1706.128547956811</v>
+        <v>1513.397104625377</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -29608,7 +29608,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="5">
-        <v>1481.811903817864</v>
+        <v>1771.359785758104</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -29616,7 +29616,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="5">
-        <v>1801.716933004538</v>
+        <v>1759.465632819562</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -29624,7 +29624,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="5">
-        <v>1548.184418459934</v>
+        <v>1681.581588903181</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -29632,7 +29632,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="5">
-        <v>1650.168713210767</v>
+        <v>1674.541007492656</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -29640,7 +29640,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="5">
-        <v>1476.87386206606</v>
+        <v>1295.502777606868</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -29648,7 +29648,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="5">
-        <v>1728.351552473082</v>
+        <v>1345.957537505601</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -29656,7 +29656,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="5">
-        <v>1480.211430317528</v>
+        <v>1316.075739270019</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -29664,7 +29664,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="5">
-        <v>1619.142046129483</v>
+        <v>1486.953321857611</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -29672,7 +29672,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="5">
-        <v>1847.633638462301</v>
+        <v>1523.442667525973</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -29680,7 +29680,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="5">
-        <v>1468.355397523322</v>
+        <v>1661.500256095371</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -29688,7 +29688,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="5">
-        <v>1404.573626047896</v>
+        <v>1327.098893576808</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -29696,7 +29696,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="5">
-        <v>1447.9563982048</v>
+        <v>1656.812110746818</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -29704,7 +29704,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="5">
-        <v>1390.704418831693</v>
+        <v>1403.859508381917</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -29712,7 +29712,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="5">
-        <v>1649.402301820978</v>
+        <v>1456.918736807678</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -29720,7 +29720,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="5">
-        <v>1486.144092028947</v>
+        <v>1621.195022668368</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -29728,7 +29728,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="5">
-        <v>1698.053634816639</v>
+        <v>1548.353329892358</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -29736,7 +29736,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="5">
-        <v>1560.253295489751</v>
+        <v>1630.690526229462</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -29744,7 +29744,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="5">
-        <v>1607.561948883774</v>
+        <v>1697.910225934981</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -29752,7 +29752,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="5">
-        <v>1654.92924310063</v>
+        <v>1579.586092739342</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -29760,7 +29760,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="5">
-        <v>1438.636890540377</v>
+        <v>1795.051346086095</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -29768,7 +29768,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="5">
-        <v>1303.578818357014</v>
+        <v>1454.536969180269</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -29776,7 +29776,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="5">
-        <v>1250.656990075503</v>
+        <v>1415.538600744035</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -29784,7 +29784,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="5">
-        <v>1559.131348575839</v>
+        <v>1460.941077101295</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -29792,7 +29792,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="5">
-        <v>1369.940851166234</v>
+        <v>1330.313234255519</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -29800,7 +29800,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="5">
-        <v>1735.557132799862</v>
+        <v>1333.679391813388</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -29808,7 +29808,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="5">
-        <v>1467.098355384359</v>
+        <v>1798.887994812087</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -29816,7 +29816,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="5">
-        <v>1817.089670701533</v>
+        <v>1499.059548254416</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -29824,7 +29824,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="5">
-        <v>1801.313584216652</v>
+        <v>1598.326174564568</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -29832,7 +29832,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="5">
-        <v>1651.539886480374</v>
+        <v>1643.089952262939</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -29840,7 +29840,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="5">
-        <v>1819.49131932671</v>
+        <v>1825.021605174765</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -29848,7 +29848,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="5">
-        <v>1760.00532689923</v>
+        <v>1700.228187092784</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -29856,7 +29856,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="5">
-        <v>1551.796461522864</v>
+        <v>1489.697201145995</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -29864,7 +29864,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="5">
-        <v>1601.873057571406</v>
+        <v>1600.293659406753</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -29872,7 +29872,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="5">
-        <v>1621.455342168596</v>
+        <v>1476.85476100434</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -29880,7 +29880,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="5">
-        <v>1364.664490008013</v>
+        <v>1520.039250944577</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -29888,7 +29888,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="5">
-        <v>1584.091382658495</v>
+        <v>1373.619899177366</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -29896,7 +29896,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="5">
-        <v>1507.252366844356</v>
+        <v>1543.765269224902</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -29904,7 +29904,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="5">
-        <v>1465.526904525773</v>
+        <v>1396.867208752239</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -29912,7 +29912,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="5">
-        <v>1644.755790333148</v>
+        <v>1385.30470262314</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -29920,7 +29920,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="5">
-        <v>1829.027014606019</v>
+        <v>1392.547920837762</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -29928,7 +29928,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="5">
-        <v>1540.60632569042</v>
+        <v>1544.033493994586</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -29936,7 +29936,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="5">
-        <v>1341.04719741801</v>
+        <v>1348.910061822652</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -29944,7 +29944,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="5">
-        <v>1645.955303919742</v>
+        <v>1345.658784485898</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -29952,7 +29952,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="5">
-        <v>1628.132584983917</v>
+        <v>1465.319134834436</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -29960,7 +29960,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="5">
-        <v>1398.101006687354</v>
+        <v>1368.787910484376</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -29968,7 +29968,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="5">
-        <v>1483.645708403904</v>
+        <v>1525.3142536333</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -29976,7 +29976,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="5">
-        <v>1599.311867842186</v>
+        <v>1512.788670833255</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -29984,7 +29984,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="5">
-        <v>1720.292650120345</v>
+        <v>1478.31545400539</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -29992,7 +29992,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="5">
-        <v>1366.142394304723</v>
+        <v>1864.220328435477</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -30000,7 +30000,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="5">
-        <v>1765.582693607795</v>
+        <v>1556.6569739938</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -30008,7 +30008,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="5">
-        <v>1318.077913179548</v>
+        <v>1483.558573470895</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -30016,7 +30016,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="5">
-        <v>1505.308623380033</v>
+        <v>1657.343587722949</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -30024,7 +30024,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="5">
-        <v>1541.282260857414</v>
+        <v>1478.304504769028</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -30032,7 +30032,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="5">
-        <v>1834.287732298871</v>
+        <v>1759.207877828064</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -30040,7 +30040,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="5">
-        <v>1596.67357928431</v>
+        <v>1832.379317121568</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -30048,7 +30048,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="5">
-        <v>1520.316810504814</v>
+        <v>1325.725077893509</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -30056,7 +30056,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="5">
-        <v>1855.540233164329</v>
+        <v>1708.147661683849</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -30064,7 +30064,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="5">
-        <v>1562.876128350757</v>
+        <v>1651.777136683697</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -30072,7 +30072,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="5">
-        <v>1694.113019728924</v>
+        <v>1395.106206655713</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -30080,7 +30080,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="5">
-        <v>1417.883176222449</v>
+        <v>1545.399769053005</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -30088,7 +30088,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="5">
-        <v>1617.286963713514</v>
+        <v>1651.917482289023</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -30096,7 +30096,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="5">
-        <v>1428.106192727102</v>
+        <v>1724.35739331303</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -30104,7 +30104,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="5">
-        <v>1681.422290826944</v>
+        <v>1449.446872557699</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -30112,7 +30112,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="5">
-        <v>1448.419401879277</v>
+        <v>1370.518524316356</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -30120,7 +30120,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="5">
-        <v>1689.266375277262</v>
+        <v>1637.31792653933</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -30128,7 +30128,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="5">
-        <v>1361.528853669382</v>
+        <v>1607.972568031013</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -30136,7 +30136,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="5">
-        <v>1533.624825920495</v>
+        <v>1696.93424277329</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -30144,7 +30144,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="5">
-        <v>1838.457832819445</v>
+        <v>1661.083377005296</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -30152,7 +30152,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="5">
-        <v>1493.406078614898</v>
+        <v>1409.845832153964</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -30160,7 +30160,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="5">
-        <v>1440.272665279011</v>
+        <v>1763.756088615642</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -30168,7 +30168,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="5">
-        <v>1635.102749988501</v>
+        <v>1668.379077440316</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -30176,7 +30176,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="5">
-        <v>1514.382793227671</v>
+        <v>1518.85825336672</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -30184,7 +30184,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="5">
-        <v>1865.235568232182</v>
+        <v>1350.074602069767</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -30192,7 +30192,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="5">
-        <v>1624.370829120084</v>
+        <v>1509.537075749143</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -30200,7 +30200,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="5">
-        <v>1669.221842828451</v>
+        <v>1525.434537730896</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -30208,7 +30208,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="5">
-        <v>1693.456148016594</v>
+        <v>1729.903856993787</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -30216,7 +30216,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="5">
-        <v>1493.740153644809</v>
+        <v>1453.914192077216</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -30224,7 +30224,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="5">
-        <v>1428.856692951501</v>
+        <v>1673.041615700298</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -30232,7 +30232,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="5">
-        <v>1785.522049259489</v>
+        <v>1365.698463248041</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -30240,7 +30240,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="5">
-        <v>1828.343653926036</v>
+        <v>1686.974637525654</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -30248,7 +30248,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="5">
-        <v>1541.830994947129</v>
+        <v>1574.201181142847</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -30256,7 +30256,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="5">
-        <v>1711.172114335322</v>
+        <v>1799.399046537501</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -30264,7 +30264,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="5">
-        <v>1830.817200254266</v>
+        <v>1711.181863831679</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -30272,7 +30272,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="5">
-        <v>1530.82367921227</v>
+        <v>1813.789212314783</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -30280,7 +30280,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="5">
-        <v>1446.654716516236</v>
+        <v>1566.23793571349</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -30288,7 +30288,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="5">
-        <v>1548.525786837469</v>
+        <v>1760.771481100084</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -30296,7 +30296,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="5">
-        <v>1819.039905781462</v>
+        <v>1476.842751342666</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -30304,7 +30304,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="5">
-        <v>1602.054542335057</v>
+        <v>1360.618748443913</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -30312,7 +30312,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="5">
-        <v>1611.13370597029</v>
+        <v>1486.071897238666</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -30320,7 +30320,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="5">
-        <v>1772.397818897175</v>
+        <v>1548.480020431014</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -30328,7 +30328,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="5">
-        <v>1664.373795209083</v>
+        <v>1332.758787784761</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -30336,7 +30336,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="5">
-        <v>1775.915079389547</v>
+        <v>1371.408157073509</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -30344,7 +30344,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="5">
-        <v>1330.870654046145</v>
+        <v>1656.805882436081</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -30352,7 +30352,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="5">
-        <v>1348.642287195939</v>
+        <v>1441.889426507498</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -30360,7 +30360,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="5">
-        <v>1690.041367283365</v>
+        <v>1414.536077435072</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -30368,7 +30368,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="5">
-        <v>1536.948792358186</v>
+        <v>1795.384428316917</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -30376,7 +30376,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="5">
-        <v>1699.10818138996</v>
+        <v>1823.616528522915</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -30384,7 +30384,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="5">
-        <v>1648.140736280906</v>
+        <v>1657.740942211033</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -30392,7 +30392,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="5">
-        <v>1796.120688675453</v>
+        <v>1325.896029009698</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -30400,7 +30400,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="5">
-        <v>1386.099697012554</v>
+        <v>1677.287970478894</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -30408,7 +30408,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="5">
-        <v>1417.900806064719</v>
+        <v>1353.706178667331</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -30416,7 +30416,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="5">
-        <v>1537.423299572166</v>
+        <v>1686.192473117751</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -30424,7 +30424,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="5">
-        <v>1784.499776578375</v>
+        <v>1775.01171907717</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -30432,7 +30432,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="5">
-        <v>1466.259408319303</v>
+        <v>1500.610729923126</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -30440,7 +30440,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="5">
-        <v>1550.146847436146</v>
+        <v>1582.304960512145</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -30448,7 +30448,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="5">
-        <v>1352.378877062886</v>
+        <v>1566.614011288308</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -30456,7 +30456,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="5">
-        <v>1488.208020311005</v>
+        <v>1491.560052014461</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -30464,7 +30464,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="5">
-        <v>1713.147630956211</v>
+        <v>1578.322417679741</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -30472,7 +30472,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="5">
-        <v>1542.966646438121</v>
+        <v>1424.444797936006</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -30480,7 +30480,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="5">
-        <v>1546.204865233871</v>
+        <v>1459.690514141893</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -30488,7 +30488,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="5">
-        <v>1829.146886069629</v>
+        <v>1697.957891660386</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -30496,7 +30496,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="5">
-        <v>1425.504468836629</v>
+        <v>1755.343718000434</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -30504,7 +30504,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="5">
-        <v>1502.184733478431</v>
+        <v>1697.000957076422</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -30512,7 +30512,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="5">
-        <v>1513.312344387539</v>
+        <v>1545.34436246098</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -30520,7 +30520,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="5">
-        <v>1736.294424729048</v>
+        <v>1423.436010337082</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -30528,7 +30528,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="5">
-        <v>1745.250091889216</v>
+        <v>1358.071858036963</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -30536,7 +30536,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="5">
-        <v>1447.865634448924</v>
+        <v>1710.75900298295</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -30544,7 +30544,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="5">
-        <v>1324.820007302461</v>
+        <v>1719.464232578402</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -30552,7 +30552,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="5">
-        <v>1449.843737747335</v>
+        <v>1799.040320127173</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -30560,7 +30560,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="5">
-        <v>1545.285744347345</v>
+        <v>1794.990520561758</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -30568,7 +30568,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="5">
-        <v>1335.31920023803</v>
+        <v>1481.321306620865</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -30576,7 +30576,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="5">
-        <v>1667.390829262624</v>
+        <v>1727.788892857791</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -30584,7 +30584,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="5">
-        <v>1698.104356666068</v>
+        <v>1662.792901093825</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -30592,7 +30592,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="5">
-        <v>1692.638267383113</v>
+        <v>1608.83421643674</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -30600,7 +30600,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="5">
-        <v>1622.429849601603</v>
+        <v>1368.519161499109</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -30608,7 +30608,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="5">
-        <v>1663.394053578779</v>
+        <v>1296.087520657152</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -30616,7 +30616,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="5">
-        <v>1452.396646537266</v>
+        <v>1317.5007214784</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -30624,7 +30624,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="5">
-        <v>1729.064142618269</v>
+        <v>1394.049393510572</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -30632,7 +30632,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="5">
-        <v>1544.288610438353</v>
+        <v>1822.207088910481</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -30640,7 +30640,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="5">
-        <v>1505.500657821819</v>
+        <v>1807.183158030791</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -30648,7 +30648,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="5">
-        <v>1495.880752217082</v>
+        <v>1767.460350656383</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -30656,7 +30656,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="5">
-        <v>1498.54428105869</v>
+        <v>1569.153091447688</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -30664,7 +30664,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="5">
-        <v>1696.174251968353</v>
+        <v>1431.385905988972</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -30672,7 +30672,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="5">
-        <v>1539.215872225072</v>
+        <v>1632.454343484181</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -30680,7 +30680,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="5">
-        <v>1465.070222545161</v>
+        <v>1466.410337055125</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -30688,7 +30688,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="5">
-        <v>1822.384919446992</v>
+        <v>1675.390047765921</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -30696,7 +30696,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="5">
-        <v>1618.245167829258</v>
+        <v>1642.204426227919</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -30704,7 +30704,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="5">
-        <v>1436.34584748062</v>
+        <v>1386.06212703847</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -30712,7 +30712,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="5">
-        <v>1789.984471171939</v>
+        <v>1311.618886706853</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -30720,7 +30720,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="5">
-        <v>1659.916942713617</v>
+        <v>1865.317250659037</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -30728,7 +30728,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="5">
-        <v>1474.089054102343</v>
+        <v>1297.871373242082</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -30736,7 +30736,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="5">
-        <v>1567.039925766639</v>
+        <v>1444.721193193637</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -30744,7 +30744,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="5">
-        <v>1514.721260228024</v>
+        <v>1797.178937567266</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -30752,7 +30752,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="5">
-        <v>1694.351300046668</v>
+        <v>1354.115444359244</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -30760,7 +30760,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="5">
-        <v>1764.813439149256</v>
+        <v>1420.192655356703</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -30768,7 +30768,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="5">
-        <v>1503.172595337623</v>
+        <v>1607.236876387173</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -30776,7 +30776,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="5">
-        <v>1455.616960711311</v>
+        <v>1549.832517739833</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -30784,7 +30784,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="5">
-        <v>1834.878514345552</v>
+        <v>1763.319324279619</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -30792,7 +30792,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="5">
-        <v>1579.499382948227</v>
+        <v>1759.416570796928</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -30800,7 +30800,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="5">
-        <v>1528.031345511997</v>
+        <v>1558.35270829395</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -30808,7 +30808,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="5">
-        <v>1362.853909222912</v>
+        <v>1443.695301708056</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -30816,7 +30816,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="5">
-        <v>1523.141056905899</v>
+        <v>1360.716098842774</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -30824,7 +30824,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="5">
-        <v>1296.402742010439</v>
+        <v>1763.161658796799</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -30832,7 +30832,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="5">
-        <v>1460.145637518559</v>
+        <v>1574.159117892867</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -30840,7 +30840,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="5">
-        <v>1818.391753560761</v>
+        <v>1535.903670790231</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -30848,7 +30848,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="5">
-        <v>1812.586376246327</v>
+        <v>1853.633372222097</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -30856,7 +30856,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="5">
-        <v>1676.013500530416</v>
+        <v>1539.952288205404</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -30864,7 +30864,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="5">
-        <v>1715.977383826279</v>
+        <v>1449.652288746605</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -30872,7 +30872,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="5">
-        <v>1590.413947014097</v>
+        <v>1441.204715118378</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -30880,7 +30880,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="5">
-        <v>1384.964251894258</v>
+        <v>1694.942802258845</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -30888,7 +30888,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="5">
-        <v>1547.857100480782</v>
+        <v>1517.192749189324</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -30896,7 +30896,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="5">
-        <v>1391.572643865659</v>
+        <v>1390.485684109308</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -30904,7 +30904,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="5">
-        <v>1527.889969947909</v>
+        <v>1828.270187513737</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -30912,7 +30912,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="5">
-        <v>1805.841710943999</v>
+        <v>1747.141706070114</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -30920,7 +30920,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="5">
-        <v>1424.57892227645</v>
+        <v>1574.62111899245</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -30928,7 +30928,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="5">
-        <v>1824.507449834268</v>
+        <v>1505.604196797973</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -30936,7 +30936,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="5">
-        <v>1354.836915729831</v>
+        <v>1720.402888266578</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -30944,7 +30944,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="5">
-        <v>1666.277193640862</v>
+        <v>1755.232125342542</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -30952,7 +30952,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="5">
-        <v>1814.623934016377</v>
+        <v>1718.93668858057</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -30960,7 +30960,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="5">
-        <v>1293.709038313728</v>
+        <v>1489.151921028504</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -30968,7 +30968,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="5">
-        <v>1684.24866659667</v>
+        <v>1503.733814041499</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -30976,7 +30976,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="5">
-        <v>1733.553982949821</v>
+        <v>1594.516931294044</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -30984,7 +30984,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="5">
-        <v>1686.307669788373</v>
+        <v>1796.471791667606</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -30992,7 +30992,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="5">
-        <v>1369.564007389556</v>
+        <v>1476.283425883156</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -31000,7 +31000,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="5">
-        <v>1640.996670736744</v>
+        <v>1894.847242100087</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -31008,7 +31008,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="5">
-        <v>1575.002422875177</v>
+        <v>1626.212677455774</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -31016,7 +31016,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="5">
-        <v>1703.406205906173</v>
+        <v>1517.666101559741</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -31024,7 +31024,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="5">
-        <v>1535.559808287553</v>
+        <v>1536.089223279869</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -31032,7 +31032,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="5">
-        <v>1445.274065746884</v>
+        <v>1685.422692421374</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -31040,7 +31040,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="5">
-        <v>1578.316377602447</v>
+        <v>1361.449936220031</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -31048,7 +31048,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="5">
-        <v>1439.510911104368</v>
+        <v>1748.154316431539</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -31056,7 +31056,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="5">
-        <v>1318.185093582528</v>
+        <v>1563.056860682289</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -31064,7 +31064,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="5">
-        <v>1659.575067347536</v>
+        <v>1591.46542788434</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -31072,7 +31072,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="5">
-        <v>1499.937940172869</v>
+        <v>1670.794521905463</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -31080,7 +31080,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="5">
-        <v>1726.700613094653</v>
+        <v>1515.998248472738</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -31088,7 +31088,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="5">
-        <v>1320.482831664205</v>
+        <v>1815.00923478079</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -31096,7 +31096,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="5">
-        <v>1522.959080431015</v>
+        <v>1767.566657455914</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -31104,7 +31104,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="5">
-        <v>1591.96826167903</v>
+        <v>1853.312534987098</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -31112,7 +31112,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="5">
-        <v>1497.915960500048</v>
+        <v>1511.835430527904</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -31120,7 +31120,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="5">
-        <v>1613.496682102668</v>
+        <v>1668.071826616342</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -31128,7 +31128,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="5">
-        <v>1457.142205261857</v>
+        <v>1760.494471198608</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -31136,7 +31136,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="5">
-        <v>1525.871185862459</v>
+        <v>1496.609863464643</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -31144,7 +31144,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="5">
-        <v>1612.612001508787</v>
+        <v>1757.685178486566</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -31152,7 +31152,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="5">
-        <v>1571.306631494441</v>
+        <v>1766.028250268925</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -31160,7 +31160,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="5">
-        <v>1397.270037670465</v>
+        <v>1289.300098294395</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -31168,7 +31168,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="5">
-        <v>1450.966337091966</v>
+        <v>1497.114982436473</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -31176,7 +31176,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="5">
-        <v>1566.940610248106</v>
+        <v>1490.978447783263</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -31184,7 +31184,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="5">
-        <v>1472.91591811846</v>
+        <v>1578.749333943498</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -31192,7 +31192,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="5">
-        <v>1655.418670572622</v>
+        <v>1387.5291560882</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -31200,7 +31200,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="5">
-        <v>1632.702098827267</v>
+        <v>1648.876975826722</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -31208,7 +31208,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="5">
-        <v>1529.927118993244</v>
+        <v>1392.111134291862</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -31216,7 +31216,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="5">
-        <v>1457.93169261157</v>
+        <v>1521.524855749444</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -31224,7 +31224,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="5">
-        <v>1800.655905600119</v>
+        <v>1425.903926411838</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -31232,7 +31232,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="5">
-        <v>1644.117130651991</v>
+        <v>1640.110979181431</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -31240,7 +31240,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="5">
-        <v>1401.021840802076</v>
+        <v>1324.157015138228</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -31248,7 +31248,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="5">
-        <v>1474.233270504525</v>
+        <v>1592.45897981295</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -31256,7 +31256,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="5">
-        <v>1836.084709334691</v>
+        <v>1503.402476356871</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -31264,7 +31264,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="5">
-        <v>1374.53054560006</v>
+        <v>1670.786189822768</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -31272,7 +31272,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="5">
-        <v>1521.912370034725</v>
+        <v>1850.829699959635</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -31280,7 +31280,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="5">
-        <v>1454.698881709324</v>
+        <v>1702.437362131816</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -31288,7 +31288,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="5">
-        <v>1715.864352556297</v>
+        <v>1545.277257421584</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -31296,7 +31296,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="5">
-        <v>1551.198914781997</v>
+        <v>1411.410013127467</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -31304,7 +31304,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="5">
-        <v>1443.462169459072</v>
+        <v>1761.424915075144</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -31312,7 +31312,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="5">
-        <v>1752.091449842406</v>
+        <v>1422.191203707192</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -31320,7 +31320,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="5">
-        <v>1593.996901884982</v>
+        <v>1725.882118502517</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -31328,7 +31328,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="5">
-        <v>1399.196645873876</v>
+        <v>1467.203272181138</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -31336,7 +31336,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="5">
-        <v>1843.223559688607</v>
+        <v>1636.74764809449</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -31344,7 +31344,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="5">
-        <v>1316.309223421653</v>
+        <v>1448.104611099913</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -31352,7 +31352,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="5">
-        <v>1753.065616762317</v>
+        <v>1869.234312749766</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -31360,7 +31360,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="5">
-        <v>1587.00964989313</v>
+        <v>1463.185563499165</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -31368,7 +31368,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="5">
-        <v>1807.552838648003</v>
+        <v>1761.434224261096</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -31376,7 +31376,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="5">
-        <v>1678.211560491098</v>
+        <v>1813.464095303112</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -31384,7 +31384,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="5">
-        <v>1398.027341238799</v>
+        <v>1607.707046190541</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -31392,7 +31392,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="5">
-        <v>1503.66892301843</v>
+        <v>1618.666960621265</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -31400,7 +31400,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="5">
-        <v>1772.154109755329</v>
+        <v>1714.915150121705</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -31408,7 +31408,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="5">
-        <v>1645.750072473551</v>
+        <v>1394.125433924357</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -31416,7 +31416,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="5">
-        <v>1470.368436982665</v>
+        <v>1724.750234938406</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -31424,7 +31424,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="5">
-        <v>1409.321225555992</v>
+        <v>1638.665802769179</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -31432,7 +31432,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="5">
-        <v>1678.413479329686</v>
+        <v>1602.721448024645</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -31440,7 +31440,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="5">
-        <v>1683.390047997952</v>
+        <v>1631.150707494357</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -31448,7 +31448,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="5">
-        <v>1412.402302003316</v>
+        <v>1491.499340870579</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -31456,7 +31456,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="5">
-        <v>1709.94744930566</v>
+        <v>1679.631823066587</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -31464,7 +31464,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="5">
-        <v>1615.034814332482</v>
+        <v>1796.29821379759</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -31472,7 +31472,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="5">
-        <v>1749.793958922495</v>
+        <v>1508.443656987501</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -31480,7 +31480,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="5">
-        <v>1526.33223814875</v>
+        <v>1853.600727897977</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -31488,7 +31488,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="5">
-        <v>1419.215926752623</v>
+        <v>1775.915316775995</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -31496,7 +31496,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="5">
-        <v>1500.82507419458</v>
+        <v>1538.705001731054</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -31504,7 +31504,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="5">
-        <v>1842.934648623426</v>
+        <v>1824.962409582597</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -31512,7 +31512,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="5">
-        <v>1555.114340701419</v>
+        <v>1596.431604904036</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -31520,7 +31520,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="5">
-        <v>1483.121389959753</v>
+        <v>1384.954855005819</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -31528,7 +31528,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="5">
-        <v>1845.930270172283</v>
+        <v>1830.073846567103</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -31536,7 +31536,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="5">
-        <v>1633.629202213445</v>
+        <v>1516.83174890496</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -31544,7 +31544,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="5">
-        <v>1365.178933656635</v>
+        <v>1528.990258963506</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -31552,7 +31552,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="5">
-        <v>1819.574937619192</v>
+        <v>1831.933527458864</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -31560,7 +31560,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="5">
-        <v>1721.057462151114</v>
+        <v>1468.952388799809</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -31568,7 +31568,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="5">
-        <v>1372.397293522542</v>
+        <v>1612.328870608914</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -31576,7 +31576,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="5">
-        <v>1531.734839482887</v>
+        <v>1477.165298519058</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -31584,7 +31584,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="5">
-        <v>1808.39017255022</v>
+        <v>1599.053243344812</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -31592,7 +31592,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="5">
-        <v>1587.808768978101</v>
+        <v>1503.175016361885</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -31600,7 +31600,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="5">
-        <v>1487.188499091189</v>
+        <v>1378.938206457155</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -31608,7 +31608,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="5">
-        <v>1645.643885439728</v>
+        <v>1788.12655867814</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -31616,7 +31616,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="5">
-        <v>1725.864170163416</v>
+        <v>1418.120648287667</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -31624,7 +31624,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="5">
-        <v>1518.246872413045</v>
+        <v>1747.420455129201</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -31632,7 +31632,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="5">
-        <v>1450.124575993925</v>
+        <v>1374.266318152697</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -31640,7 +31640,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="5">
-        <v>1876.408355215178</v>
+        <v>1907.038960716977</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -31648,7 +31648,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="5">
-        <v>1478.607275855949</v>
+        <v>1379.615273542747</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -31656,7 +31656,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="5">
-        <v>1333.606460136038</v>
+        <v>1414.904010960958</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -31664,7 +31664,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="5">
-        <v>1477.236698655332</v>
+        <v>1505.767660941317</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -31672,7 +31672,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="5">
-        <v>1581.978078967252</v>
+        <v>1579.163954863704</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -31680,7 +31680,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="5">
-        <v>1674.425489709315</v>
+        <v>1672.942844025723</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -31688,7 +31688,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="5">
-        <v>1479.790923896579</v>
+        <v>1565.338253575311</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -31696,7 +31696,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="5">
-        <v>1579.681187358953</v>
+        <v>1591.804426065436</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -31704,7 +31704,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="5">
-        <v>1385.809310931385</v>
+        <v>1648.006340196684</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -31712,7 +31712,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="5">
-        <v>1691.755344157357</v>
+        <v>1431.539555059098</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -31720,7 +31720,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="5">
-        <v>1826.320733438381</v>
+        <v>1673.462339893443</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -31728,7 +31728,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="5">
-        <v>1601.876676568545</v>
+        <v>1361.840858777669</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -31736,7 +31736,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="5">
-        <v>1439.184190741121</v>
+        <v>1819.747159226261</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -31744,7 +31744,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="5">
-        <v>1490.783244955627</v>
+        <v>1593.669911391436</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -31752,7 +31752,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="5">
-        <v>1500.781289099347</v>
+        <v>1367.089672204598</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -31760,7 +31760,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="5">
-        <v>1776.84806071794</v>
+        <v>1352.71363950935</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -31768,7 +31768,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="5">
-        <v>1738.993046696427</v>
+        <v>1787.112246279205</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -31776,7 +31776,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="5">
-        <v>1671.131467303976</v>
+        <v>1365.795826010379</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -31784,7 +31784,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="5">
-        <v>1604.32868262754</v>
+        <v>1657.058709832003</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -31792,7 +31792,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="5">
-        <v>1564.639421552143</v>
+        <v>1592.970438152925</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -31800,7 +31800,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="5">
-        <v>1691.808335819387</v>
+        <v>1492.000275445896</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -31808,7 +31808,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="5">
-        <v>1721.803194050972</v>
+        <v>1541.226056876092</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -31816,7 +31816,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="5">
-        <v>1898.516454003952</v>
+        <v>1761.446567926147</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -31824,7 +31824,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="5">
-        <v>1428.471314809854</v>
+        <v>1607.887344029005</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -31832,7 +31832,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="5">
-        <v>1810.643990912338</v>
+        <v>1783.612752135568</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -31840,7 +31840,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="5">
-        <v>1472.675916518674</v>
+        <v>1828.048415332035</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -31848,7 +31848,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="5">
-        <v>1677.575663994951</v>
+        <v>1699.415048308096</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -31856,7 +31856,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="5">
-        <v>1416.944289853418</v>
+        <v>1597.186463521134</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -31864,7 +31864,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="5">
-        <v>1347.738028478238</v>
+        <v>1478.016364002276</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -31872,7 +31872,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="5">
-        <v>1805.324869616879</v>
+        <v>1723.659492970621</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -31880,7 +31880,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="5">
-        <v>1698.785523397386</v>
+        <v>1799.839556089949</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -31888,7 +31888,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="5">
-        <v>1450.341468148706</v>
+        <v>1648.44179406527</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -31896,7 +31896,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="5">
-        <v>1526.381053914001</v>
+        <v>1366.080631141978</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -31904,7 +31904,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="5">
-        <v>1388.892800264445</v>
+        <v>1623.584466205798</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -31912,7 +31912,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="5">
-        <v>1321.879073504263</v>
+        <v>1454.626396928889</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -31920,7 +31920,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="5">
-        <v>1812.725731746053</v>
+        <v>1363.717441905086</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -31928,7 +31928,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="5">
-        <v>1652.628167375575</v>
+        <v>1832.899954005831</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -31936,7 +31936,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="5">
-        <v>1758.200955121975</v>
+        <v>1739.515521711266</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -31944,7 +31944,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="5">
-        <v>1366.220385256758</v>
+        <v>1751.299807448119</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -31952,7 +31952,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="5">
-        <v>1551.664740876962</v>
+        <v>1689.551429115835</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -31960,7 +31960,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="5">
-        <v>1441.927861888827</v>
+        <v>1782.529570107653</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -31968,7 +31968,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="5">
-        <v>1784.732949228682</v>
+        <v>1527.720814687187</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -31976,7 +31976,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="5">
-        <v>1321.529378330521</v>
+        <v>1658.162581226369</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -31984,7 +31984,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="5">
-        <v>1494.168517410516</v>
+        <v>1684.251502155611</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -31992,7 +31992,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="5">
-        <v>1608.485969987646</v>
+        <v>1342.355276593454</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -32000,7 +32000,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="5">
-        <v>1492.045625638726</v>
+        <v>1800.812916874474</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -32008,7 +32008,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="5">
-        <v>1746.765981235613</v>
+        <v>1544.543960452865</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -32016,7 +32016,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="5">
-        <v>1828.554224120887</v>
+        <v>1777.459556759538</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -32024,7 +32024,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="5">
-        <v>1411.49172766502</v>
+        <v>1324.655957648212</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -32032,7 +32032,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="5">
-        <v>1305.811302257938</v>
+        <v>1672.350298231444</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -32040,7 +32040,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="5">
-        <v>1430.180441294438</v>
+        <v>1707.015801986706</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -32048,7 +32048,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="5">
-        <v>1555.329015506027</v>
+        <v>1442.373150664986</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -32056,7 +32056,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="5">
-        <v>1494.963046263551</v>
+        <v>1448.392887302771</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -32064,7 +32064,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="5">
-        <v>1537.569750757173</v>
+        <v>1461.080587124285</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -32072,7 +32072,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="5">
-        <v>1675.788811828237</v>
+        <v>1486.786531730953</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -32080,7 +32080,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="5">
-        <v>1678.501642772183</v>
+        <v>1829.863696393064</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -32088,7 +32088,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="5">
-        <v>1699.5196432326</v>
+        <v>1819.051171932187</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -32096,7 +32096,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="5">
-        <v>1325.021331335526</v>
+        <v>1752.970046304684</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -32104,7 +32104,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="5">
-        <v>1892.830689594408</v>
+        <v>1555.167679943588</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -32112,7 +32112,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="5">
-        <v>1369.149832085753</v>
+        <v>1473.022542348665</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -32120,7 +32120,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="5">
-        <v>1789.203048211572</v>
+        <v>1408.889956188316</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -32128,7 +32128,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="5">
-        <v>1363.939460698177</v>
+        <v>1567.437554183331</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -32136,7 +32136,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="5">
-        <v>1765.995598888503</v>
+        <v>1401.563781380634</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -32144,7 +32144,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="5">
-        <v>1511.275033255945</v>
+        <v>1833.679855869368</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -32152,7 +32152,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="5">
-        <v>1561.272132143263</v>
+        <v>1426.139590825384</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -32160,7 +32160,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="5">
-        <v>1451.171272791105</v>
+        <v>1678.280587369882</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -32168,7 +32168,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="5">
-        <v>1572.976948937996</v>
+        <v>1581.624764816494</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -32176,7 +32176,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="5">
-        <v>1462.171439143799</v>
+        <v>1684.868886213869</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -32184,7 +32184,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="5">
-        <v>1838.226851808201</v>
+        <v>1383.478358579845</v>
       </c>
     </row>
   </sheetData>
